--- a/tasks.xlsx
+++ b/tasks.xlsx
@@ -6,7 +6,7 @@
     <sheet state="visible" name="Task 1" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="Task 2" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="Task 4" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="wholebank" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="()wholebank" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr/>

--- a/tasks.xlsx
+++ b/tasks.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="712">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="735">
   <si>
     <t>Роль: Ты — «Эксперт ЕГЭ», автоматизированная система для проверки устного чтения. Твоя главная задача — быть точным, объективным и полезным.
 Задача: Оцени прочтение текста пользователем. Если в тексте нет грубых ошибок, поставь 1 балл. Если есть хотя бы одна грубая ошибка, поставь 0 баллов и обязательно укажи, какая именно ошибка была допущена.
@@ -1118,10 +1118,10 @@
 You have to talk continuously.</t>
   </si>
   <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/8E0FEBB8BB4DBF5347D22CE90B5C0887(copy1)/xs3qstsrc8E0FEBB8BB4DBF5347D22CE90B5C0887_2_1668610541.jpg</t>
-  </si>
-  <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/8E0FEBB8BB4DBF5347D22CE90B5C0887(copy1)/xs3qstsrc8E0FEBB8BB4DBF5347D22CE90B5C0887_4_1668610541.jpg</t>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/8E0FEBB8BB4DBF5347D22CE120B5C0887(copy1)/xs3qstsrc8E0FEBB8BB4DBF5347D22CE120B5C0887_2_1668610541.jpg</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/8E0FEBB8BB4DBF5347D22CE120B5C0887(copy1)/xs3qstsrc8E0FEBB8BB4DBF5347D22CE120B5C0887_4_1668610541.jpg</t>
   </si>
   <si>
     <t>BCF8E7</t>
@@ -1262,10 +1262,10 @@
 You have to talk continuously.</t>
   </si>
   <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/38A159905FA9A3B44D1066F8DA80523B(copy1)/xs3qstsrc38A159905FA9A3B44D1066F8DA80523B_2_1703591412.jpg</t>
-  </si>
-  <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/38A159905FA9A3B44D1066F8DA80523B(copy1)/xs3qstsrc38A159905FA9A3B44D1066F8DA80523B_3_1703591412.jpg</t>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/38A1591205FA9A3B44D1066F8DA80523B(copy1)/xs3qstsrc38A1591205FA9A3B44D1066F8DA80523B_2_1703591412.jpg</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/38A1591205FA9A3B44D1066F8DA80523B(copy1)/xs3qstsrc38A1591205FA9A3B44D1066F8DA80523B_3_1703591412.jpg</t>
   </si>
   <si>
     <t>E34471</t>
@@ -1280,10 +1280,10 @@
 You have to talk continuously.</t>
   </si>
   <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/E8442A14FC0B939041B6817D86861646(copy1)/xs3qstsrcE8442A14FC0B939041B6817D86861646_2_1668610453.jpg</t>
-  </si>
-  <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/E8442A14FC0B939041B6817D86861646(copy1)/xs3qstsrcE8442A14FC0B939041B6817D86861646_4_1668610453.jpg</t>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/E8442A14FC0B9312041B6817D86861646(copy1)/xs3qstsrcE8442A14FC0B9312041B6817D86861646_2_1668610453.jpg</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/E8442A14FC0B9312041B6817D86861646(copy1)/xs3qstsrcE8442A14FC0B9312041B6817D86861646_4_1668610453.jpg</t>
   </si>
   <si>
     <t>476E11</t>
@@ -1334,10 +1334,10 @@
 You have to talk continuously.</t>
   </si>
   <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/106DE274DCB1824E439752C7BB0F56BA(copy1)/xs3qstsrc106DE274DCB1824E439752C7BB0F56BA_2_1642602907.jpg</t>
-  </si>
-  <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/106DE274DCB1824E439752C7BB0F56BA(copy1)/xs3qstsrc106DE274DCB1824E439752C7BB0F56BA_4_1642602907.jpg</t>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/106DE274DCB1824E439752C7BB0F56BA(copy1)/xs3qstsrc106DE274DCB1824E439752C7BB0F56BA_2_16426021207.jpg</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/106DE274DCB1824E439752C7BB0F56BA(copy1)/xs3qstsrc106DE274DCB1824E439752C7BB0F56BA_4_16426021207.jpg</t>
   </si>
   <si>
     <t>DB3EFA</t>
@@ -1370,10 +1370,10 @@
 You have to talk continuously.</t>
   </si>
   <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/37146D0A6D78801942C7C5019C22FDF1(copy1)/xs3qstsrc37146D0A6D78801942C7C5019C22FDF1_2_1646903540.jpg</t>
-  </si>
-  <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/37146D0A6D78801942C7C5019C22FDF1(copy1)/xs3qstsrc37146D0A6D78801942C7C5019C22FDF1_4_1646903540.jpg</t>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/37146D0A6D78801942C7C5019C22FDF1(copy1)/xs3qstsrc37146D0A6D78801942C7C5019C22FDF1_2_16461203540.jpg</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/37146D0A6D78801942C7C5019C22FDF1(copy1)/xs3qstsrc37146D0A6D78801942C7C5019C22FDF1_4_16461203540.jpg</t>
   </si>
   <si>
     <t>C3FA43</t>
@@ -1442,10 +1442,10 @@
 You have to talk continuously.</t>
   </si>
   <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/2362FD49753CA6E548761FB1AF881F90(copy1)/xs3qstsrc2362FD49753CA6E548761FB1AF881F90_2_1642604082.jpg</t>
-  </si>
-  <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/2362FD49753CA6E548761FB1AF881F90(copy1)/xs3qstsrc2362FD49753CA6E548761FB1AF881F90_4_1642604082.jpg</t>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/2362FD49753CA6E548761FB1AF881F120(copy1)/xs3qstsrc2362FD49753CA6E548761FB1AF881F120_2_1642604082.jpg</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/2362FD49753CA6E548761FB1AF881F120(copy1)/xs3qstsrc2362FD49753CA6E548761FB1AF881F120_4_1642604082.jpg</t>
   </si>
   <si>
     <t>A6BF78</t>
@@ -1596,7 +1596,7 @@
     <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/0541A7AB784FB6024E30FCDDB15337C3(copy1)/xs3qstsrc0541A7AB784FB6024E30FCDDB15337C3_4_1574083314.jpg</t>
   </si>
   <si>
-    <t>A90446</t>
+    <t>A120446</t>
   </si>
   <si>
     <t>Task 4. Study the two photographs. In 1.5 minutes be ready to compare and contrast the photographs:
@@ -1628,10 +1628,10 @@
 You have to talk continuously.</t>
   </si>
   <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/D30CE40313CBBF684429C5C6C98900BE(copy1)/xs3qstsrcD30CE40313CBBF684429C5C6C98900BE_2_1549879495.jpg</t>
-  </si>
-  <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/D30CE40313CBBF684429C5C6C98900BE(copy1)/xs3qstsrcD30CE40313CBBF684429C5C6C98900BE_4_1549879495.jpg</t>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/D30CE40313CBBF684429C5C6C981200BE(copy1)/xs3qstsrcD30CE40313CBBF684429C5C6C981200BE_2_1549879495.jpg</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/D30CE40313CBBF684429C5C6C981200BE(copy1)/xs3qstsrcD30CE40313CBBF684429C5C6C981200BE_4_1549879495.jpg</t>
   </si>
   <si>
     <t>60512E</t>
@@ -1647,10 +1647,10 @@
 You have to talk continuously.</t>
   </si>
   <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/F896FBE7F6DB80CB49E19080F494990E(copy1)/xs3qstsrcF896FBE7F6DB80CB49E19080F494990E_2_1479378513.jpg</t>
-  </si>
-  <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/F896FBE7F6DB80CB49E19080F494990E(copy1)/xs3qstsrcF896FBE7F6DB80CB49E19080F494990E_4_1479378513.jpg</t>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/F896FBE7F6DB80CB49E112080F4949120E(copy1)/xs3qstsrcF896FBE7F6DB80CB49E112080F4949120E_2_1479378513.jpg</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/F896FBE7F6DB80CB49E112080F4949120E(copy1)/xs3qstsrcF896FBE7F6DB80CB49E112080F4949120E_4_1479378513.jpg</t>
   </si>
   <si>
     <t>EE21A9</t>
@@ -1742,10 +1742,10 @@
 You have to talk continuously.</t>
   </si>
   <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/008427C15017B21345546AE1D8C027E2(copy1)/xs3qstsrc008427C15017B21345546AE1D8C027E2_2_1479379135.jpg</t>
-  </si>
-  <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/008427C15017B21345546AE1D8C027E2(copy1)/xs3qstsrc008427C15017B21345546AE1D8C027E2_4_1479379135.jpg</t>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/008427C18017B21345546AE1D8C027E2(copy1)/xs3qstsrc008427C18017B21345546AE1D8C027E2_2_1479379135.jpg</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/008427C18017B21345546AE1D8C027E2(copy1)/xs3qstsrc008427C18017B21345546AE1D8C027E2_4_1479379135.jpg</t>
   </si>
   <si>
     <t>1F2F04</t>
@@ -1884,10 +1884,10 @@
 You have to talk continuously.</t>
   </si>
   <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/4431876FEB99B2C7403CFC3DF62ECBF8(copy2)/xs3qstsrc4431876FEB99B2C7403CFC3DF62ECBF8_10_1605621902.jpg</t>
-  </si>
-  <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/4431876FEB99B2C7403CFC3DF62ECBF8(copy2)/xs3qstsrc4431876FEB99B2C7403CFC3DF62ECBF8_11_1605621902.jpg</t>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/4431876FEB99B2C7403CFC3DF62ECBF8(copy2)/xs3qstsrc4431876FEB99B2C7403CFC3DF62ECBF8_10_16056211202.jpg</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/4431876FEB99B2C7403CFC3DF62ECBF8(copy2)/xs3qstsrc4431876FEB99B2C7403CFC3DF62ECBF8_11_16056211202.jpg</t>
   </si>
   <si>
     <t>7367A7</t>
@@ -1922,875 +1922,944 @@
 You have to talk continuously.</t>
   </si>
   <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/7036222B2E238F414CB556F3402FB930(copy2)/xs3qstsrc7036222B2E238F414CB556F3402FB930_10_16056191200.jpg</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/7036222B2E238F414CB556F3402FB930(copy2)/xs3qstsrc7036222B2E238F414CB556F3402FB930_11_16056191200.jpg</t>
+  </si>
+  <si>
+    <t>Task 1. Imagine that you are preparing a project with your friend. You have found some interesting material for the presentation and you want to read this text to your friend. You have 1.5 minutes to read the text silently, then be ready to read it out aloud. You will not have more than 1.5 minutes to read it.</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/632C3B636538B8D3467579BF02FFEE8A(copy1)/xs3qstsrc632C3B636538B8D3467579BF02FFEE8A_1_1700574264.gif</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/45DD073DF527B4A34C5FCECFC8ECD92E(copy1)/xs3qstsrc45DD073DF527B4A34C5FCECFC8ECD92E_7_1637933286.png</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/8695BDFC6563B26B40375F6DEEB0A40A(copy1)/xs3qstsrc8695BDFC6563B26B40375F6DEEB0A40A_6_1674738429.png</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/73E472669A23889049538EFA5C355074(copy1)/xs3qstsrc73E472669A23889049538EFA5C355074_1_1668608291.png</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/12035B542757840A4DA9195CDD734A18(copy2)/xs3qstsrc12035B542757840A4DA9195CDD734A18_16_1605622815.png</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/DCF14E825D49B7254AE02C622DC201CF(copy1)/xs3qstsrcDCF14E825D49B7254AE02C622DC201CF_2_1484228139.png</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/35AE8F581AA1AB55489DE0477BBB7644(copy1)/xs3qstsrc35AE8F581AA1AB55489DE0477BBB7644_2_1640165068.png</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/D076D08C41F5ACED4E0C0430572067E2(copy1)/xs3qstsrcD076D08C41F5ACED4E0C0430572067E2_2_1544534145.png</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/FF9EF36183718CA0477BA12FB891700B(copy1)/xs3qstsrcFF9EF36183718CA0477BA12FB891700B_2_1484228230.png</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/F69A7E6DD077B0CE4DFABB4BEB14C168(copy1)/xs3qstsrcF69A7E6DD077B0CE4DFABB4BEB14C168_1_1668608092.png</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/F0904EED3788A9A442F1BE24D9988E48(copy1)/xs3qstsrcF0904EED3788A9A442F1BE24D9988E48_2_1484228052.png</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/48DC8D8E3627AB5C4734C0041F2C5F85(copy2)/xs3qstsrc48DC8D8E3627AB5C4734C0041F2C5F85_16_1611654194.png</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/784D6ABB8D9F97994B5228FEFAEEBD07(copy2)/xs3qstsrc784D6ABB8D9F97994B5228FEFAEEBD07_16_1605619876.png</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/671E99DCDDBC9DF44A852A8011CC0277(copy1)/xs3qstsrc671E99DCDDBC9DF44A852A8011CC0277_1_1636714830.png</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/B6CE9DA31A8C8436429E6F8D872E3333(copy1)/xs3qstsrcB6CE9DA31A8C8436429E6F8D872E3333_1_1703591209.gif</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/B45F1D0C4913975A463650936D24FB6E(copy1)/xs3qstsrcB45F1D0C4913975A463650936D24FB6E_4_1639386734.png</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/371D97F69CAC8F164374923C91DA588C(copy1)/xs3qstsrc371D97F69CAC8F164374923C91DA588C_4_1639386653.png</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/73BC4BCA56A185B54DC5C6A91A782B44(copy1)/xs3qstsrc73BC4BCA56A185B54DC5C6A91A782B44_6_1668596445.png</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/08618026CB9A986B486876E7DD4247B2(copy1)/xs3qstsrc08618026CB9A986B486876E7DD4247B2_1_1636707454.png</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/2F6F5AF8D25A8B18484FAA06367FC49E(copy1)/xs3qstsrc2F6F5AF8D25A8B18484FAA06367FC49E_4_1639386167.png</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/4176BB2662E18C2348F5B23D170901F3(copy2)/xs3qstsrc4176BB2662E18C2348F5B23D170901F3_1_1577436151.png</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/F7DC4700AEE2BB2D46624C212FAC4AC8(copy1)/xs3qstsrcF7DC4700AEE2BB2D46624C212FAC4AC8_1_1636718143.png</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/B4611CFB68D8A6E040FC8F6B2481E7C5(copy1)/xs3qstsrcB4611CFB68D8A6E040FC8F6B2481E7C5_1_1575548542.png</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/47FD08D0D8C3AC6B486B7FB190DC3330(copy1)/xs3qstsrc47FD08D0D8C3AC6B486B7FB190DC3330_2_1484228479.png</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/BDBFEFEEA39980BD4DC4AEB99465A4C4(copy1)/xs3qstsrcBDBFEFEEA39980BD4DC4AEB99465A4C4_1_1577435247.png</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/4F31BC6354138F2946BF1F865BC64CE0(copy1)/xs3qstsrc4F31BC6354138F2946BF1F865BC64CE0_2_1541678946.png</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/808E3315BD26BA2348577648E8862178(copy1)/xs3qstsrc808E3315BD26BA2348577648E8862178_1_1703591442.gif</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/510250695C9984274EABBC047770B8E4(copy1)/xs3qstsrc510250695C9984274EABBC047770B8E4_2_1484228296.png</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/B5B82170F906B85143DB7127C1F6A60C(copy1)/xs3qstsrcB5B82170F906B85143DB7127C1F6A60C_1_1703591792.gif</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/32BC867CAB4486A74F37AE5AB912B687(copy1)/xs3qstsrc32BC867CAB4486A74F37AE5AB912B687_2_1541599897.png</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/F0FA8FCC7FF5A13C441F56BD35332D9B(copy2)/xs3qstsrcF0FA8FCC7FF5A13C441F56BD35332D9B_8_1612793349.png</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/FC0EF48587E5BC9C43CABF5A72B7513B(copy1)/xs3qstsrcFC0EF48587E5BC9C43CABF5A72B7513B_1_1577435100.png</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/5A0391B0DCA3B489447F913BDCD0D113(copy1)/xs3qstsrc5A0391B0DCA3B489447F913BDCD0D113_5_1671453520.png</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/6F0E5F3E3B25A97940199747BA97F9FF(copy1)/xs3qstsrc6F0E5F3E3B25A97940199747BA97F9FF_1_1703591352.gif</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/6DE64152475DA4E945B4403038AFA0A8(copy1)/xs3qstsrc6DE64152475DA4E945B4403038AFA0A8_2_1541679067.png</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/1DB63E6B20D3877F4826FE4A63A81E8F(copy1)/xs3qstsrc1DB63E6B20D3877F4826FE4A63A81E8F_2_1541602212.png</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/CC2B702CCEFDB3414BC9C70EBDE2E93D(copy1)/xs3qstsrcCC2B702CCEFDB3414BC9C70EBDE2E93D_2_1484230070.png</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/BA77FF1F8A01A75F4E9B4E4AD46752EA(copy1)/xs3qstsrcBA77FF1F8A01A75F4E9B4E4AD46752EA_1_1700569506.gif</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/C13349F17D26BB614312EFFCF9862D12(copy1)/xs3qstsrcC13349F17D26BB614312EFFCF9862D12_1_1668609054.png</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/36B298B83A409A184CA25EF774C9273A(copy2)/xs3qstsrc36B298B83A409A184CA25EF774C9273A_16_1605618455.png</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/83C43A6F6382AD6745E5EAD14E06F2F2(copy1)/xs3qstsrc83C43A6F6382AD6745E5EAD14E06F2F2_2_1541607657.png</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/94C78160F1719FA246959A776DCEBF9D(copy2)/xs3qstsrc94C78160F1719FA246959A776DCEBF9D_2_1692707290.png</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/CDDCA998AD75B2634BCA310223A35782(copy2)/xs3qstsrcCDDCA998AD75B2634BCA310223A35782_16_1611653244.png</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/702EE7A83F908467439FDC7A1D468796(copy1)/xs3qstsrc702EE7A83F908467439FDC7A1D468796_1_1668607916.png</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/AF5393411541BD744EE32D47C36C11C7(copy1)/xs3qstsrcAF5393411541BD744EE32D47C36C11C7_1_1703591534.gif</t>
+  </si>
+  <si>
+    <t>Task 2. Study the advertisement. You are considering attending the ballet school and now you ’d like to get more information. In 1.5 minutes you are to ask five direct questions to find out about the following: 1) tuition fee; 2) discounts; 3) location; 4) timetable; 5) maximum age. You have 20 seconds to ask each question.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1lJDcoMuE5gNw7LGa1qv0G_39ehFubKF0/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Task 2. Study the advertisement. You are considering attending the driving school and now you ’d like to get more information. In 1.5 minutes you are to ask five direct questions to find out about the following: 1) location; 2) morning classes; 3) minimum age for students; 4) tuition fee; 5) types of cars used. You have 20 seconds to ask each question.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1XGsQEg8uJyxAMKjIp0AD9qkBbV_k0qJP/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Task 2. Study the advertisement. You are considering attending the riding club and now you ’d like to get more information. In 1.5 minutes you are to ask five direct questions to find out about the following: 1) location; 2) necessary equipment; 3) membership fee; 4) number of members in the club; 5) programmes for beginners. You have 20 seconds to ask each question.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1D7fbKMmHMOMas8qYcCuNldv5x2drq1JA/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Task 2. Study the advertisement. You are considering buying a new tablet and now you’d like to get more information. In 1.5 minutes you are to ask four direct questions to find out about the following: 1) available brands; 2) the largest screen size; 3) price range; 4) discounts. You have 20 seconds to ask each question.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1CK6CJawmfp_ax2lD98iY5GlQl_QQJxq5/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Task 2. Study the advertisement. You are considering celebrating your birthday party in this café and now you ’d like to get more information. In 1.5 minutes you are to ask five direct questions to find out about the following: 1) location 2) types of food served 3) vegetarian dishes 4) dancing floor 5) group discounts You have 20 seconds to ask each question.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1DcJZ1aRxtcoYqwfXc5oKQtaJO2FTJMkx/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Task 2. Study the advertisement. You are considering finding a part-time job and now you ’d like to get more information. In 1.5 minutes you are to ask five direct questions to find out about the following: 1) kinds of jobs; 2) salary; 3) skills needed; 4) minimum age; 5) whom to contact. You have 20 seconds to ask each question.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1KMJWw5F_r0HihnrhwBZx5eREbBa8kD9H/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Task 2. Study the advertisement. You are considering getting some professional photos and now you’d like to get more information. In 1.5 minutes you are to ask four direct questions to find out about the following: 1) location of the studio; 2) historical costumes; 3) professional make-up; 4) the cost of an hour’s work. You have 20 seconds to ask each question.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1d4v2PpNYMUWuwYNHiM_zua9Asx1SG9Tw/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Task 2. Study the advertisement. You are considering go ing on a hike in the mountains and now you ’d like to get more information. In 1.5 minutes you are to ask five direct questions to find out about the following: 1) duration of the tour; 2) dates of the tour; 3) minimum age; 4) special equipment; 5) price for one. You have 20 seconds to ask each question.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Hk4peWYo2XFekAgttb18B4wbCFqeXs2w/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Task 2. Study the advertisement. You are considering go ing on the family weekend and now you ’d like to get more information. In 1.5 minutes you are to ask four direct questions to find out about the following: 1) location ; 2) accommodation ; 3) price for the weekend for a family of three ; 4) fishing equipment rental. You have 20 seconds to ask each question.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1gHQUdrortWXNihzrXP5qgQM5E4XOzV3J/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Task 2. Study the advertisement. You are considering go ing to a new ice rink and now you ’d like to get more information. In 1.5 minutes you are to ask four direct questions to find out about the following: 1) location ; 2) equipment rental ; 3) entrance fee ; 4) classes for beginners. You have 20 seconds to ask each question.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1YkMhnnh4tiuqq_lC6ieO_kyWiguJNeze/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Task 2. Study the advertisement. You are considering go ing to the botany club and now you ’d like to get more information. In 1.5 minutes you are to ask four direct questions to find out about the following: 1) activities ; 2) timetable ; 3) minimum age ; 4) number of members in the club. You have 20 seconds to ask each question.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/15nOTOm8nfvLNb5-Sxg7eMjzbSH8niiuR/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Task 2. Study the advertisement. You are considering go ing to the clinic and now you ’d like to get more information. In 1.5 minutes you are to ask five direct questions to find out about the following: 1) location; 2) public transport; 3) kinds of specialists; 4) number of dentists; 5) family discounts. You have 20 seconds to ask each question.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1822koKSBT_kRSpudvptk_YeoDLmJKF35/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Task 2. Study the advertisement. You are considering go ing to the clinic and now you ’d like to get more information. In 1.5 minutes you are to ask four direct questions to find out about the following: 1) location ; 2) public transport ; 3) types of doctors ; 4) family discounts. You have 20 seconds to ask each question.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Ux6BQurM_s1HBYc3jHOq0Xh0f_M3ODco/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Task 2. Study the advertisement. You are considering go ing to the mini-golf club and now you ’d like to get more information. In 1.5 minutes you are to ask four direct questions to find out about the following: 1) location ; 2) equipment rental ; 3) number of members in the club ; 4) minimum age. You have 20 seconds to ask each question.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1tukAfT9A-RluOQ_fQvVnDConhS9-bBnK/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Task 2. Study the advertisement. You are considering go ing to the new aqua park and now you ’d like to get more information. In 1.5 minutes you are to ask four direct questions to find out about the following: 1) public transport ; 2) opening hours ; 3) types of water slides ; 4) minimum age. You have 20 seconds to ask each question.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1DrdtmWxUCg7gEbMXV0VdfOLWtMV-1khS/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Task 2. Study the advertisement. You are considering go ing to the new theatre and now you ’d like to get more information. In 1.5 minutes you are to ask four direct questions to find out about the following: 1) location ; 2) ticket price ; 3) morning shows ; 4) group discounts. You have 20 seconds to ask each question.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1q6sMLJcbQIhQxVH4OZAO5D4QU2as58u4/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Task 2. Study the advertisement. You are considering go ing to the repair center and now you ’d like to get more information. In 1.5 minutes you are to ask four direct questions to find out about the following: 1) location ; 2) types of gadgets repaired ; 3) price for diagnostics ; 4) discounts for students. You have 20 seconds to ask each question.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1xxLuD7n6i2maS7Vacesdlyv8fjWuYsax/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Task 2. Study the advertisement. You are considering go ing to the vet clinic and now you ’d like to get more information. In 1.5 minutes you are to ask five direct questions to find out about the following: 1) location; 2) operation hours; 3) kinds of animals treated; 4) if home visits are possible; 5) discounts. You have 20 seconds to ask each question.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1dYaKmNcSwxwvjRzWWtVadyHli-IwZu3l/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Task 2. Study the advertisement. You are considering going on a bicycle trip and now you ’d like to get more information. In 1.5 minutes you are to ask five direct questions to find out about the following: 1) minimum age 2) preparation 3) number of people in the group 4) accommodation for the night 5) duration of the trip You have 20 seconds to ask each question.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1a6zEwXazW5TwKNUv6WWGHV-hEGrU2Ra2/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Task 2. Study the advertisement. You are considering going on a sightseeing tour and now you ’d like to get more information. In 1.5 minutes you are to ask five direct questions to find out about the following: 1) operation hours 2) starting point 3) tourist attractions to see 4) price for one person 5) group discounts You have 20 seconds to ask each question.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1STnNuYvTdee0h9hUxOxFdCaydNR6UrOE/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Task 2. Study the advertisement. You are considering going on this sea trip and now you’d like to get more information. In 1.5 minutes you are to ask four direct questions to find out about the following: 1) duration of the trip; 2) type of sailboat ; 3) price for one; 4) special equipment needed. You have 20 seconds to ask each question.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1uWH066KV_59hMncubkU9IEFUinRtAqPj/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Task 2. Study the advertisement. You are considering going to London by the new low-cost airline and now you ’d like to get more information. In 1.5 minutes you are to ask five direct questions to find out about the following: 1) flights to London 2) flight time 3) price for one 4) paying by credit card 5) food to buy on board You have 20 seconds to ask each question.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1lYESlZpcGg1Ef5bWwFA2lufNyiPj4CFX/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Task 2. Study the advertisement. You are considering going to the Christmas market and now you’d like to get more information. In 1.5 minutes you are to ask four direct questions to find out about the following: 1) location; 2) opening hours; 3) goods offered; 4) available snacks. You have 20 seconds to ask each question.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1UCsfsTuVAjhc0FedWLaO75K1rOPEELHm/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Task 2. Study the advertisement. You are considering going to the dance school and now you’d like to get more information. In 1.5 minutes you are to ask four direct questions to find out about the following: 1) location; 2) dances taught; 3) special cloth е s; 4) evening classes. You have 20 seconds to ask each question.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1oI1AoQRzCDfh87wA0WccMBM3gCHDQ5xY/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Task 2. Study the advertisement. You are considering going to the fitness club and now you’d like to get more information. In 1.5 minutes you are to ask four direct questions to find out about the following: 1) location; 2) programmes for beginners; 3) special equipment needed; 4) qualified coaches. You have 20 seconds to ask each question.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1mqWPqut-h6f4Thf4HeQxfGuddrMdvWvU/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Task 2. Study the advertisement. You are considering going to the mountains and now you’d like to get more information. In 1.5 minutes you are to ask four direct questions to find out about the following: 1) duration of the tour; 2) price for one; 3) student discounts; 4) special equipment needed. You have 20 seconds to ask each question.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1cCinY2wNR1h6ocI4BG1fo-nUQXamPqIS/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Task 2. Study the advertisement. You are considering going to the new book store and now you ’d like to get more information. In 1.5 minutes you are to ask five direct questions to find out about the following: 1) location 2) opening hours 3) kinds of books sold 4) electronic books 5) meeting with writers You have 20 seconds to ask each question.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1gBUfAbHTdc8uBpEf-0gHljLT9mk2qxXO/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Task 2. Study the advertisement. You are considering going to the new clothing store and now you ’d like to get more information. In 1.5 minutes you are to ask five direct questions to find out about the following: 1) opening hours 2) available sizes 3) discounts 4) free parking 5) how to get to the shop by public transport You have 20 seconds to ask each question.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/12MVK959gLwCLb8HjqJFnWnNwppEKUbas/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Task 2. Study the advertisement. You are considering going to the new fast food restaurant and now you ’d like to get more information. In 1.5 minutes you are to ask five direct questions to find out about the following: 1) location 2) opening hours 3) price of a standard lunch 4) vegetarian dishes 5) free Wi-Fi You have 20 seconds to ask each question.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1lcSHkxpQsghF2kmI38qi9QCCl7LSH9-p/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Task 2. Study the advertisement. You are considering going to the new ice rink and now you’d like to get more information. In 1.5 minutes you are to ask four direct questions to find out about the following: 1) location; 2) opening hours; 3) discounts for students; 4) coach for beginners. You have 20 seconds to ask each question.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/163ZQe2x3VMQ5HqeTGr0tJmx6cfrWl3TE/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Task 2. Study the advertisement. You are considering having a holiday and now you ’d like to get more information. In 1.5 minutes you are to ask five direct questions to find out about the following: 1) location 2) accommodation 3) fishing 4) price for a week for one 5) group discounts You have 20 seconds to ask each question.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1u9GgtuvE7MDIvVLOwVVYFwxYDQFR196J/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Task 2. Study the advertisement. You are considering having a holiday at this resort and now you ’d like to get more information. In 1.5 minutes you are to ask five direct questions to find out about the following: 1) location 2) departure dates 3) single rooms 4) sports facilities 5) price for two weeks for one You have 20 seconds to ask each question.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1pqpBuKGNDJkUm62pgi8u-d8hCYnvgusy/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Task 2. Study the advertisement. You are considering having a seaside holiday and now you ’d like to get more information. In 1.5 minutes you are to ask five direct questions to find out about the following: 1) location 2) transportation 3) sports facilities 4) price for a week for one person 5) family discounts You have 20 seconds to ask each question.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1cXGn7NWazZ7iblKN3QHQuj0vBbQHj9c0/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Task 2. Study the advertisement. You are considering join ing the basketball club and now you ’d like to get more information. In 1.5 minutes you are to ask five direct questions to find out about the following: 1) location; 2) number of members; 3) minimum age; 4) membership fee; 5) qualified coaches. You have 20 seconds to ask each question.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/19dOzcJ0uHQ2W5AlqeAKsMcAO_3DpUCDx/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Task 2. Study the advertisement. You are considering join ing the motorcycle club and now you’d like to get more information. In 1.5 minutes you are to ask four direct questions to find out about the following: 1) location; 2) special clothes; 3) coach; 4) competitions. You have 20 seconds to ask each question.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1OnuYq8zpUFydhy9O5eCvHJf4cVyukHMR/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Task 2. Study the advertisement. You are considering joining the hockey club and now you’d like to get more information. In 1.5 minutes you are to ask four direct questions to find out about the following: 1) location; 2) minimum age; 3) type of ice rink; 4) special equipment needed. You have 20 seconds to ask each question.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/17xeKrAZNvntZ1RJWosEvFdoJiiEEjX2m/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Task 2. Study the advertisement. You are considering joining the volleyball club and now you’d like to get more information. In 1.5 minutes you are to ask four direct questions to find out about the following: 1) location; 2) special clothes; 3) opportunity to play inside; 4) coach for beginners. You have 20 seconds to ask each question.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1monh8TY2MkpUkq7qNLtmksxLlpfCDwtF/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Task 2. Study the advertisement. You are considering ordering a cake from this company and now you’d like to get more information. In 1.5 minutes you are to ask four direct questions to find out about the following: 1) maximum size; 2) cake fillings; 3) delivery; 4) discounts. You have 20 seconds to ask each question.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1qMelEXFkla17VuVF-vo29POwo_iqQiVY/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Task 2. Study the advertisement. You are considering taking a part-time job and now you ’d like to get more information. In 1.5 minutes you are to ask five direct questions to find out about the following: 1) kinds of jobs; 2) skills needed; 3) minimum age; 4) payment; 5) working early in the morning. You have 20 seconds to ask each question.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1qL1sos4bxY8SFUDGoHBOgopLoijUnJBj/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Task 2. Study the advertisement. You are considering taking a part-time job and now you’d like to get more information. In 1.5 minutes you are to ask four direct questions to find out about the following: 1) variety of jobs; 2) minimum age; 3) required number of hours per week ; 4) salary. You have 20 seconds to ask each question.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1afgwZt5g_7TqKxKz1N4vgCxXD0_lQv31/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Task 2. Study the advertisement. You are considering taking some guitar lessons and now you’d like to get more information. In 1.5 minutes you are to ask four direct questions to find out about the following: 1) type of guitar used; 2) number of lessons a week; 3) tuition fee; 4) evening classes. You have 20 seconds to ask each question.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Fu_JgDjnPvuRoC5we2QZORFTnaPf6KlA/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Task 2. Study the advertisement. You are considering taking some lessons and now you ’d like to get more information. In 1.5 minutes you are to ask five direct questions to find out about the following: 1) location 2) price for one lesson 3) duration of the lesson 4) languages available 5) evening classes You have 20 seconds to ask each question.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1bEHsgzAWM_j8_xidbY4aTlQL2O_BZiGz/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Task 2. Study the advertisement. You are considering taking some painting classes and now you ’d like to get more information. In 1.5 minutes you are to ask five direct questions to find out about the following: 1) location; 2) number of classes a week; 3) styles of painting taught; 4) timetable; 5) tuition fee. You have 20 seconds to ask each question.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1gk2YtwOR9CtqgYh6yGAtpoWZUKDSCY7K/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Task 2. Study the advertisement. You are considering using the cargo transportation company service and now you’d like to get more information. In 1.5 minutes you are to ask four direct questions to find out about the following: 1) transportation of plants; 2) types of cars and trucks used; 3) working hours; 4) discounts. You have 20 seconds to ask each question.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1snJuvqOGJo8hmwkgKXi35xbXzwM0rro_/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Task 2. Study the advertisement. You are considering using the clinic and now you ’d like to get more information. In 1.5 minutes you are to ask five direct questions to find out about the following: 1) location 2) opening hours 3) transportation 4) kinds of animals treated 5) if home visits are possible You have 20 seconds to ask each question.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1CcB-H-s2eiWshJ7C9AivcpTLWpKwIv-F/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>79BBF8</t>
+  </si>
+  <si>
+    <t>Task 3. These are photos from your photo album. Choose one photo to describe to your friend. You will have to start speaking in 1.5 minutes and will speak for not more than 2 minutes (12 – 15 sentences) . In your talk remember to speak about: · where and when the photo was taken ; · what/who is in the photo ; · what is happening ; · why you keep the photo in your album ; · why you decided to show the picture to your friend . You have to talk continuously, starting with: “ I ’ ve chosen photo number …”.</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/5A178EA2D8C692594A1F6CC391F4E65D(copy1)/xs3qstsrc5A178EA2D8C692594A1F6CC391F4E65D_2_1574083390.jpg</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/5A178EA2D8C692594A1F6CC391F4E65D(copy1)/xs3qstsrc5A178EA2D8C692594A1F6CC391F4E65D_4_1574083390.jpg</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/5A178EA2D8C692594A1F6CC391F4E65D(copy1)/xs3qstsrc5A178EA2D8C692594A1F6CC391F4E65D_6_1574083390.jpg</t>
+  </si>
+  <si>
+    <t>FF111A</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/27811EE816C89A76437A2A4AED7573BF(copy2)/xs3qstsrc27811EE816C89A76437A2A4AED7573BF_2_1574157503.jpg</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/27811EE816C89A76437A2A4AED7573BF(copy2)/xs3qstsrc27811EE816C89A76437A2A4AED7573BF_4_1574157503.jpg</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/27811EE816C89A76437A2A4AED7573BF(copy2)/xs3qstsrc27811EE816C89A76437A2A4AED7573BF_6_1574157503.jpg</t>
+  </si>
+  <si>
+    <t>858C2A</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/29A4BE1F0F19ADC64F2FEE618ACBE569(copy1)/xs3qstsrc29A4BE1F0F19ADC64F2FEE618ACBE569_2_1574084363.jpg</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/29A4BE1F0F19ADC64F2FEE618ACBE569(copy1)/xs3qstsrc29A4BE1F0F19ADC64F2FEE618ACBE569_4_1574084363.jpg</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/29A4BE1F0F19ADC64F2FEE618ACBE569(copy1)/xs3qstsrc29A4BE1F0F19ADC64F2FEE618ACBE569_6_1574084363.jpg</t>
+  </si>
+  <si>
+    <t>9AD660</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/1F97F684B5F0A830443913D63C96D860(copy1)/xs3qstsrc1F97F684B5F0A830443913D63C96D860_2_1575548838.jpg</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/1F97F684B5F0A830443913D63C96D860(copy1)/xs3qstsrc1F97F684B5F0A830443913D63C96D860_4_1575548838.jpg</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/1F97F684B5F0A830443913D63C96D860(copy1)/xs3qstsrc1F97F684B5F0A830443913D63C96D860_6_1575548838.jpg</t>
+  </si>
+  <si>
+    <t>5DC747</t>
+  </si>
+  <si>
+    <t>Task 3. These are photos from your photo album. Choose one photo to describe to your friend. You will have to start speaking in 1.5 minutes and will speak for not more than 2 minutes (12 – 15 sentences) . In your talk remember to speak about: · where and when the photo was taken · what/who is in the photo · what is happening · why you keep the photo in your album · why you decided to show the picture to your friend You have to talk continuously, starting with: “I’ve chosen photo number …”</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/509EB58EEADFA7F94096CEC8626AD643(copy1)/xs3qstsrc509EB58EEADFA7F94096CEC8626AD643_7_1483014584.png</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/509EB58EEADFA7F94096CEC8626AD643(copy1)/xs3qstsrc509EB58EEADFA7F94096CEC8626AD643_2_1483014584.jpg</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/509EB58EEADFA7F94096CEC8626AD643(copy1)/xs3qstsrc509EB58EEADFA7F94096CEC8626AD643_4_1483014584.jpg</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/509EB58EEADFA7F94096CEC8626AD643(copy1)/xs3qstsrc509EB58EEADFA7F94096CEC8626AD643_6_1483014584.jpg</t>
+  </si>
+  <si>
+    <t>427DF0</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/5F810DE19EED9F3143C8F929AC5EE719(copy1)/xs3qstsrc5F810DE19EED9F3143C8F929AC5EE719_7_1483014214.png</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/5F810DE19EED9F3143C8F929AC5EE719(copy1)/xs3qstsrc5F810DE19EED9F3143C8F929AC5EE719_2_1483014214.jpg</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/5F810DE19EED9F3143C8F929AC5EE719(copy1)/xs3qstsrc5F810DE19EED9F3143C8F929AC5EE719_4_1483014214.jpg</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/5F810DE19EED9F3143C8F929AC5EE719(copy1)/xs3qstsrc5F810DE19EED9F3143C8F929AC5EE719_6_1483014214.jpg</t>
+  </si>
+  <si>
+    <t>16BDF3</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/1FAB7B231DD3A4964473314AD852B8EB(copy1)/xs3qstsrc1FAB7B231DD3A4964473314AD852B8EB_7_1549879651.png</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/1FAB7B231DD3A4964473314AD852B8EB(copy1)/xs3qstsrc1FAB7B231DD3A4964473314AD852B8EB_2_1549879651.jpg</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/1FAB7B231DD3A4964473314AD852B8EB(copy1)/xs3qstsrc1FAB7B231DD3A4964473314AD852B8EB_4_1549879651.jpg</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/1FAB7B231DD3A4964473314AD852B8EB(copy1)/xs3qstsrc1FAB7B231DD3A4964473314AD852B8EB_6_1549879651.jpg</t>
+  </si>
+  <si>
+    <t>6453FF</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/69FB94CBF23F9F2C4C3919E9B66FA8E8(copy1)/xs3qstsrc69FB94CBF23F9F2C4C3919E9B66FA8E8_7_1483014279.png</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/69FB94CBF23F9F2C4C3919E9B66FA8E8(copy1)/xs3qstsrc69FB94CBF23F9F2C4C3919E9B66FA8E8_2_1483014279.jpg</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/69FB94CBF23F9F2C4C3919E9B66FA8E8(copy1)/xs3qstsrc69FB94CBF23F9F2C4C3919E9B66FA8E8_4_1483014279.jpg</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/69FB94CBF23F9F2C4C3919E9B66FA8E8(copy1)/xs3qstsrc69FB94CBF23F9F2C4C3919E9B66FA8E8_6_1483014279.jpg</t>
+  </si>
+  <si>
+    <t>CE4777</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/B3369029C87C9B284E91859AF0FACDA4(copy1)/xs3qstsrcB3369029C87C9B284E91859AF0FACDA4_7_1483014438.png</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/B3369029C87C9B284E91859AF0FACDA4(copy1)/xs3qstsrcB3369029C87C9B284E91859AF0FACDA4_2_1483014438.jpg</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/B3369029C87C9B284E91859AF0FACDA4(copy1)/xs3qstsrcB3369029C87C9B284E91859AF0FACDA4_4_1483014438.jpg</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/B3369029C87C9B284E91859AF0FACDA4(copy1)/xs3qstsrcB3369029C87C9B284E91859AF0FACDA4_6_1483014438.jpg</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/7320D38BDC5B9EE84F5D1E1FE5C9C9FA(copy1)/xs3qstsrc7320D38BDC5B9EE84F5D1E1FE5C9C9FA_7_1549879589.png</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/7320D38BDC5B9EE84F5D1E1FE5C9C9FA(copy1)/xs3qstsrc7320D38BDC5B9EE84F5D1E1FE5C9C9FA_2_1549879589.jpg</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/7320D38BDC5B9EE84F5D1E1FE5C9C9FA(copy1)/xs3qstsrc7320D38BDC5B9EE84F5D1E1FE5C9C9FA_4_1549879589.jpg</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/7320D38BDC5B9EE84F5D1E1FE5C9C9FA(copy1)/xs3qstsrc7320D38BDC5B9EE84F5D1E1FE5C9C9FA_6_1549879589.jpg</t>
+  </si>
+  <si>
+    <t>3A5426</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/B539E19A6704A85C422DCE5834D2C3DE(copy1)/xs3qstsrcB539E19A6704A85C422DCE5834D2C3DE_7_1483014519.png</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/B539E19A6704A85C422DCE5834D2C3DE(copy1)/xs3qstsrcB539E19A6704A85C422DCE5834D2C3DE_2_1483014519.jpg</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/B539E19A6704A85C422DCE5834D2C3DE(copy1)/xs3qstsrcB539E19A6704A85C422DCE5834D2C3DE_4_1483014519.jpg</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/B539E19A6704A85C422DCE5834D2C3DE(copy1)/xs3qstsrcB539E19A6704A85C422DCE5834D2C3DE_6_1483014519.jpg</t>
+  </si>
+  <si>
+    <t>8DCFDD</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/D19E46A1D662B8CB4EA49904706522DC(copy1)/xs3qstsrcD19E46A1D662B8CB4EA49904706522DC_7_1549980738.png</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/D19E46A1D662B8CB4EA49904706522DC(copy1)/xs3qstsrcD19E46A1D662B8CB4EA49904706522DC_2_1549980738.jpg</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/D19E46A1D662B8CB4EA49904706522DC(copy1)/xs3qstsrcD19E46A1D662B8CB4EA49904706522DC_4_1549980738.jpg</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/D19E46A1D662B8CB4EA49904706522DC(copy1)/xs3qstsrcD19E46A1D662B8CB4EA49904706522DC_6_1549980738.jpg</t>
+  </si>
+  <si>
+    <t>10C591</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/CA232AACF8ED80C84B85873C30C833C2(copy1)/xs3qstsrcCA232AACF8ED80C84B85873C30C833C2_7_1483014342.png</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/CA232AACF8ED80C84B85873C30C833C2(copy1)/xs3qstsrcCA232AACF8ED80C84B85873C30C833C2_2_1483014342.jpg</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/CA232AACF8ED80C84B85873C30C833C2(copy1)/xs3qstsrcCA232AACF8ED80C84B85873C30C833C2_4_1483014342.jpg</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/CA232AACF8ED80C84B85873C30C833C2(copy1)/xs3qstsrcCA232AACF8ED80C84B85873C30C833C2_6_1483014342.jpg</t>
+  </si>
+  <si>
+    <t>874D99</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/2F0B3A5D211695E84AFCCECEB8FDE7AE(copy1)/xs3qstsrc2F0B3A5D211695E84AFCCECEB8FDE7AE_7_1549879345.png</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/2F0B3A5D211695E84AFCCECEB8FDE7AE(copy1)/xs3qstsrc2F0B3A5D211695E84AFCCECEB8FDE7AE_2_1549879345.jpg</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/2F0B3A5D211695E84AFCCECEB8FDE7AE(copy1)/xs3qstsrc2F0B3A5D211695E84AFCCECEB8FDE7AE_4_1549879345.jpg</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/2F0B3A5D211695E84AFCCECEB8FDE7AE(copy1)/xs3qstsrc2F0B3A5D211695E84AFCCECEB8FDE7AE_6_1549879345.jpg</t>
+  </si>
+  <si>
+    <t>D0CFE9</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/9116329139FCBD9048B9D098B95F3E79(copy1)/xs3qstsrc9116329139FCBD9048B9D098B95F3E79_7_1549879446.png</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/9116329139FCBD9048B9D098B95F3E79(copy1)/xs3qstsrc9116329139FCBD9048B9D098B95F3E79_2_1549879446.jpg</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/9116329139FCBD9048B9D098B95F3E79(copy1)/xs3qstsrc9116329139FCBD9048B9D098B95F3E79_4_1549879446.jpg</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/9116329139FCBD9048B9D098B95F3E79(copy1)/xs3qstsrc9116329139FCBD9048B9D098B95F3E79_6_1549879446.jpg</t>
+  </si>
+  <si>
+    <t>52C188</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/E2BC5FD0C237AE5349BB82ABA30FBC98(copy1)/xs3qstsrcE2BC5FD0C237AE5349BB82ABA30FBC98_7_1549879528.png</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/E2BC5FD0C237AE5349BB82ABA30FBC98(copy1)/xs3qstsrcE2BC5FD0C237AE5349BB82ABA30FBC98_2_1549879528.jpg</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/E2BC5FD0C237AE5349BB82ABA30FBC98(copy1)/xs3qstsrcE2BC5FD0C237AE5349BB82ABA30FBC98_4_1549879528.jpg</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/E2BC5FD0C237AE5349BB82ABA30FBC98(copy1)/xs3qstsrcE2BC5FD0C237AE5349BB82ABA30FBC98_6_1549879528.jpg</t>
+  </si>
+  <si>
+    <t>7BF5F8</t>
+  </si>
+  <si>
+    <t>Task 3. These are photos from your photo album. Choose one photo to describe to your friend. You will have to start speaking in 1.5 minutes and will speak for not more than 2 minutes (12–15 sentences) . In your talk remember to speak about: · where and when the photo was taken; · what/who is in the photo; · what is happening; · why you keep the photo in your album; · why you decided to show the picture to your friend. You have to talk continuously, starting with: “I’ve chosen photo number …”.</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/CDE718ED73CDB0984D725334A8AEB44B(copy2)/xs3qstsrcCDE718ED73CDB0984D725334A8AEB44B_3_1612792377.jpg</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/CDE718ED73CDB0984D725334A8AEB44B(copy2)/xs3qstsrcCDE718ED73CDB0984D725334A8AEB44B_4_1612792377.jpg</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/CDE718ED73CDB0984D725334A8AEB44B(copy2)/xs3qstsrcCDE718ED73CDB0984D725334A8AEB44B_5_1612792377.jpg</t>
+  </si>
+  <si>
+    <t>F21402</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/61DD6232E3BD927242A417E80B9A05A9(copy2)/xs3qstsrc61DD6232E3BD927242A417E80B9A05A9_3_1612792308.jpg</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/61DD6232E3BD927242A417E80B9A05A9(copy2)/xs3qstsrc61DD6232E3BD927242A417E80B9A05A9_4_1612792308.jpg</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/61DD6232E3BD927242A417E80B9A05A9(copy2)/xs3qstsrc61DD6232E3BD927242A417E80B9A05A9_5_1612792308.jpg</t>
+  </si>
+  <si>
+    <t>0A1F0B</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/C47D8D61E808B76040827BB1ADB80E64(copy2)/xs3qstsrcC47D8D61E808B76040827BB1ADB80E64_3_1612792275.jpg</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/C47D8D61E808B76040827BB1ADB80E64(copy2)/xs3qstsrcC47D8D61E808B76040827BB1ADB80E64_4_1612792275.jpg</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/C47D8D61E808B76040827BB1ADB80E64(copy2)/xs3qstsrcC47D8D61E808B76040827BB1ADB80E64_5_1612792275.jpg</t>
+  </si>
+  <si>
+    <t>61DA15</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/1A573B3181FF835D4AF12E610F06EC95(copy2)/xs3qstsrc1A573B3181FF835D4AF12E610F06EC95_3_1612792334.jpg</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/1A573B3181FF835D4AF12E610F06EC95(copy2)/xs3qstsrc1A573B3181FF835D4AF12E610F06EC95_4_1612792334.jpg</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/1A573B3181FF835D4AF12E610F06EC95(copy2)/xs3qstsrc1A573B3181FF835D4AF12E610F06EC95_5_1612792334.jpg</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/AAD64E1625628CDC49D58D3F5E56997A(copy2)/xs3qstsrcAAD64E1625628CDC49D58D3F5E56997A_3_1612792441.jpg</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/AAD64E1625628CDC49D58D3F5E56997A(copy2)/xs3qstsrcAAD64E1625628CDC49D58D3F5E56997A_4_1612792441.jpg</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/AAD64E1625628CDC49D58D3F5E56997A(copy2)/xs3qstsrcAAD64E1625628CDC49D58D3F5E56997A_5_1612792441.jpg</t>
+  </si>
+  <si>
+    <t>889D6A</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/84ACC5B96B0583FB490E9926203E9A99(copy2)/xs3qstsrc84ACC5B96B0583FB490E9926203E9A99_3_1612792407.jpg</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/84ACC5B96B0583FB490E9926203E9A99(copy2)/xs3qstsrc84ACC5B96B0583FB490E9926203E9A99_4_1612792407.jpg</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/84ACC5B96B0583FB490E9926203E9A99(copy2)/xs3qstsrc84ACC5B96B0583FB490E9926203E9A99_5_1612792407.jpg</t>
+  </si>
+  <si>
+    <t>Task 4. Imagine that you and your friend are doing a school project “ Sports activities ”. You have found some illustrations and want to share the news. Leave a voice message to your friend. In 2.5 minutes be ready to : · explain the choice of the illustrations for the project by briefly describing them and noting the differences; · mention the advantages (1–2) of the two sports activities; · mention the disadva ntages (1–2) of the two sports activities ; · express your opinion on the subject of the project – which of the sports activities presented in the pictures you’d prefer and why . You will speak for not more than 3 minutes (12–15 sentences) . You have to talk continuously.</t>
+  </si>
+  <si>
+    <t>Task 4. Imagine that you and your friend are doing a school project “ The best New Year holiday ”. You have found some photos to illustrate it but for technical reasons you cannot send them now. Leave a voice message to your friend explaining your choice of the photos and sharing some ideas about the project. In 2.5 minutes be ready to: · explain the choice of the illustrations for the project by briefly describing them and noting the differences; · mention the advantages (1–2) of the two ways of spending the New Year holiday; · mention the disadvantages (1–2) of the two ways of spending the New Year holiday; · express your opinion on the subject of the project – which way of spending the New Year holiday you’d prefer and why. You will speak for not more than 3 minutes (12–15 sentences) . You have to talk continuously.</t>
+  </si>
+  <si>
+    <t>Task 4. Imagine that you and your friend are doing a school project “Communication”. You have found some illustrations and want to share the news. Leave a voice message to your friend. In 2.5 minutes be ready to : · explain the choice of the illustrations for the project by briefly describing them and noting the differences; · mention the advantages (1 – 2) of the two types of communication ; · mention the disadvantages (1 – 2) of the two types of communication ; · express your opinion on the subject of the project – which way of communication you prefer and why. You will speak for not more than 3 minutes (12 – 15 sentences) . You have to talk continuously.</t>
+  </si>
+  <si>
+    <t>Task 4. Imagine that you and your friend are doing a school project “Family pastime”. You have found some illustrations and want to share the news. Leave a voice message to your friend. In 2.5 minutes be ready to : · explain the choice of the illustrations for the project by briefly describing them and noting the differences; · mention the advantages (1 – 2) of the two types of family pastime; · mention the disadvantages (1 – 2) of the two types of family pastime; · express your opinion on the subject of the project – which type of family pastime presented in the pictures you prefer and why. You will speak for not more than 3 minutes (12 – 15 sentences) . You have to talk continuously.</t>
+  </si>
+  <si>
+    <t>Task 4. Imagine that you and your friend are doing a school project “Hobbies”. You have found some illustrations and want to share the news. Leave a voice message to your friend. In 2.5 minutes be ready to : · explain the choice of the illustrations for the project by briefly describing them and noting the differences; · mention the advantages (1 – 2) of the two hobbies; · mention the disadvantages (1 – 2) of the two hobbies; · express your opinion on the subject of the project – which of the hobbies presented in the pictures you’d prefer and why. You will speak for not more than 3 minutes (12 – 15 sentences) . You have to talk continuously.</t>
+  </si>
+  <si>
+    <t>Task 4. Imagine that you and your friend are doing a school project “Hobbies”. You have found some illustrations and want to share the news. Leave a voice message to your friend. In 2.5 minutes be ready to : · explain the choice of the illustrations for the project by briefly describing them and noting the differences; · mention the advantages (1 – 2) of the two hobbies; · mention the disadvantages (1 – 2) of the two hobbies; · express your opinion on the subject of the project – which of these hobbies you’d prefer and why. You will speak for not more than 3 minutes (12 – 15 sentences) . You have to talk continuously.</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/8E0FEBB8BB4DBF5347D22CE90B5C0887(copy1)/xs3qstsrc8E0FEBB8BB4DBF5347D22CE90B5C0887_2_1668610541.jpg</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/8E0FEBB8BB4DBF5347D22CE90B5C0887(copy1)/xs3qstsrc8E0FEBB8BB4DBF5347D22CE90B5C0887_4_1668610541.jpg</t>
+  </si>
+  <si>
+    <t>Task 4. Imagine that you and your friend are doing a school project “Jobs”. You have found some illustrations and want to share the news. Leave a voice message to your friend. In 2.5 minutes be ready to : · explain the choice of the illustrations for the project by briefly describing them and noting the differences; · mention the advantages (1 – 2) of the two jobs; · mention the disadvantages (1 – 2) of the two jobs; · express your opinion on the subject of the project – which of the jobs presented in the pictures you’d prefer and why. You will speak for not more than 3 minutes (12 – 15 sentences) . You have to talk continuously.</t>
+  </si>
+  <si>
+    <t>Task 4. Imagine that you and your friend are doing a school project “Jobs”. You have found some photos to illustrate it but for technical reasons you cannot send them now. Leave a voice message to your friend explaining your choice of the photos and sharing some ideas about the project. In 2.5 minutes be ready to: · explain the choice of the illustrations for the project by briefly describing them and noting the differences; · mention the advantages (1–2) of the two kinds of jobs ; · mention the disadvantages (1–2) of the two kinds of jobs ; · express your opinion on the subject of the project – which of these jobs you’d prefer and why. You will speak for not more than 3 minutes (12–15 sentences) . You have to talk continuously.</t>
+  </si>
+  <si>
+    <t>Task 4. Imagine that you and your friend are doing a school project “Masterclasses”. You have found some photos to illustrate it but for technical reasons you cannot send them now. Leave a voice message to your friend explaining your choice of the photos and sharing some ideas about the project. In 2.5 minutes be ready to: · explain the choice of the illustrations for the project by briefly describing them and noting the differences; · mention the advantages (1–2) of the two types of masterclasses ; · mention the disadvantages (1–2) of the two types of masterclasses ; · express your opinion on the subject of the project – which of these masterclasses you’d prefer to attend and why. You will speak for not more than 3 minutes (12–15 sentences) . You have to talk continuously.</t>
+  </si>
+  <si>
+    <t>Task 4. Imagine that you and your friend are doing a school project “School subjects”. You have found some photos to illustrate it but for technical reasons you cannot send them now. Leave a voice message to your friend explaining your choice of the photos and sharing some ideas about the project. In 2.5 minutes be ready to: · explain the choice of the illustrations for the project by briefly describing them and noting the differences; · mention the advantages (1–2) of the two school subjects; · mention the disadvantages (1–2) of the two school subjects; · express your opinion on the subject of the project – which of these school subjects you preferred as a school student and why. You will speak for not more than 3 minutes (12–15 sentences) . You have to talk continuously.</t>
+  </si>
+  <si>
+    <t>Task 4. Imagine that you and your friend are doing a school project “Solo or in company”. You have found some illustrations and want to share the news. Leave a voice message to your friend. In 2.5 minutes be ready to : · explain the choice of the illustrations for the project by briefly describing them and noting the differences; · mention the advantages (1–2) of the two ways of having meals; · mention the disadvantages (1–2) of the two ways of having meals ; · express your opinion on the subject of the project – which way of having meals presented in the pictures you prefer and why. You will speak for not more than 3 minutes (12–15 sentences) . You have to talk continuously.</t>
+  </si>
+  <si>
+    <t>Task 4. Imagine that you and your friend are doing a school project “Sports”. You have found some photos to illustrate it but for technical reasons you cannot send them now. Leave a voice message to your friend explaining your choice of the photos and sharing some ideas about the project. In 2.5 minutes be ready to: · explain the choice of the illustrations for the project by briefly describing them and noting the differences; · mention the advantages (1–2) of the two kinds of sports ; · mention the disadvantages (1–2) of the two kinds of sports ; · express your opinion on the subject of the project – which of these sports you’d prefer and why. You will speak for not more than 3 minutes (12–15 sentences) . You have to talk continuously.</t>
+  </si>
+  <si>
+    <t>Task 4. Imagine that you and your friend are doing a school project “Summer holidays”. You have found some photos to illustrate it but for technical reasons you cannot send them now. Leave a voice message to your friend explaining your choice of the photos and sharing some ideas about the project. In 2.5 minutes be ready to: · explain the choice of the illustrations for the project by briefly describing them and noting the differences; · mention the advantages (1–2) of the two types of summer holidays ; · mention the disadvantages (1–2) of the two types of summer holidays ; · express your opinion on the subject of the project – which of these ways of spending summer holidays you preferred as a child and why. You will speak for not more than 3 minutes (12–15 sentences) . You have to talk continuously.</t>
+  </si>
+  <si>
+    <t>Task 4. Imagine that you and your friend are doing a school project “Volunteering”. You have found some photos to illustrate it but for technical reasons you cannot send them now. Leave a voice message to your friend explaining your choice of the photos and sharing some ideas about the project. In 2.5 minutes be ready to: · explain the choice of the illustrations for the project by briefly describing them and noting the differences; · mention the advantages (1–2) of the two types of v olunteering ; · mention the disadvantages (1–2) of the two types of v olunteering ; · express your opinion on the subject of the project – which type of volunteering presented in the pictures you’d prefer and why. You will speak for not more than 3 minutes (12–15 sentences) . You have to talk continuously.</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/38A159905FA9A3B44D1066F8DA80523B(copy1)/xs3qstsrc38A159905FA9A3B44D1066F8DA80523B_2_1703591412.jpg</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/38A159905FA9A3B44D1066F8DA80523B(copy1)/xs3qstsrc38A159905FA9A3B44D1066F8DA80523B_3_1703591412.jpg</t>
+  </si>
+  <si>
+    <t>Task 4. Imagine that you and your friend are doing a school project “Weather”. You have found some illustrations and want to share the news. Leave a voice message to your friend. In 2.5 minutes be ready to : · explain the choice of the illustrations for the project by briefly describing them and noting the differences; · mention the advantages (1 – 2) of the two kinds of weather; · mention the disadvantages (1 – 2) of the two kinds of weather; · express your opinion on the subject of the project – which kind of weather presented in the pictures you prefer and why. You will speak for not more than 3 minutes (12 – 15 sentences) . You have to talk continuously.</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/E8442A14FC0B939041B6817D86861646(copy1)/xs3qstsrcE8442A14FC0B939041B6817D86861646_2_1668610453.jpg</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/E8442A14FC0B939041B6817D86861646(copy1)/xs3qstsrcE8442A14FC0B939041B6817D86861646_4_1668610453.jpg</t>
+  </si>
+  <si>
+    <t>Task 4. Imagine that you are doing a project “ An ideal weekend ” together with your friend. You have found some illustrations and want to share the news. Leave a voice message to your friend. In 2.5 minutes be ready to : give a brief description of the photos, justifying the choice of the photos for the project; say in what way the pictures are different, justifying the choice of the photos for the project; mention the advantages and disadvantages (1 – 2) of the two types of weekends; express your opinion on the subject of the project – which kind of weekend you’d prefer and why. You will speak for not more than 3 minutes (12 – 15 sentences) . You have to talk continuously.</t>
+  </si>
+  <si>
+    <t>Task 4. Imagine that you are doing a project “ Keeping fit ” together with your friend. You have found some illustrations and want to share the news. Leave a voice message to your friend. In 2.5 minutes be ready to : give a brief description of the photos, justifying the choice of the photos for the project; say in what way the pictures are different, justifying the choice of the photos for the project; mention the advantages and disadvantages (1 – 2) of the two ways of keeping fit; express your opinion on the subject of the project – which way of keeping fit you prefer and why . You will speak for not more than 3 minutes (12 – 15 sentences) . You have to talk continuously.</t>
+  </si>
+  <si>
+    <t>Task 4. Imagine that you are doing a project “ Preparing for exams” together with your friend. You have found some illustrations and want to share the news. Leave a voice message to your friend. In 2.5 minutes be ready to : give a brief description of the photos, justifying the choice of the photos for the project; say in what way the pictures are different, justifying the choice of the photos for the project; mention the advantages and disadvantages (1 – 2) of the two types of preparing for exams; express your opinion on the subject of the project – whether you prefer preparing for exams alone or in somebody’s company and why . You will speak for not more than 3 minutes (12 – 15 sentences) . You have to talk continuously.</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/106DE274DCB1824E439752C7BB0F56BA(copy1)/xs3qstsrc106DE274DCB1824E439752C7BB0F56BA_2_1642602907.jpg</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/106DE274DCB1824E439752C7BB0F56BA(copy1)/xs3qstsrc106DE274DCB1824E439752C7BB0F56BA_4_1642602907.jpg</t>
+  </si>
+  <si>
+    <t>Task 4. Imagine that you are doing a project “ Tastes differ ” together with your friend. You have found some illustrations and want to share the news. Leave a voice message to your friend. In 2.5 minutes be ready to : give a brief description of the photos, justifying the choice of the photos for the project; say in what way the pictures are different, justifying the choice of the photos for the project; mention the advantages and disadvantages (1–2) of the two types of food; express your opinion on the subject of the project – which kind of food you prefer and why. You will speak for not more than 3 minutes (12–15 sentences) . You have to talk continuously.</t>
+  </si>
+  <si>
+    <t>Task 4. Imagine that you are doing a project “ Tastes differ ” together with your friend. You have found some illustrations and want to share the news. Leave a voice message to your friend. In 2.5 minutes be ready to: give a brief description of the photos, justifying the choice of the photos for the project ; say in what way the pictures are different, justifying the choice of the photos for the project ; mention the advantages and disadvantages (1 – 2) of the two hobbies; express your opinion on the subject of the project – which of these hobbies you would prefer and why. You will speak for not more than 3 minutes (12 – 15 sentences) . You have to talk continuously.</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/37146D0A6D78801942C7C5019C22FDF1(copy1)/xs3qstsrc37146D0A6D78801942C7C5019C22FDF1_2_1646903540.jpg</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/37146D0A6D78801942C7C5019C22FDF1(copy1)/xs3qstsrc37146D0A6D78801942C7C5019C22FDF1_4_1646903540.jpg</t>
+  </si>
+  <si>
+    <t>Task 4. Imagine that you are doing a project “ The best family time ” together with your friend. You have found some illustrations and want to share the news. Leave a voice message to your friend. In 2.5 minutes be ready to : give a brief description of the photos, justifying the choice of the photos for the project; say in what way the pictures are different, justifying the choice of the photos for the project; mention the advantages and disadvantages (1 – 2) of the two types of family time; express your opinion on the subject of the project – which kind of family leisure you preferred as a child and why . You will speak for not more than 3 minutes (12 – 15 sentences) . You have to talk continuously.</t>
+  </si>
+  <si>
+    <t>Task 4. Imagine that you are doing a project “Happy childhood” together with your friend. You have found some illustrations and want to share the news. Leave a voice message to your friend. In 2.5 minutes be ready to : give a brief description of the photos, justifying the choice of the photos for the project; say in what way the pictures are different, justifying the choice of the photos for the project; mention the advantages and disadvantages (1 – 2) of the two types of children’s leisure activities; express your opinion on the subject of the project – which leisure activity you preferred as a child and why. You will speak for not more than 3 minutes (12 – 15 sentences) . You have to talk continuously.</t>
+  </si>
+  <si>
+    <t>Task 4. Imagine that you are doing a project “Hobbies” together with your friend. You have found some illustrations and want to share the news. Leave a voice message to your friend. In 2.5 minutes be ready to : give a brief description of the photos, justifying the choice of the photos for the project; say in what way the pictures are different, justifying the choice of the photos for the project; mention the advantages and disadvantages (1 – 2) of the two types of hobbies; express your opinion on the subject of the project – which kind of hobby you prefer and why. You will speak for not more than 3 minutes (12 – 15 sentences) . You have to talk continuously.</t>
+  </si>
+  <si>
+    <t>Task 4. Imagine that you are doing a project “Shopping” together with your friend. You have found some illustrations and want to share the news. Leave a voice message to your friend. In 2.5 minutes be ready to : give a brief description of the photos, justifying the choice of the photos for the project; say in what way the pictures are different, justifying the choice of the photos for the project; mention the advantages and disadvantages (1 – 2) of the two types of shopping; express your opinion on the subject of the project – w hich way of shopping you prefer and why. You will speak for not more than 3 minutes (12 – 15 sentences) . You have to talk continuously.</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/2362FD49753CA6E548761FB1AF881F90(copy1)/xs3qstsrc2362FD49753CA6E548761FB1AF881F90_2_1642604082.jpg</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/2362FD49753CA6E548761FB1AF881F90(copy1)/xs3qstsrc2362FD49753CA6E548761FB1AF881F90_4_1642604082.jpg</t>
+  </si>
+  <si>
+    <t>Task 4. Imagine that you are doing a project “Tastes differ” together with your friend. You have found some illustrations and want to share the news. Leave a voice message to your friend. In 2.5 minutes be ready to: give a brief description of the photos, justifying the choice of the photos for the project ; say in what way the pictures are different, justifying the choice of the photos for the project ; mention the advantages and disadvantages (1 – 2) of the two ways of watching films; express your opinion on the subject of the project – how you prefer to watch films and why. You will speak for not more than 3 minutes (12 – 15 sentences) . You have to talk continuously.</t>
+  </si>
+  <si>
+    <t>Task 4. Imagine that you are doing a project “Tastes differ” together with your friend. You have found some illustrations and want to share the news. Leave a voice message to your friend. In 2.5 minutes be ready to: give a brief description of the photos, justifying the choice of the photos for the project ; say in what way the pictures are different, justifying the choice of the photos for the project ; mention the advantages and disadvantages (1 – 2) of the two ways of getting around the city; express your opinion on the subject of the project – which of these ways of getting around the city you ’d prefer and why. You will speak for not more than 3 minutes (12 – 15 sentences) . You have to talk continuously.</t>
+  </si>
+  <si>
+    <t>Task 4. Imagine that you are doing a project “Tastes differ” together with your friend. You have found some illustrations and want to share the news. Leave a voice message to your friend. In 2.5 minutes be ready to: give a brief description of the photos, justifying the choice of the photos for the project ; say in what way the pictures are different, justifying the choice of the photos for the project ; mention the advantages and disadvantages (1 – 2) of the two ways of shopping; express your opinion on the subject of the project – which of these ways of shopping you prefer and why. You will speak for not more than 3 minutes (12 – 15 sentences) . You have to talk continuously.</t>
+  </si>
+  <si>
+    <t>Task 4. Imagine that you are doing a project “Tastes differ” together with your friend. You have found some illustrations and want to share the news. Leave a voice message to your friend. In 2.5 minutes be ready to: give a brief description of the photos, justifying the choice of the photos for the project ; say in what way the pictures are different, justifying the choice of the photos for the project ; mention the advantages and disadvantages (1–2) of the two ways of spending free time; express your opinion on the subject of the project – which of these ways of spending free time you would prefer and why. You will speak for not more than 3 minutes (12–15 sentences) . You have to talk continuously.</t>
+  </si>
+  <si>
+    <t>Task 4. Study the two photographs. In 1.5 minutes be ready to compare and contrast the photographs: · give a brief description of the photos (action, location) ; · say what the pictures have in common ; · say in what way the pictures are different ; · say which part-time job presented in the pictures you’ d prefer ; · explain why . You will speak for not more than 2 minutes (12 – 15 sentences) . You have to talk continuously.</t>
+  </si>
+  <si>
+    <t>Task 4. Study the two photographs. In 1.5 minutes be ready to compare and contrast the photographs: · give a brief description of the photos (action, location) ; · say what the pictures have in common ; · say in what way the pictures are different ; · say which way of spending free time presented in the pictures you’d prefer ; · explain why . You will speak for not more than 2 minutes (12 – 15 sentences) . You have to talk continuously.</t>
+  </si>
+  <si>
+    <t>Task 4. Study the two photographs. In 1.5 minutes be ready to compare and contrast the photographs: · give a brief description of the photos (action, location) ; · say what the pictures have in common ; · say in what way the pictures are different ; · say which way of spending your summer holiday presented in the pictures you prefer ; · explain why . You will speak for not more than 2 minutes (12 – 15 sentences) . You have to talk continuously.</t>
+  </si>
+  <si>
+    <t>Task 4. Study the two photographs. In 1.5 minutes be ready to compare and contrast the photographs: · give a brief description of the photos (action, location) ; · say what the pictures have in common ; · say in what way the pictures are different ; · say which way of studying presented in the pictures you prefer ; · explain why . You will speak for not more than 2 minutes (12 – 15 sentences) . You have to talk continuously.</t>
+  </si>
+  <si>
+    <t>A90446</t>
+  </si>
+  <si>
+    <t>Task 4. Study the two photographs. In 1.5 minutes be ready to compare and contrast the photographs: · give a brief description of the photos (action, location) · say what the pictures have in common · say in what way the pictures are different · say which kind of transport presented in the pictures you prefer · explain why You will speak for not more than 2 minutes (12 – 15 sentences) . You have to talk continuously.</t>
+  </si>
+  <si>
+    <t>Task 4. Study the two photographs. In 1.5 minutes be ready to compare and contrast the photographs: · give a brief description of the photos (action, location) · say what the pictures have in common · say in what way the pictures are different · say which of the celebrations presented in the pictures you preferred as a child · explain why You will speak for not more than 2 minutes (12 – 15 sentences) . You have to talk continuously.</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/D30CE40313CBBF684429C5C6C98900BE(copy1)/xs3qstsrcD30CE40313CBBF684429C5C6C98900BE_2_1549879495.jpg</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/D30CE40313CBBF684429C5C6C98900BE(copy1)/xs3qstsrcD30CE40313CBBF684429C5C6C98900BE_4_1549879495.jpg</t>
+  </si>
+  <si>
+    <t>Task 4. Study the two photographs. In 1.5 minutes be ready to compare and contrast the photographs: · give a brief description of the photos (action, location) · say what the pictures have in common · say in what way the pictures are different · say which of the foods presented in the pictures you’d prefer · explain why You will speak for not more than 2 minutes (12 – 15 sentences) . You have to talk continuously.</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/F896FBE7F6DB80CB49E19080F494990E(copy1)/xs3qstsrcF896FBE7F6DB80CB49E19080F494990E_2_1479378513.jpg</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/F896FBE7F6DB80CB49E19080F494990E(copy1)/xs3qstsrcF896FBE7F6DB80CB49E19080F494990E_4_1479378513.jpg</t>
+  </si>
+  <si>
+    <t>Task 4. Study the two photographs. In 1.5 minutes be ready to compare and contrast the photographs: · give a brief description of the photos (action, location) · say what the pictures have in common · say in what way the pictures are different · say which of the pets presented in the pictures you prefer · explain why You will speak for not more than 2 minutes (12 – 15 sentences) . You have to talk continuously.</t>
+  </si>
+  <si>
+    <t>Task 4. Study the two photographs. In 1.5 minutes be ready to compare and contrast the photographs: · give a brief description of the photos (action, location) · say what the pictures have in common · say in what way the pictures are different · say which of the places presented in the pictures you’d prefer to live in · explain why You will speak for not more than 2 minutes (12 – 15 sentences) . You have to talk continuously.</t>
+  </si>
+  <si>
+    <t>Task 4. Study the two photographs. In 1.5 minutes be ready to compare and contrast the photographs: · give a brief description of the photos (action, location) · say what the pictures have in common · say in what way the pictures are different · say which of the seasons presented in the pictures you prefer · explain why You will speak for not more than 2 minutes (12 – 15 sentences) . You have to talk continuously.</t>
+  </si>
+  <si>
+    <t>Task 4. Study the two photographs. In 1.5 minutes be ready to compare and contrast the photographs: · give a brief description of the photos (action, location) · say what the pictures have in common · say in what way the pictures are different · say which of the seasons presented in the pictures you’d prefer · explain why You will speak for not more than 2 minutes (12 – 15 sentences) . You have to talk continuously.</t>
+  </si>
+  <si>
+    <t>Task 4. Study the two photographs. In 1.5 minutes be ready to compare and contrast the photographs: · give a brief description of the photos (action, location) · say what the pictures have in common · say in what way the pictures are different · say which of the ways of spending free time presented in the pictures you’d prefer · explain why You will speak for not more than 2 minutes (12 – 15 sentences) . You have to talk continuously.</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/008427C15017B21345546AE1D8C027E2(copy1)/xs3qstsrc008427C15017B21345546AE1D8C027E2_2_1479379135.jpg</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/008427C15017B21345546AE1D8C027E2(copy1)/xs3qstsrc008427C15017B21345546AE1D8C027E2_4_1479379135.jpg</t>
+  </si>
+  <si>
+    <t>Task 4. Study the two photographs. In 1.5 minutes be ready to compare and contrast the photographs: · give a brief description of the photos (action, location) · say what the pictures have in common · say in what way the pictures are different · say which of the ways of spending your free time pres ented in the pictures you’d prefer · explain why You will speak for not more than 2 minutes (12 – 15 sentences) . You have to talk continuously.</t>
+  </si>
+  <si>
+    <t>Task 4. Study the two photographs. In 1.5 minutes be ready to compare and contrast the photographs: · give a brief description of the photos (action, location) · say what the pictures have in common · say in what way the pictures are different · say which type of shopping you prefer · explain why You will speak for not more than 2 minutes (12 – 15 sentences) . You have to talk continuously.</t>
+  </si>
+  <si>
+    <t>Task 4. Study the two photographs. In 1.5 minutes be ready to compare and contrast the photographs: · give a brief description of the photos (action, location) · say what the pictures have in common · say in what way the pictures are different · say which way of preparing for classes presented in the pictures you prefer · explain why You will speak for not more than 2 minutes (12 – 15 sentences) . You have to talk continuously.</t>
+  </si>
+  <si>
+    <t>Task 4. Study the two photographs. In 1.5 minutes be ready to compare and contrast the photographs: · give a brief description of the photos (action, location); · say what the pictures have in common; · say in what way the pictures are different; · say which kind of food presented in the pictures you prefer; · explain why. You will speak for not more than 2 minutes (12–15 sentences) . You have to talk continuously.</t>
+  </si>
+  <si>
+    <t>Task 4. Study the two photographs. In 1.5 minutes be ready to compare and contrast the photographs: · give a brief description of the photos (action, location); · say what the pictures have in common; · say in what way the pictures are different; · say which of the hobbies presented in the pictures you’d prefer; · explain why. You will speak for not more than 2 minutes (12–15 sentences) . You have to talk continuously.</t>
+  </si>
+  <si>
+    <t>Task 4. Study the two photographs. In 1.5 minutes be ready to compare and contrast the photographs: · give a brief description of the photos (action, location); · say what the pictures have in common; · say in what way the pictures are different; · say which type of games presented in the pictures you prefer; · explain why. You will speak for not more than 2 minutes (12–15 sentences) . You have to talk continuously.</t>
+  </si>
+  <si>
+    <t>Task 4. Study the two photographs. In 1.5 minutes be ready to compare and contrast the photographs: · give a brief description of the photos (action, location); · say what the pictures have in common; · say in what way the pictures are different; · say which type of household chores presented in the pictures you prefer; · explain why. You will speak for not more than 2 minutes (12–15 sentences) . You have to talk continuously.</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/4431876FEB99B2C7403CFC3DF62ECBF8(copy2)/xs3qstsrc4431876FEB99B2C7403CFC3DF62ECBF8_10_1605621902.jpg</t>
+  </si>
+  <si>
+    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/4431876FEB99B2C7403CFC3DF62ECBF8(copy2)/xs3qstsrc4431876FEB99B2C7403CFC3DF62ECBF8_11_1605621902.jpg</t>
+  </si>
+  <si>
+    <t>Task 4. Study the two photographs. In 1.5 minutes be ready to compare and contrast the photographs: · give a brief description of the photos (action, location); · say what the pictures have in common; · say in what way the pictures are different; · say which type of leisure activities presented in the pictures you preferred as a child; · explain why. You will speak for not more than 2 minutes (12–15 sentences) . You have to talk continuously.</t>
+  </si>
+  <si>
+    <t>Task 4. Study the two photographs. In 1.5 minutes be ready to compare and contrast the photographs: · give a brief description of the photos (action, location); · say what the pictures have in common; · say in what way the pictures are different; · say which way of getting news presented in the pictures you prefer; · explain why. You will speak for not more than 2 minutes (12–15 sentences) . You have to talk continuously.</t>
+  </si>
+  <si>
     <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/7036222B2E238F414CB556F3402FB930(copy2)/xs3qstsrc7036222B2E238F414CB556F3402FB930_10_1605619900.jpg</t>
   </si>
   <si>
     <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/7036222B2E238F414CB556F3402FB930(copy2)/xs3qstsrc7036222B2E238F414CB556F3402FB930_11_1605619900.jpg</t>
-  </si>
-  <si>
-    <t>Task 1. Imagine that you are preparing a project with your friend. You have found some interesting material for the presentation and you want to read this text to your friend. You have 1.5 minutes to read the text silently, then be ready to read it out aloud. You will not have more than 1.5 minutes to read it.</t>
-  </si>
-  <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/632C3B636538B8D3467579BF02FFEE8A(copy1)/xs3qstsrc632C3B636538B8D3467579BF02FFEE8A_1_1700574264.gif</t>
-  </si>
-  <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/45DD073DF527B4A34C5FCECFC8ECD92E(copy1)/xs3qstsrc45DD073DF527B4A34C5FCECFC8ECD92E_7_1637933286.png</t>
-  </si>
-  <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/8695BDFC6563B26B40375F6DEEB0A40A(copy1)/xs3qstsrc8695BDFC6563B26B40375F6DEEB0A40A_6_1674738429.png</t>
-  </si>
-  <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/73E472669A23889049538EFA5C355074(copy1)/xs3qstsrc73E472669A23889049538EFA5C355074_1_1668608291.png</t>
-  </si>
-  <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/12035B542757840A4DA9195CDD734A18(copy2)/xs3qstsrc12035B542757840A4DA9195CDD734A18_16_1605622815.png</t>
-  </si>
-  <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/DCF14E825D49B7254AE02C622DC201CF(copy1)/xs3qstsrcDCF14E825D49B7254AE02C622DC201CF_2_1484228139.png</t>
-  </si>
-  <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/35AE8F581AA1AB55489DE0477BBB7644(copy1)/xs3qstsrc35AE8F581AA1AB55489DE0477BBB7644_2_1640165068.png</t>
-  </si>
-  <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/D076D08C41F5ACED4E0C0430572067E2(copy1)/xs3qstsrcD076D08C41F5ACED4E0C0430572067E2_2_1544534145.png</t>
-  </si>
-  <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/FF9EF36183718CA0477BA12FB891700B(copy1)/xs3qstsrcFF9EF36183718CA0477BA12FB891700B_2_1484228230.png</t>
-  </si>
-  <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/F69A7E6DD077B0CE4DFABB4BEB14C168(copy1)/xs3qstsrcF69A7E6DD077B0CE4DFABB4BEB14C168_1_1668608092.png</t>
-  </si>
-  <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/F0904EED3788A9A442F1BE24D9988E48(copy1)/xs3qstsrcF0904EED3788A9A442F1BE24D9988E48_2_1484228052.png</t>
-  </si>
-  <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/48DC8D8E3627AB5C4734C0041F2C5F85(copy2)/xs3qstsrc48DC8D8E3627AB5C4734C0041F2C5F85_16_1611654194.png</t>
-  </si>
-  <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/784D6ABB8D9F97994B5228FEFAEEBD07(copy2)/xs3qstsrc784D6ABB8D9F97994B5228FEFAEEBD07_16_1605619876.png</t>
-  </si>
-  <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/671E99DCDDBC9DF44A852A8011CC0277(copy1)/xs3qstsrc671E99DCDDBC9DF44A852A8011CC0277_1_1636714830.png</t>
-  </si>
-  <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/B6CE9DA31A8C8436429E6F8D872E3333(copy1)/xs3qstsrcB6CE9DA31A8C8436429E6F8D872E3333_1_1703591209.gif</t>
-  </si>
-  <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/B45F1D0C4913975A463650936D24FB6E(copy1)/xs3qstsrcB45F1D0C4913975A463650936D24FB6E_4_1639386734.png</t>
-  </si>
-  <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/371D97F69CAC8F164374923C91DA588C(copy1)/xs3qstsrc371D97F69CAC8F164374923C91DA588C_4_1639386653.png</t>
-  </si>
-  <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/73BC4BCA56A185B54DC5C6A91A782B44(copy1)/xs3qstsrc73BC4BCA56A185B54DC5C6A91A782B44_6_1668596445.png</t>
-  </si>
-  <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/08618026CB9A986B486876E7DD4247B2(copy1)/xs3qstsrc08618026CB9A986B486876E7DD4247B2_1_1636707454.png</t>
-  </si>
-  <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/2F6F5AF8D25A8B18484FAA06367FC49E(copy1)/xs3qstsrc2F6F5AF8D25A8B18484FAA06367FC49E_4_1639386167.png</t>
-  </si>
-  <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/4176BB2662E18C2348F5B23D170901F3(copy2)/xs3qstsrc4176BB2662E18C2348F5B23D170901F3_1_1577436151.png</t>
-  </si>
-  <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/F7DC4700AEE2BB2D46624C212FAC4AC8(copy1)/xs3qstsrcF7DC4700AEE2BB2D46624C212FAC4AC8_1_1636718143.png</t>
-  </si>
-  <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/B4611CFB68D8A6E040FC8F6B2481E7C5(copy1)/xs3qstsrcB4611CFB68D8A6E040FC8F6B2481E7C5_1_1575548542.png</t>
-  </si>
-  <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/47FD08D0D8C3AC6B486B7FB190DC3330(copy1)/xs3qstsrc47FD08D0D8C3AC6B486B7FB190DC3330_2_1484228479.png</t>
-  </si>
-  <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/BDBFEFEEA39980BD4DC4AEB99465A4C4(copy1)/xs3qstsrcBDBFEFEEA39980BD4DC4AEB99465A4C4_1_1577435247.png</t>
-  </si>
-  <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/4F31BC6354138F2946BF1F865BC64CE0(copy1)/xs3qstsrc4F31BC6354138F2946BF1F865BC64CE0_2_1541678946.png</t>
-  </si>
-  <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/808E3315BD26BA2348577648E8862178(copy1)/xs3qstsrc808E3315BD26BA2348577648E8862178_1_1703591442.gif</t>
-  </si>
-  <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/510250695C9984274EABBC047770B8E4(copy1)/xs3qstsrc510250695C9984274EABBC047770B8E4_2_1484228296.png</t>
-  </si>
-  <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/B5B82170F906B85143DB7127C1F6A60C(copy1)/xs3qstsrcB5B82170F906B85143DB7127C1F6A60C_1_1703591792.gif</t>
-  </si>
-  <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/32BC867CAB4486A74F37AE5AB912B687(copy1)/xs3qstsrc32BC867CAB4486A74F37AE5AB912B687_2_1541599897.png</t>
-  </si>
-  <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/F0FA8FCC7FF5A13C441F56BD35332D9B(copy2)/xs3qstsrcF0FA8FCC7FF5A13C441F56BD35332D9B_8_1612793349.png</t>
-  </si>
-  <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/FC0EF48587E5BC9C43CABF5A72B7513B(copy1)/xs3qstsrcFC0EF48587E5BC9C43CABF5A72B7513B_1_1577435100.png</t>
-  </si>
-  <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/5A0391B0DCA3B489447F913BDCD0D113(copy1)/xs3qstsrc5A0391B0DCA3B489447F913BDCD0D113_5_1671453520.png</t>
-  </si>
-  <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/6F0E5F3E3B25A97940199747BA97F9FF(copy1)/xs3qstsrc6F0E5F3E3B25A97940199747BA97F9FF_1_1703591352.gif</t>
-  </si>
-  <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/6DE64152475DA4E945B4403038AFA0A8(copy1)/xs3qstsrc6DE64152475DA4E945B4403038AFA0A8_2_1541679067.png</t>
-  </si>
-  <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/1DB63E6B20D3877F4826FE4A63A81E8F(copy1)/xs3qstsrc1DB63E6B20D3877F4826FE4A63A81E8F_2_1541602212.png</t>
-  </si>
-  <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/CC2B702CCEFDB3414BC9C70EBDE2E93D(copy1)/xs3qstsrcCC2B702CCEFDB3414BC9C70EBDE2E93D_2_1484230070.png</t>
-  </si>
-  <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/BA77FF1F8A01A75F4E9B4E4AD46752EA(copy1)/xs3qstsrcBA77FF1F8A01A75F4E9B4E4AD46752EA_1_1700569506.gif</t>
-  </si>
-  <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/C13349F17D26BB614312EFFCF9862D12(copy1)/xs3qstsrcC13349F17D26BB614312EFFCF9862D12_1_1668609054.png</t>
-  </si>
-  <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/36B298B83A409A184CA25EF774C9273A(copy2)/xs3qstsrc36B298B83A409A184CA25EF774C9273A_16_1605618455.png</t>
-  </si>
-  <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/83C43A6F6382AD6745E5EAD14E06F2F2(copy1)/xs3qstsrc83C43A6F6382AD6745E5EAD14E06F2F2_2_1541607657.png</t>
-  </si>
-  <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/94C78160F1719FA246959A776DCEBF9D(copy2)/xs3qstsrc94C78160F1719FA246959A776DCEBF9D_2_1692707290.png</t>
-  </si>
-  <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/CDDCA998AD75B2634BCA310223A35782(copy2)/xs3qstsrcCDDCA998AD75B2634BCA310223A35782_16_1611653244.png</t>
-  </si>
-  <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/702EE7A83F908467439FDC7A1D468796(copy1)/xs3qstsrc702EE7A83F908467439FDC7A1D468796_1_1668607916.png</t>
-  </si>
-  <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/AF5393411541BD744EE32D47C36C11C7(copy1)/xs3qstsrcAF5393411541BD744EE32D47C36C11C7_1_1703591534.gif</t>
-  </si>
-  <si>
-    <t>Task 2. Study the advertisement. You are considering attending the ballet school and now you ’d like to get more information. In 1.5 minutes you are to ask five direct questions to find out about the following: 1) tuition fee; 2) discounts; 3) location; 4) timetable; 5) maximum age. You have 20 seconds to ask each question.</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1lJDcoMuE5gNw7LGa1qv0G_39ehFubKF0/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Task 2. Study the advertisement. You are considering attending the driving school and now you ’d like to get more information. In 1.5 minutes you are to ask five direct questions to find out about the following: 1) location; 2) morning classes; 3) minimum age for students; 4) tuition fee; 5) types of cars used. You have 20 seconds to ask each question.</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1XGsQEg8uJyxAMKjIp0AD9qkBbV_k0qJP/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Task 2. Study the advertisement. You are considering attending the riding club and now you ’d like to get more information. In 1.5 minutes you are to ask five direct questions to find out about the following: 1) location; 2) necessary equipment; 3) membership fee; 4) number of members in the club; 5) programmes for beginners. You have 20 seconds to ask each question.</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1D7fbKMmHMOMas8qYcCuNldv5x2drq1JA/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Task 2. Study the advertisement. You are considering buying a new tablet and now you’d like to get more information. In 1.5 minutes you are to ask four direct questions to find out about the following: 1) available brands; 2) the largest screen size; 3) price range; 4) discounts. You have 20 seconds to ask each question.</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1CK6CJawmfp_ax2lD98iY5GlQl_QQJxq5/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Task 2. Study the advertisement. You are considering celebrating your birthday party in this café and now you ’d like to get more information. In 1.5 minutes you are to ask five direct questions to find out about the following: 1) location 2) types of food served 3) vegetarian dishes 4) dancing floor 5) group discounts You have 20 seconds to ask each question.</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1DcJZ1aRxtcoYqwfXc5oKQtaJO2FTJMkx/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Task 2. Study the advertisement. You are considering finding a part-time job and now you ’d like to get more information. In 1.5 minutes you are to ask five direct questions to find out about the following: 1) kinds of jobs; 2) salary; 3) skills needed; 4) minimum age; 5) whom to contact. You have 20 seconds to ask each question.</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1KMJWw5F_r0HihnrhwBZx5eREbBa8kD9H/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Task 2. Study the advertisement. You are considering getting some professional photos and now you’d like to get more information. In 1.5 minutes you are to ask four direct questions to find out about the following: 1) location of the studio; 2) historical costumes; 3) professional make-up; 4) the cost of an hour’s work. You have 20 seconds to ask each question.</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1d4v2PpNYMUWuwYNHiM_zua9Asx1SG9Tw/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Task 2. Study the advertisement. You are considering go ing on a hike in the mountains and now you ’d like to get more information. In 1.5 minutes you are to ask five direct questions to find out about the following: 1) duration of the tour; 2) dates of the tour; 3) minimum age; 4) special equipment; 5) price for one. You have 20 seconds to ask each question.</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1Hk4peWYo2XFekAgttb18B4wbCFqeXs2w/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Task 2. Study the advertisement. You are considering go ing on the family weekend and now you ’d like to get more information. In 1.5 minutes you are to ask four direct questions to find out about the following: 1) location ; 2) accommodation ; 3) price for the weekend for a family of three ; 4) fishing equipment rental. You have 20 seconds to ask each question.</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1gHQUdrortWXNihzrXP5qgQM5E4XOzV3J/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Task 2. Study the advertisement. You are considering go ing to a new ice rink and now you ’d like to get more information. In 1.5 minutes you are to ask four direct questions to find out about the following: 1) location ; 2) equipment rental ; 3) entrance fee ; 4) classes for beginners. You have 20 seconds to ask each question.</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1YkMhnnh4tiuqq_lC6ieO_kyWiguJNeze/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Task 2. Study the advertisement. You are considering go ing to the botany club and now you ’d like to get more information. In 1.5 minutes you are to ask four direct questions to find out about the following: 1) activities ; 2) timetable ; 3) minimum age ; 4) number of members in the club. You have 20 seconds to ask each question.</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/15nOTOm8nfvLNb5-Sxg7eMjzbSH8niiuR/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Task 2. Study the advertisement. You are considering go ing to the clinic and now you ’d like to get more information. In 1.5 minutes you are to ask five direct questions to find out about the following: 1) location; 2) public transport; 3) kinds of specialists; 4) number of dentists; 5) family discounts. You have 20 seconds to ask each question.</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1822koKSBT_kRSpudvptk_YeoDLmJKF35/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Task 2. Study the advertisement. You are considering go ing to the clinic and now you ’d like to get more information. In 1.5 minutes you are to ask four direct questions to find out about the following: 1) location ; 2) public transport ; 3) types of doctors ; 4) family discounts. You have 20 seconds to ask each question.</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1Ux6BQurM_s1HBYc3jHOq0Xh0f_M3ODco/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Task 2. Study the advertisement. You are considering go ing to the mini-golf club and now you ’d like to get more information. In 1.5 minutes you are to ask four direct questions to find out about the following: 1) location ; 2) equipment rental ; 3) number of members in the club ; 4) minimum age. You have 20 seconds to ask each question.</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1tukAfT9A-RluOQ_fQvVnDConhS9-bBnK/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Task 2. Study the advertisement. You are considering go ing to the new aqua park and now you ’d like to get more information. In 1.5 minutes you are to ask four direct questions to find out about the following: 1) public transport ; 2) opening hours ; 3) types of water slides ; 4) minimum age. You have 20 seconds to ask each question.</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1DrdtmWxUCg7gEbMXV0VdfOLWtMV-1khS/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Task 2. Study the advertisement. You are considering go ing to the new theatre and now you ’d like to get more information. In 1.5 minutes you are to ask four direct questions to find out about the following: 1) location ; 2) ticket price ; 3) morning shows ; 4) group discounts. You have 20 seconds to ask each question.</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1q6sMLJcbQIhQxVH4OZAO5D4QU2as58u4/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Task 2. Study the advertisement. You are considering go ing to the repair center and now you ’d like to get more information. In 1.5 minutes you are to ask four direct questions to find out about the following: 1) location ; 2) types of gadgets repaired ; 3) price for diagnostics ; 4) discounts for students. You have 20 seconds to ask each question.</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1xxLuD7n6i2maS7Vacesdlyv8fjWuYsax/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Task 2. Study the advertisement. You are considering go ing to the vet clinic and now you ’d like to get more information. In 1.5 minutes you are to ask five direct questions to find out about the following: 1) location; 2) operation hours; 3) kinds of animals treated; 4) if home visits are possible; 5) discounts. You have 20 seconds to ask each question.</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1dYaKmNcSwxwvjRzWWtVadyHli-IwZu3l/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Task 2. Study the advertisement. You are considering going on a bicycle trip and now you ’d like to get more information. In 1.5 minutes you are to ask five direct questions to find out about the following: 1) minimum age 2) preparation 3) number of people in the group 4) accommodation for the night 5) duration of the trip You have 20 seconds to ask each question.</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1a6zEwXazW5TwKNUv6WWGHV-hEGrU2Ra2/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Task 2. Study the advertisement. You are considering going on a sightseeing tour and now you ’d like to get more information. In 1.5 minutes you are to ask five direct questions to find out about the following: 1) operation hours 2) starting point 3) tourist attractions to see 4) price for one person 5) group discounts You have 20 seconds to ask each question.</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1STnNuYvTdee0h9hUxOxFdCaydNR6UrOE/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Task 2. Study the advertisement. You are considering going on this sea trip and now you’d like to get more information. In 1.5 minutes you are to ask four direct questions to find out about the following: 1) duration of the trip; 2) type of sailboat ; 3) price for one; 4) special equipment needed. You have 20 seconds to ask each question.</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1uWH066KV_59hMncubkU9IEFUinRtAqPj/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Task 2. Study the advertisement. You are considering going to London by the new low-cost airline and now you ’d like to get more information. In 1.5 minutes you are to ask five direct questions to find out about the following: 1) flights to London 2) flight time 3) price for one 4) paying by credit card 5) food to buy on board You have 20 seconds to ask each question.</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1lYESlZpcGg1Ef5bWwFA2lufNyiPj4CFX/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Task 2. Study the advertisement. You are considering going to the Christmas market and now you’d like to get more information. In 1.5 minutes you are to ask four direct questions to find out about the following: 1) location; 2) opening hours; 3) goods offered; 4) available snacks. You have 20 seconds to ask each question.</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1UCsfsTuVAjhc0FedWLaO75K1rOPEELHm/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Task 2. Study the advertisement. You are considering going to the dance school and now you’d like to get more information. In 1.5 minutes you are to ask four direct questions to find out about the following: 1) location; 2) dances taught; 3) special cloth е s; 4) evening classes. You have 20 seconds to ask each question.</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1oI1AoQRzCDfh87wA0WccMBM3gCHDQ5xY/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Task 2. Study the advertisement. You are considering going to the fitness club and now you’d like to get more information. In 1.5 minutes you are to ask four direct questions to find out about the following: 1) location; 2) programmes for beginners; 3) special equipment needed; 4) qualified coaches. You have 20 seconds to ask each question.</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1mqWPqut-h6f4Thf4HeQxfGuddrMdvWvU/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Task 2. Study the advertisement. You are considering going to the mountains and now you’d like to get more information. In 1.5 minutes you are to ask four direct questions to find out about the following: 1) duration of the tour; 2) price for one; 3) student discounts; 4) special equipment needed. You have 20 seconds to ask each question.</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1cCinY2wNR1h6ocI4BG1fo-nUQXamPqIS/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Task 2. Study the advertisement. You are considering going to the new book store and now you ’d like to get more information. In 1.5 minutes you are to ask five direct questions to find out about the following: 1) location 2) opening hours 3) kinds of books sold 4) electronic books 5) meeting with writers You have 20 seconds to ask each question.</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1gBUfAbHTdc8uBpEf-0gHljLT9mk2qxXO/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Task 2. Study the advertisement. You are considering going to the new clothing store and now you ’d like to get more information. In 1.5 minutes you are to ask five direct questions to find out about the following: 1) opening hours 2) available sizes 3) discounts 4) free parking 5) how to get to the shop by public transport You have 20 seconds to ask each question.</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/12MVK959gLwCLb8HjqJFnWnNwppEKUbas/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Task 2. Study the advertisement. You are considering going to the new fast food restaurant and now you ’d like to get more information. In 1.5 minutes you are to ask five direct questions to find out about the following: 1) location 2) opening hours 3) price of a standard lunch 4) vegetarian dishes 5) free Wi-Fi You have 20 seconds to ask each question.</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1lcSHkxpQsghF2kmI38qi9QCCl7LSH9-p/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Task 2. Study the advertisement. You are considering going to the new ice rink and now you’d like to get more information. In 1.5 minutes you are to ask four direct questions to find out about the following: 1) location; 2) opening hours; 3) discounts for students; 4) coach for beginners. You have 20 seconds to ask each question.</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/163ZQe2x3VMQ5HqeTGr0tJmx6cfrWl3TE/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Task 2. Study the advertisement. You are considering having a holiday and now you ’d like to get more information. In 1.5 minutes you are to ask five direct questions to find out about the following: 1) location 2) accommodation 3) fishing 4) price for a week for one 5) group discounts You have 20 seconds to ask each question.</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1u9GgtuvE7MDIvVLOwVVYFwxYDQFR196J/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Task 2. Study the advertisement. You are considering having a holiday at this resort and now you ’d like to get more information. In 1.5 minutes you are to ask five direct questions to find out about the following: 1) location 2) departure dates 3) single rooms 4) sports facilities 5) price for two weeks for one You have 20 seconds to ask each question.</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1pqpBuKGNDJkUm62pgi8u-d8hCYnvgusy/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Task 2. Study the advertisement. You are considering having a seaside holiday and now you ’d like to get more information. In 1.5 minutes you are to ask five direct questions to find out about the following: 1) location 2) transportation 3) sports facilities 4) price for a week for one person 5) family discounts You have 20 seconds to ask each question.</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1cXGn7NWazZ7iblKN3QHQuj0vBbQHj9c0/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Task 2. Study the advertisement. You are considering join ing the basketball club and now you ’d like to get more information. In 1.5 minutes you are to ask five direct questions to find out about the following: 1) location; 2) number of members; 3) minimum age; 4) membership fee; 5) qualified coaches. You have 20 seconds to ask each question.</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/19dOzcJ0uHQ2W5AlqeAKsMcAO_3DpUCDx/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Task 2. Study the advertisement. You are considering join ing the motorcycle club and now you’d like to get more information. In 1.5 minutes you are to ask four direct questions to find out about the following: 1) location; 2) special clothes; 3) coach; 4) competitions. You have 20 seconds to ask each question.</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1OnuYq8zpUFydhy9O5eCvHJf4cVyukHMR/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Task 2. Study the advertisement. You are considering joining the hockey club and now you’d like to get more information. In 1.5 minutes you are to ask four direct questions to find out about the following: 1) location; 2) minimum age; 3) type of ice rink; 4) special equipment needed. You have 20 seconds to ask each question.</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/17xeKrAZNvntZ1RJWosEvFdoJiiEEjX2m/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Task 2. Study the advertisement. You are considering joining the volleyball club and now you’d like to get more information. In 1.5 minutes you are to ask four direct questions to find out about the following: 1) location; 2) special clothes; 3) opportunity to play inside; 4) coach for beginners. You have 20 seconds to ask each question.</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1monh8TY2MkpUkq7qNLtmksxLlpfCDwtF/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Task 2. Study the advertisement. You are considering ordering a cake from this company and now you’d like to get more information. In 1.5 minutes you are to ask four direct questions to find out about the following: 1) maximum size; 2) cake fillings; 3) delivery; 4) discounts. You have 20 seconds to ask each question.</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1qMelEXFkla17VuVF-vo29POwo_iqQiVY/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Task 2. Study the advertisement. You are considering taking a part-time job and now you ’d like to get more information. In 1.5 minutes you are to ask five direct questions to find out about the following: 1) kinds of jobs; 2) skills needed; 3) minimum age; 4) payment; 5) working early in the morning. You have 20 seconds to ask each question.</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1qL1sos4bxY8SFUDGoHBOgopLoijUnJBj/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Task 2. Study the advertisement. You are considering taking a part-time job and now you’d like to get more information. In 1.5 minutes you are to ask four direct questions to find out about the following: 1) variety of jobs; 2) minimum age; 3) required number of hours per week ; 4) salary. You have 20 seconds to ask each question.</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1afgwZt5g_7TqKxKz1N4vgCxXD0_lQv31/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Task 2. Study the advertisement. You are considering taking some guitar lessons and now you’d like to get more information. In 1.5 minutes you are to ask four direct questions to find out about the following: 1) type of guitar used; 2) number of lessons a week; 3) tuition fee; 4) evening classes. You have 20 seconds to ask each question.</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1Fu_JgDjnPvuRoC5we2QZORFTnaPf6KlA/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Task 2. Study the advertisement. You are considering taking some lessons and now you ’d like to get more information. In 1.5 minutes you are to ask five direct questions to find out about the following: 1) location 2) price for one lesson 3) duration of the lesson 4) languages available 5) evening classes You have 20 seconds to ask each question.</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1bEHsgzAWM_j8_xidbY4aTlQL2O_BZiGz/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Task 2. Study the advertisement. You are considering taking some painting classes and now you ’d like to get more information. In 1.5 minutes you are to ask five direct questions to find out about the following: 1) location; 2) number of classes a week; 3) styles of painting taught; 4) timetable; 5) tuition fee. You have 20 seconds to ask each question.</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1gk2YtwOR9CtqgYh6yGAtpoWZUKDSCY7K/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Task 2. Study the advertisement. You are considering using the cargo transportation company service and now you’d like to get more information. In 1.5 minutes you are to ask four direct questions to find out about the following: 1) transportation of plants; 2) types of cars and trucks used; 3) working hours; 4) discounts. You have 20 seconds to ask each question.</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1snJuvqOGJo8hmwkgKXi35xbXzwM0rro_/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>Task 2. Study the advertisement. You are considering using the clinic and now you ’d like to get more information. In 1.5 minutes you are to ask five direct questions to find out about the following: 1) location 2) opening hours 3) transportation 4) kinds of animals treated 5) if home visits are possible You have 20 seconds to ask each question.</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1CcB-H-s2eiWshJ7C9AivcpTLWpKwIv-F/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t>79BBF8</t>
-  </si>
-  <si>
-    <t>Task 3. These are photos from your photo album. Choose one photo to describe to your friend. You will have to start speaking in 1.5 minutes and will speak for not more than 2 minutes (12 – 15 sentences) . In your talk remember to speak about: · where and when the photo was taken ; · what/who is in the photo ; · what is happening ; · why you keep the photo in your album ; · why you decided to show the picture to your friend . You have to talk continuously, starting with: “ I ’ ve chosen photo number …”.</t>
-  </si>
-  <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/5A178EA2D8C692594A1F6CC391F4E65D(copy1)/xs3qstsrc5A178EA2D8C692594A1F6CC391F4E65D_2_1574083390.jpg</t>
-  </si>
-  <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/5A178EA2D8C692594A1F6CC391F4E65D(copy1)/xs3qstsrc5A178EA2D8C692594A1F6CC391F4E65D_4_1574083390.jpg</t>
-  </si>
-  <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/5A178EA2D8C692594A1F6CC391F4E65D(copy1)/xs3qstsrc5A178EA2D8C692594A1F6CC391F4E65D_6_1574083390.jpg</t>
-  </si>
-  <si>
-    <t>FF111A</t>
-  </si>
-  <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/27811EE816C89A76437A2A4AED7573BF(copy2)/xs3qstsrc27811EE816C89A76437A2A4AED7573BF_2_1574157503.jpg</t>
-  </si>
-  <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/27811EE816C89A76437A2A4AED7573BF(copy2)/xs3qstsrc27811EE816C89A76437A2A4AED7573BF_4_1574157503.jpg</t>
-  </si>
-  <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/27811EE816C89A76437A2A4AED7573BF(copy2)/xs3qstsrc27811EE816C89A76437A2A4AED7573BF_6_1574157503.jpg</t>
-  </si>
-  <si>
-    <t>858C2A</t>
-  </si>
-  <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/29A4BE1F0F19ADC64F2FEE618ACBE569(copy1)/xs3qstsrc29A4BE1F0F19ADC64F2FEE618ACBE569_2_1574084363.jpg</t>
-  </si>
-  <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/29A4BE1F0F19ADC64F2FEE618ACBE569(copy1)/xs3qstsrc29A4BE1F0F19ADC64F2FEE618ACBE569_4_1574084363.jpg</t>
-  </si>
-  <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/29A4BE1F0F19ADC64F2FEE618ACBE569(copy1)/xs3qstsrc29A4BE1F0F19ADC64F2FEE618ACBE569_6_1574084363.jpg</t>
-  </si>
-  <si>
-    <t>9AD660</t>
-  </si>
-  <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/1F97F684B5F0A830443913D63C96D860(copy1)/xs3qstsrc1F97F684B5F0A830443913D63C96D860_2_1575548838.jpg</t>
-  </si>
-  <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/1F97F684B5F0A830443913D63C96D860(copy1)/xs3qstsrc1F97F684B5F0A830443913D63C96D860_4_1575548838.jpg</t>
-  </si>
-  <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/1F97F684B5F0A830443913D63C96D860(copy1)/xs3qstsrc1F97F684B5F0A830443913D63C96D860_6_1575548838.jpg</t>
-  </si>
-  <si>
-    <t>5DC747</t>
-  </si>
-  <si>
-    <t>Task 3. These are photos from your photo album. Choose one photo to describe to your friend. You will have to start speaking in 1.5 minutes and will speak for not more than 2 minutes (12 – 15 sentences) . In your talk remember to speak about: · where and when the photo was taken · what/who is in the photo · what is happening · why you keep the photo in your album · why you decided to show the picture to your friend You have to talk continuously, starting with: “I’ve chosen photo number …”</t>
-  </si>
-  <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/509EB58EEADFA7F94096CEC8626AD643(copy1)/xs3qstsrc509EB58EEADFA7F94096CEC8626AD643_7_1483014584.png</t>
-  </si>
-  <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/509EB58EEADFA7F94096CEC8626AD643(copy1)/xs3qstsrc509EB58EEADFA7F94096CEC8626AD643_2_1483014584.jpg</t>
-  </si>
-  <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/509EB58EEADFA7F94096CEC8626AD643(copy1)/xs3qstsrc509EB58EEADFA7F94096CEC8626AD643_4_1483014584.jpg</t>
-  </si>
-  <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/509EB58EEADFA7F94096CEC8626AD643(copy1)/xs3qstsrc509EB58EEADFA7F94096CEC8626AD643_6_1483014584.jpg</t>
-  </si>
-  <si>
-    <t>427DF0</t>
-  </si>
-  <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/5F810DE19EED9F3143C8F929AC5EE719(copy1)/xs3qstsrc5F810DE19EED9F3143C8F929AC5EE719_7_1483014214.png</t>
-  </si>
-  <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/5F810DE19EED9F3143C8F929AC5EE719(copy1)/xs3qstsrc5F810DE19EED9F3143C8F929AC5EE719_2_1483014214.jpg</t>
-  </si>
-  <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/5F810DE19EED9F3143C8F929AC5EE719(copy1)/xs3qstsrc5F810DE19EED9F3143C8F929AC5EE719_4_1483014214.jpg</t>
-  </si>
-  <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/5F810DE19EED9F3143C8F929AC5EE719(copy1)/xs3qstsrc5F810DE19EED9F3143C8F929AC5EE719_6_1483014214.jpg</t>
-  </si>
-  <si>
-    <t>16BDF3</t>
-  </si>
-  <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/1FAB7B231DD3A4964473314AD852B8EB(copy1)/xs3qstsrc1FAB7B231DD3A4964473314AD852B8EB_7_1549879651.png</t>
-  </si>
-  <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/1FAB7B231DD3A4964473314AD852B8EB(copy1)/xs3qstsrc1FAB7B231DD3A4964473314AD852B8EB_2_1549879651.jpg</t>
-  </si>
-  <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/1FAB7B231DD3A4964473314AD852B8EB(copy1)/xs3qstsrc1FAB7B231DD3A4964473314AD852B8EB_4_1549879651.jpg</t>
-  </si>
-  <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/1FAB7B231DD3A4964473314AD852B8EB(copy1)/xs3qstsrc1FAB7B231DD3A4964473314AD852B8EB_6_1549879651.jpg</t>
-  </si>
-  <si>
-    <t>6453FF</t>
-  </si>
-  <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/69FB94CBF23F9F2C4C3919E9B66FA8E8(copy1)/xs3qstsrc69FB94CBF23F9F2C4C3919E9B66FA8E8_7_1483014279.png</t>
-  </si>
-  <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/69FB94CBF23F9F2C4C3919E9B66FA8E8(copy1)/xs3qstsrc69FB94CBF23F9F2C4C3919E9B66FA8E8_2_1483014279.jpg</t>
-  </si>
-  <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/69FB94CBF23F9F2C4C3919E9B66FA8E8(copy1)/xs3qstsrc69FB94CBF23F9F2C4C3919E9B66FA8E8_4_1483014279.jpg</t>
-  </si>
-  <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/69FB94CBF23F9F2C4C3919E9B66FA8E8(copy1)/xs3qstsrc69FB94CBF23F9F2C4C3919E9B66FA8E8_6_1483014279.jpg</t>
-  </si>
-  <si>
-    <t>CE4777</t>
-  </si>
-  <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/B3369029C87C9B284E91859AF0FACDA4(copy1)/xs3qstsrcB3369029C87C9B284E91859AF0FACDA4_7_1483014438.png</t>
-  </si>
-  <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/B3369029C87C9B284E91859AF0FACDA4(copy1)/xs3qstsrcB3369029C87C9B284E91859AF0FACDA4_2_1483014438.jpg</t>
-  </si>
-  <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/B3369029C87C9B284E91859AF0FACDA4(copy1)/xs3qstsrcB3369029C87C9B284E91859AF0FACDA4_4_1483014438.jpg</t>
-  </si>
-  <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/B3369029C87C9B284E91859AF0FACDA4(copy1)/xs3qstsrcB3369029C87C9B284E91859AF0FACDA4_6_1483014438.jpg</t>
-  </si>
-  <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/7320D38BDC5B9EE84F5D1E1FE5C9C9FA(copy1)/xs3qstsrc7320D38BDC5B9EE84F5D1E1FE5C9C9FA_7_1549879589.png</t>
-  </si>
-  <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/7320D38BDC5B9EE84F5D1E1FE5C9C9FA(copy1)/xs3qstsrc7320D38BDC5B9EE84F5D1E1FE5C9C9FA_2_1549879589.jpg</t>
-  </si>
-  <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/7320D38BDC5B9EE84F5D1E1FE5C9C9FA(copy1)/xs3qstsrc7320D38BDC5B9EE84F5D1E1FE5C9C9FA_4_1549879589.jpg</t>
-  </si>
-  <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/7320D38BDC5B9EE84F5D1E1FE5C9C9FA(copy1)/xs3qstsrc7320D38BDC5B9EE84F5D1E1FE5C9C9FA_6_1549879589.jpg</t>
-  </si>
-  <si>
-    <t>3A5426</t>
-  </si>
-  <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/B539E19A6704A85C422DCE5834D2C3DE(copy1)/xs3qstsrcB539E19A6704A85C422DCE5834D2C3DE_7_1483014519.png</t>
-  </si>
-  <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/B539E19A6704A85C422DCE5834D2C3DE(copy1)/xs3qstsrcB539E19A6704A85C422DCE5834D2C3DE_2_1483014519.jpg</t>
-  </si>
-  <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/B539E19A6704A85C422DCE5834D2C3DE(copy1)/xs3qstsrcB539E19A6704A85C422DCE5834D2C3DE_4_1483014519.jpg</t>
-  </si>
-  <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/B539E19A6704A85C422DCE5834D2C3DE(copy1)/xs3qstsrcB539E19A6704A85C422DCE5834D2C3DE_6_1483014519.jpg</t>
-  </si>
-  <si>
-    <t>8DCFDD</t>
-  </si>
-  <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/D19E46A1D662B8CB4EA49904706522DC(copy1)/xs3qstsrcD19E46A1D662B8CB4EA49904706522DC_7_1549980738.png</t>
-  </si>
-  <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/D19E46A1D662B8CB4EA49904706522DC(copy1)/xs3qstsrcD19E46A1D662B8CB4EA49904706522DC_2_1549980738.jpg</t>
-  </si>
-  <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/D19E46A1D662B8CB4EA49904706522DC(copy1)/xs3qstsrcD19E46A1D662B8CB4EA49904706522DC_4_1549980738.jpg</t>
-  </si>
-  <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/D19E46A1D662B8CB4EA49904706522DC(copy1)/xs3qstsrcD19E46A1D662B8CB4EA49904706522DC_6_1549980738.jpg</t>
-  </si>
-  <si>
-    <t>10C591</t>
-  </si>
-  <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/CA232AACF8ED80C84B85873C30C833C2(copy1)/xs3qstsrcCA232AACF8ED80C84B85873C30C833C2_7_1483014342.png</t>
-  </si>
-  <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/CA232AACF8ED80C84B85873C30C833C2(copy1)/xs3qstsrcCA232AACF8ED80C84B85873C30C833C2_2_1483014342.jpg</t>
-  </si>
-  <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/CA232AACF8ED80C84B85873C30C833C2(copy1)/xs3qstsrcCA232AACF8ED80C84B85873C30C833C2_4_1483014342.jpg</t>
-  </si>
-  <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/CA232AACF8ED80C84B85873C30C833C2(copy1)/xs3qstsrcCA232AACF8ED80C84B85873C30C833C2_6_1483014342.jpg</t>
-  </si>
-  <si>
-    <t>874D99</t>
-  </si>
-  <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/2F0B3A5D211695E84AFCCECEB8FDE7AE(copy1)/xs3qstsrc2F0B3A5D211695E84AFCCECEB8FDE7AE_7_1549879345.png</t>
-  </si>
-  <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/2F0B3A5D211695E84AFCCECEB8FDE7AE(copy1)/xs3qstsrc2F0B3A5D211695E84AFCCECEB8FDE7AE_2_1549879345.jpg</t>
-  </si>
-  <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/2F0B3A5D211695E84AFCCECEB8FDE7AE(copy1)/xs3qstsrc2F0B3A5D211695E84AFCCECEB8FDE7AE_4_1549879345.jpg</t>
-  </si>
-  <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/2F0B3A5D211695E84AFCCECEB8FDE7AE(copy1)/xs3qstsrc2F0B3A5D211695E84AFCCECEB8FDE7AE_6_1549879345.jpg</t>
-  </si>
-  <si>
-    <t>D0CFE9</t>
-  </si>
-  <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/9116329139FCBD9048B9D098B95F3E79(copy1)/xs3qstsrc9116329139FCBD9048B9D098B95F3E79_7_1549879446.png</t>
-  </si>
-  <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/9116329139FCBD9048B9D098B95F3E79(copy1)/xs3qstsrc9116329139FCBD9048B9D098B95F3E79_2_1549879446.jpg</t>
-  </si>
-  <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/9116329139FCBD9048B9D098B95F3E79(copy1)/xs3qstsrc9116329139FCBD9048B9D098B95F3E79_4_1549879446.jpg</t>
-  </si>
-  <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/9116329139FCBD9048B9D098B95F3E79(copy1)/xs3qstsrc9116329139FCBD9048B9D098B95F3E79_6_1549879446.jpg</t>
-  </si>
-  <si>
-    <t>52C188</t>
-  </si>
-  <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/E2BC5FD0C237AE5349BB82ABA30FBC98(copy1)/xs3qstsrcE2BC5FD0C237AE5349BB82ABA30FBC98_7_1549879528.png</t>
-  </si>
-  <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/E2BC5FD0C237AE5349BB82ABA30FBC98(copy1)/xs3qstsrcE2BC5FD0C237AE5349BB82ABA30FBC98_2_1549879528.jpg</t>
-  </si>
-  <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/E2BC5FD0C237AE5349BB82ABA30FBC98(copy1)/xs3qstsrcE2BC5FD0C237AE5349BB82ABA30FBC98_4_1549879528.jpg</t>
-  </si>
-  <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/E2BC5FD0C237AE5349BB82ABA30FBC98(copy1)/xs3qstsrcE2BC5FD0C237AE5349BB82ABA30FBC98_6_1549879528.jpg</t>
-  </si>
-  <si>
-    <t>7BF5F8</t>
-  </si>
-  <si>
-    <t>Task 3. These are photos from your photo album. Choose one photo to describe to your friend. You will have to start speaking in 1.5 minutes and will speak for not more than 2 minutes (12–15 sentences) . In your talk remember to speak about: · where and when the photo was taken; · what/who is in the photo; · what is happening; · why you keep the photo in your album; · why you decided to show the picture to your friend. You have to talk continuously, starting with: “I’ve chosen photo number …”.</t>
-  </si>
-  <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/CDE718ED73CDB0984D725334A8AEB44B(copy2)/xs3qstsrcCDE718ED73CDB0984D725334A8AEB44B_3_1612792377.jpg</t>
-  </si>
-  <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/CDE718ED73CDB0984D725334A8AEB44B(copy2)/xs3qstsrcCDE718ED73CDB0984D725334A8AEB44B_4_1612792377.jpg</t>
-  </si>
-  <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/CDE718ED73CDB0984D725334A8AEB44B(copy2)/xs3qstsrcCDE718ED73CDB0984D725334A8AEB44B_5_1612792377.jpg</t>
-  </si>
-  <si>
-    <t>F21402</t>
-  </si>
-  <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/61DD6232E3BD927242A417E80B9A05A9(copy2)/xs3qstsrc61DD6232E3BD927242A417E80B9A05A9_3_1612792308.jpg</t>
-  </si>
-  <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/61DD6232E3BD927242A417E80B9A05A9(copy2)/xs3qstsrc61DD6232E3BD927242A417E80B9A05A9_4_1612792308.jpg</t>
-  </si>
-  <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/61DD6232E3BD927242A417E80B9A05A9(copy2)/xs3qstsrc61DD6232E3BD927242A417E80B9A05A9_5_1612792308.jpg</t>
-  </si>
-  <si>
-    <t>0A1F0B</t>
-  </si>
-  <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/C47D8D61E808B76040827BB1ADB80E64(copy2)/xs3qstsrcC47D8D61E808B76040827BB1ADB80E64_3_1612792275.jpg</t>
-  </si>
-  <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/C47D8D61E808B76040827BB1ADB80E64(copy2)/xs3qstsrcC47D8D61E808B76040827BB1ADB80E64_4_1612792275.jpg</t>
-  </si>
-  <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/C47D8D61E808B76040827BB1ADB80E64(copy2)/xs3qstsrcC47D8D61E808B76040827BB1ADB80E64_5_1612792275.jpg</t>
-  </si>
-  <si>
-    <t>61DA15</t>
-  </si>
-  <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/1A573B3181FF835D4AF12E610F06EC95(copy2)/xs3qstsrc1A573B3181FF835D4AF12E610F06EC95_3_1612792334.jpg</t>
-  </si>
-  <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/1A573B3181FF835D4AF12E610F06EC95(copy2)/xs3qstsrc1A573B3181FF835D4AF12E610F06EC95_4_1612792334.jpg</t>
-  </si>
-  <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/1A573B3181FF835D4AF12E610F06EC95(copy2)/xs3qstsrc1A573B3181FF835D4AF12E610F06EC95_5_1612792334.jpg</t>
-  </si>
-  <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/AAD64E1625628CDC49D58D3F5E56997A(copy2)/xs3qstsrcAAD64E1625628CDC49D58D3F5E56997A_3_1612792441.jpg</t>
-  </si>
-  <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/AAD64E1625628CDC49D58D3F5E56997A(copy2)/xs3qstsrcAAD64E1625628CDC49D58D3F5E56997A_4_1612792441.jpg</t>
-  </si>
-  <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/AAD64E1625628CDC49D58D3F5E56997A(copy2)/xs3qstsrcAAD64E1625628CDC49D58D3F5E56997A_5_1612792441.jpg</t>
-  </si>
-  <si>
-    <t>889D6A</t>
-  </si>
-  <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/84ACC5B96B0583FB490E9926203E9A99(copy2)/xs3qstsrc84ACC5B96B0583FB490E9926203E9A99_3_1612792407.jpg</t>
-  </si>
-  <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/84ACC5B96B0583FB490E9926203E9A99(copy2)/xs3qstsrc84ACC5B96B0583FB490E9926203E9A99_4_1612792407.jpg</t>
-  </si>
-  <si>
-    <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/84ACC5B96B0583FB490E9926203E9A99(copy2)/xs3qstsrc84ACC5B96B0583FB490E9926203E9A99_5_1612792407.jpg</t>
-  </si>
-  <si>
-    <t>Task 4. Imagine that you and your friend are doing a school project “ Sports activities ”. You have found some illustrations and want to share the news. Leave a voice message to your friend. In 2.5 minutes be ready to : · explain the choice of the illustrations for the project by briefly describing them and noting the differences; · mention the advantages (1–2) of the two sports activities; · mention the disadva ntages (1–2) of the two sports activities ; · express your opinion on the subject of the project – which of the sports activities presented in the pictures you’d prefer and why . You will speak for not more than 3 minutes (12–15 sentences) . You have to talk continuously.</t>
-  </si>
-  <si>
-    <t>Task 4. Imagine that you and your friend are doing a school project “ The best New Year holiday ”. You have found some photos to illustrate it but for technical reasons you cannot send them now. Leave a voice message to your friend explaining your choice of the photos and sharing some ideas about the project. In 2.5 minutes be ready to: · explain the choice of the illustrations for the project by briefly describing them and noting the differences; · mention the advantages (1–2) of the two ways of spending the New Year holiday; · mention the disadvantages (1–2) of the two ways of spending the New Year holiday; · express your opinion on the subject of the project – which way of spending the New Year holiday you’d prefer and why. You will speak for not more than 3 minutes (12–15 sentences) . You have to talk continuously.</t>
-  </si>
-  <si>
-    <t>Task 4. Imagine that you and your friend are doing a school project “Communication”. You have found some illustrations and want to share the news. Leave a voice message to your friend. In 2.5 minutes be ready to : · explain the choice of the illustrations for the project by briefly describing them and noting the differences; · mention the advantages (1 – 2) of the two types of communication ; · mention the disadvantages (1 – 2) of the two types of communication ; · express your opinion on the subject of the project – which way of communication you prefer and why. You will speak for not more than 3 minutes (12 – 15 sentences) . You have to talk continuously.</t>
-  </si>
-  <si>
-    <t>Task 4. Imagine that you and your friend are doing a school project “Family pastime”. You have found some illustrations and want to share the news. Leave a voice message to your friend. In 2.5 minutes be ready to : · explain the choice of the illustrations for the project by briefly describing them and noting the differences; · mention the advantages (1 – 2) of the two types of family pastime; · mention the disadvantages (1 – 2) of the two types of family pastime; · express your opinion on the subject of the project – which type of family pastime presented in the pictures you prefer and why. You will speak for not more than 3 minutes (12 – 15 sentences) . You have to talk continuously.</t>
-  </si>
-  <si>
-    <t>Task 4. Imagine that you and your friend are doing a school project “Hobbies”. You have found some illustrations and want to share the news. Leave a voice message to your friend. In 2.5 minutes be ready to : · explain the choice of the illustrations for the project by briefly describing them and noting the differences; · mention the advantages (1 – 2) of the two hobbies; · mention the disadvantages (1 – 2) of the two hobbies; · express your opinion on the subject of the project – which of the hobbies presented in the pictures you’d prefer and why. You will speak for not more than 3 minutes (12 – 15 sentences) . You have to talk continuously.</t>
-  </si>
-  <si>
-    <t>Task 4. Imagine that you and your friend are doing a school project “Hobbies”. You have found some illustrations and want to share the news. Leave a voice message to your friend. In 2.5 minutes be ready to : · explain the choice of the illustrations for the project by briefly describing them and noting the differences; · mention the advantages (1 – 2) of the two hobbies; · mention the disadvantages (1 – 2) of the two hobbies; · express your opinion on the subject of the project – which of these hobbies you’d prefer and why. You will speak for not more than 3 minutes (12 – 15 sentences) . You have to talk continuously.</t>
-  </si>
-  <si>
-    <t>Task 4. Imagine that you and your friend are doing a school project “Jobs”. You have found some illustrations and want to share the news. Leave a voice message to your friend. In 2.5 minutes be ready to : · explain the choice of the illustrations for the project by briefly describing them and noting the differences; · mention the advantages (1 – 2) of the two jobs; · mention the disadvantages (1 – 2) of the two jobs; · express your opinion on the subject of the project – which of the jobs presented in the pictures you’d prefer and why. You will speak for not more than 3 minutes (12 – 15 sentences) . You have to talk continuously.</t>
-  </si>
-  <si>
-    <t>Task 4. Imagine that you and your friend are doing a school project “Jobs”. You have found some photos to illustrate it but for technical reasons you cannot send them now. Leave a voice message to your friend explaining your choice of the photos and sharing some ideas about the project. In 2.5 minutes be ready to: · explain the choice of the illustrations for the project by briefly describing them and noting the differences; · mention the advantages (1–2) of the two kinds of jobs ; · mention the disadvantages (1–2) of the two kinds of jobs ; · express your opinion on the subject of the project – which of these jobs you’d prefer and why. You will speak for not more than 3 minutes (12–15 sentences) . You have to talk continuously.</t>
-  </si>
-  <si>
-    <t>Task 4. Imagine that you and your friend are doing a school project “Masterclasses”. You have found some photos to illustrate it but for technical reasons you cannot send them now. Leave a voice message to your friend explaining your choice of the photos and sharing some ideas about the project. In 2.5 minutes be ready to: · explain the choice of the illustrations for the project by briefly describing them and noting the differences; · mention the advantages (1–2) of the two types of masterclasses ; · mention the disadvantages (1–2) of the two types of masterclasses ; · express your opinion on the subject of the project – which of these masterclasses you’d prefer to attend and why. You will speak for not more than 3 minutes (12–15 sentences) . You have to talk continuously.</t>
-  </si>
-  <si>
-    <t>Task 4. Imagine that you and your friend are doing a school project “School subjects”. You have found some photos to illustrate it but for technical reasons you cannot send them now. Leave a voice message to your friend explaining your choice of the photos and sharing some ideas about the project. In 2.5 minutes be ready to: · explain the choice of the illustrations for the project by briefly describing them and noting the differences; · mention the advantages (1–2) of the two school subjects; · mention the disadvantages (1–2) of the two school subjects; · express your opinion on the subject of the project – which of these school subjects you preferred as a school student and why. You will speak for not more than 3 minutes (12–15 sentences) . You have to talk continuously.</t>
-  </si>
-  <si>
-    <t>Task 4. Imagine that you and your friend are doing a school project “Solo or in company”. You have found some illustrations and want to share the news. Leave a voice message to your friend. In 2.5 minutes be ready to : · explain the choice of the illustrations for the project by briefly describing them and noting the differences; · mention the advantages (1–2) of the two ways of having meals; · mention the disadvantages (1–2) of the two ways of having meals ; · express your opinion on the subject of the project – which way of having meals presented in the pictures you prefer and why. You will speak for not more than 3 minutes (12–15 sentences) . You have to talk continuously.</t>
-  </si>
-  <si>
-    <t>Task 4. Imagine that you and your friend are doing a school project “Sports”. You have found some photos to illustrate it but for technical reasons you cannot send them now. Leave a voice message to your friend explaining your choice of the photos and sharing some ideas about the project. In 2.5 minutes be ready to: · explain the choice of the illustrations for the project by briefly describing them and noting the differences; · mention the advantages (1–2) of the two kinds of sports ; · mention the disadvantages (1–2) of the two kinds of sports ; · express your opinion on the subject of the project – which of these sports you’d prefer and why. You will speak for not more than 3 minutes (12–15 sentences) . You have to talk continuously.</t>
-  </si>
-  <si>
-    <t>Task 4. Imagine that you and your friend are doing a school project “Summer holidays”. You have found some photos to illustrate it but for technical reasons you cannot send them now. Leave a voice message to your friend explaining your choice of the photos and sharing some ideas about the project. In 2.5 minutes be ready to: · explain the choice of the illustrations for the project by briefly describing them and noting the differences; · mention the advantages (1–2) of the two types of summer holidays ; · mention the disadvantages (1–2) of the two types of summer holidays ; · express your opinion on the subject of the project – which of these ways of spending summer holidays you preferred as a child and why. You will speak for not more than 3 minutes (12–15 sentences) . You have to talk continuously.</t>
-  </si>
-  <si>
-    <t>Task 4. Imagine that you and your friend are doing a school project “Volunteering”. You have found some photos to illustrate it but for technical reasons you cannot send them now. Leave a voice message to your friend explaining your choice of the photos and sharing some ideas about the project. In 2.5 minutes be ready to: · explain the choice of the illustrations for the project by briefly describing them and noting the differences; · mention the advantages (1–2) of the two types of v olunteering ; · mention the disadvantages (1–2) of the two types of v olunteering ; · express your opinion on the subject of the project – which type of volunteering presented in the pictures you’d prefer and why. You will speak for not more than 3 minutes (12–15 sentences) . You have to talk continuously.</t>
-  </si>
-  <si>
-    <t>Task 4. Imagine that you and your friend are doing a school project “Weather”. You have found some illustrations and want to share the news. Leave a voice message to your friend. In 2.5 minutes be ready to : · explain the choice of the illustrations for the project by briefly describing them and noting the differences; · mention the advantages (1 – 2) of the two kinds of weather; · mention the disadvantages (1 – 2) of the two kinds of weather; · express your opinion on the subject of the project – which kind of weather presented in the pictures you prefer and why. You will speak for not more than 3 minutes (12 – 15 sentences) . You have to talk continuously.</t>
-  </si>
-  <si>
-    <t>Task 4. Imagine that you are doing a project “ An ideal weekend ” together with your friend. You have found some illustrations and want to share the news. Leave a voice message to your friend. In 2.5 minutes be ready to : give a brief description of the photos, justifying the choice of the photos for the project; say in what way the pictures are different, justifying the choice of the photos for the project; mention the advantages and disadvantages (1 – 2) of the two types of weekends; express your opinion on the subject of the project – which kind of weekend you’d prefer and why. You will speak for not more than 3 minutes (12 – 15 sentences) . You have to talk continuously.</t>
-  </si>
-  <si>
-    <t>Task 4. Imagine that you are doing a project “ Keeping fit ” together with your friend. You have found some illustrations and want to share the news. Leave a voice message to your friend. In 2.5 minutes be ready to : give a brief description of the photos, justifying the choice of the photos for the project; say in what way the pictures are different, justifying the choice of the photos for the project; mention the advantages and disadvantages (1 – 2) of the two ways of keeping fit; express your opinion on the subject of the project – which way of keeping fit you prefer and why . You will speak for not more than 3 minutes (12 – 15 sentences) . You have to talk continuously.</t>
-  </si>
-  <si>
-    <t>Task 4. Imagine that you are doing a project “ Preparing for exams” together with your friend. You have found some illustrations and want to share the news. Leave a voice message to your friend. In 2.5 minutes be ready to : give a brief description of the photos, justifying the choice of the photos for the project; say in what way the pictures are different, justifying the choice of the photos for the project; mention the advantages and disadvantages (1 – 2) of the two types of preparing for exams; express your opinion on the subject of the project – whether you prefer preparing for exams alone or in somebody’s company and why . You will speak for not more than 3 minutes (12 – 15 sentences) . You have to talk continuously.</t>
-  </si>
-  <si>
-    <t>Task 4. Imagine that you are doing a project “ Tastes differ ” together with your friend. You have found some illustrations and want to share the news. Leave a voice message to your friend. In 2.5 minutes be ready to : give a brief description of the photos, justifying the choice of the photos for the project; say in what way the pictures are different, justifying the choice of the photos for the project; mention the advantages and disadvantages (1–2) of the two types of food; express your opinion on the subject of the project – which kind of food you prefer and why. You will speak for not more than 3 minutes (12–15 sentences) . You have to talk continuously.</t>
-  </si>
-  <si>
-    <t>Task 4. Imagine that you are doing a project “ Tastes differ ” together with your friend. You have found some illustrations and want to share the news. Leave a voice message to your friend. In 2.5 minutes be ready to: give a brief description of the photos, justifying the choice of the photos for the project ; say in what way the pictures are different, justifying the choice of the photos for the project ; mention the advantages and disadvantages (1 – 2) of the two hobbies; express your opinion on the subject of the project – which of these hobbies you would prefer and why. You will speak for not more than 3 minutes (12 – 15 sentences) . You have to talk continuously.</t>
-  </si>
-  <si>
-    <t>Task 4. Imagine that you are doing a project “ The best family time ” together with your friend. You have found some illustrations and want to share the news. Leave a voice message to your friend. In 2.5 minutes be ready to : give a brief description of the photos, justifying the choice of the photos for the project; say in what way the pictures are different, justifying the choice of the photos for the project; mention the advantages and disadvantages (1 – 2) of the two types of family time; express your opinion on the subject of the project – which kind of family leisure you preferred as a child and why . You will speak for not more than 3 minutes (12 – 15 sentences) . You have to talk continuously.</t>
-  </si>
-  <si>
-    <t>Task 4. Imagine that you are doing a project “Happy childhood” together with your friend. You have found some illustrations and want to share the news. Leave a voice message to your friend. In 2.5 minutes be ready to : give a brief description of the photos, justifying the choice of the photos for the project; say in what way the pictures are different, justifying the choice of the photos for the project; mention the advantages and disadvantages (1 – 2) of the two types of children’s leisure activities; express your opinion on the subject of the project – which leisure activity you preferred as a child and why. You will speak for not more than 3 minutes (12 – 15 sentences) . You have to talk continuously.</t>
-  </si>
-  <si>
-    <t>Task 4. Imagine that you are doing a project “Hobbies” together with your friend. You have found some illustrations and want to share the news. Leave a voice message to your friend. In 2.5 minutes be ready to : give a brief description of the photos, justifying the choice of the photos for the project; say in what way the pictures are different, justifying the choice of the photos for the project; mention the advantages and disadvantages (1 – 2) of the two types of hobbies; express your opinion on the subject of the project – which kind of hobby you prefer and why. You will speak for not more than 3 minutes (12 – 15 sentences) . You have to talk continuously.</t>
-  </si>
-  <si>
-    <t>Task 4. Imagine that you are doing a project “Shopping” together with your friend. You have found some illustrations and want to share the news. Leave a voice message to your friend. In 2.5 minutes be ready to : give a brief description of the photos, justifying the choice of the photos for the project; say in what way the pictures are different, justifying the choice of the photos for the project; mention the advantages and disadvantages (1 – 2) of the two types of shopping; express your opinion on the subject of the project – w hich way of shopping you prefer and why. You will speak for not more than 3 minutes (12 – 15 sentences) . You have to talk continuously.</t>
-  </si>
-  <si>
-    <t>Task 4. Imagine that you are doing a project “Tastes differ” together with your friend. You have found some illustrations and want to share the news. Leave a voice message to your friend. In 2.5 minutes be ready to: give a brief description of the photos, justifying the choice of the photos for the project ; say in what way the pictures are different, justifying the choice of the photos for the project ; mention the advantages and disadvantages (1 – 2) of the two ways of watching films; express your opinion on the subject of the project – how you prefer to watch films and why. You will speak for not more than 3 minutes (12 – 15 sentences) . You have to talk continuously.</t>
-  </si>
-  <si>
-    <t>Task 4. Imagine that you are doing a project “Tastes differ” together with your friend. You have found some illustrations and want to share the news. Leave a voice message to your friend. In 2.5 minutes be ready to: give a brief description of the photos, justifying the choice of the photos for the project ; say in what way the pictures are different, justifying the choice of the photos for the project ; mention the advantages and disadvantages (1 – 2) of the two ways of getting around the city; express your opinion on the subject of the project – which of these ways of getting around the city you ’d prefer and why. You will speak for not more than 3 minutes (12 – 15 sentences) . You have to talk continuously.</t>
-  </si>
-  <si>
-    <t>Task 4. Imagine that you are doing a project “Tastes differ” together with your friend. You have found some illustrations and want to share the news. Leave a voice message to your friend. In 2.5 minutes be ready to: give a brief description of the photos, justifying the choice of the photos for the project ; say in what way the pictures are different, justifying the choice of the photos for the project ; mention the advantages and disadvantages (1 – 2) of the two ways of shopping; express your opinion on the subject of the project – which of these ways of shopping you prefer and why. You will speak for not more than 3 minutes (12 – 15 sentences) . You have to talk continuously.</t>
-  </si>
-  <si>
-    <t>Task 4. Imagine that you are doing a project “Tastes differ” together with your friend. You have found some illustrations and want to share the news. Leave a voice message to your friend. In 2.5 minutes be ready to: give a brief description of the photos, justifying the choice of the photos for the project ; say in what way the pictures are different, justifying the choice of the photos for the project ; mention the advantages and disadvantages (1–2) of the two ways of spending free time; express your opinion on the subject of the project – which of these ways of spending free time you would prefer and why. You will speak for not more than 3 minutes (12–15 sentences) . You have to talk continuously.</t>
-  </si>
-  <si>
-    <t>Task 4. Study the two photographs. In 1.5 minutes be ready to compare and contrast the photographs: · give a brief description of the photos (action, location) ; · say what the pictures have in common ; · say in what way the pictures are different ; · say which part-time job presented in the pictures you’ d prefer ; · explain why . You will speak for not more than 2 minutes (12 – 15 sentences) . You have to talk continuously.</t>
-  </si>
-  <si>
-    <t>Task 4. Study the two photographs. In 1.5 minutes be ready to compare and contrast the photographs: · give a brief description of the photos (action, location) ; · say what the pictures have in common ; · say in what way the pictures are different ; · say which way of spending free time presented in the pictures you’d prefer ; · explain why . You will speak for not more than 2 minutes (12 – 15 sentences) . You have to talk continuously.</t>
-  </si>
-  <si>
-    <t>Task 4. Study the two photographs. In 1.5 minutes be ready to compare and contrast the photographs: · give a brief description of the photos (action, location) ; · say what the pictures have in common ; · say in what way the pictures are different ; · say which way of spending your summer holiday presented in the pictures you prefer ; · explain why . You will speak for not more than 2 minutes (12 – 15 sentences) . You have to talk continuously.</t>
-  </si>
-  <si>
-    <t>Task 4. Study the two photographs. In 1.5 minutes be ready to compare and contrast the photographs: · give a brief description of the photos (action, location) ; · say what the pictures have in common ; · say in what way the pictures are different ; · say which way of studying presented in the pictures you prefer ; · explain why . You will speak for not more than 2 minutes (12 – 15 sentences) . You have to talk continuously.</t>
-  </si>
-  <si>
-    <t>Task 4. Study the two photographs. In 1.5 minutes be ready to compare and contrast the photographs: · give a brief description of the photos (action, location) · say what the pictures have in common · say in what way the pictures are different · say which kind of transport presented in the pictures you prefer · explain why You will speak for not more than 2 minutes (12 – 15 sentences) . You have to talk continuously.</t>
-  </si>
-  <si>
-    <t>Task 4. Study the two photographs. In 1.5 minutes be ready to compare and contrast the photographs: · give a brief description of the photos (action, location) · say what the pictures have in common · say in what way the pictures are different · say which of the celebrations presented in the pictures you preferred as a child · explain why You will speak for not more than 2 minutes (12 – 15 sentences) . You have to talk continuously.</t>
-  </si>
-  <si>
-    <t>Task 4. Study the two photographs. In 1.5 minutes be ready to compare and contrast the photographs: · give a brief description of the photos (action, location) · say what the pictures have in common · say in what way the pictures are different · say which of the foods presented in the pictures you’d prefer · explain why You will speak for not more than 2 minutes (12 – 15 sentences) . You have to talk continuously.</t>
-  </si>
-  <si>
-    <t>Task 4. Study the two photographs. In 1.5 minutes be ready to compare and contrast the photographs: · give a brief description of the photos (action, location) · say what the pictures have in common · say in what way the pictures are different · say which of the pets presented in the pictures you prefer · explain why You will speak for not more than 2 minutes (12 – 15 sentences) . You have to talk continuously.</t>
-  </si>
-  <si>
-    <t>Task 4. Study the two photographs. In 1.5 minutes be ready to compare and contrast the photographs: · give a brief description of the photos (action, location) · say what the pictures have in common · say in what way the pictures are different · say which of the places presented in the pictures you’d prefer to live in · explain why You will speak for not more than 2 minutes (12 – 15 sentences) . You have to talk continuously.</t>
-  </si>
-  <si>
-    <t>Task 4. Study the two photographs. In 1.5 minutes be ready to compare and contrast the photographs: · give a brief description of the photos (action, location) · say what the pictures have in common · say in what way the pictures are different · say which of the seasons presented in the pictures you prefer · explain why You will speak for not more than 2 minutes (12 – 15 sentences) . You have to talk continuously.</t>
-  </si>
-  <si>
-    <t>Task 4. Study the two photographs. In 1.5 minutes be ready to compare and contrast the photographs: · give a brief description of the photos (action, location) · say what the pictures have in common · say in what way the pictures are different · say which of the seasons presented in the pictures you’d prefer · explain why You will speak for not more than 2 minutes (12 – 15 sentences) . You have to talk continuously.</t>
-  </si>
-  <si>
-    <t>Task 4. Study the two photographs. In 1.5 minutes be ready to compare and contrast the photographs: · give a brief description of the photos (action, location) · say what the pictures have in common · say in what way the pictures are different · say which of the ways of spending free time presented in the pictures you’d prefer · explain why You will speak for not more than 2 minutes (12 – 15 sentences) . You have to talk continuously.</t>
-  </si>
-  <si>
-    <t>Task 4. Study the two photographs. In 1.5 minutes be ready to compare and contrast the photographs: · give a brief description of the photos (action, location) · say what the pictures have in common · say in what way the pictures are different · say which of the ways of spending your free time pres ented in the pictures you’d prefer · explain why You will speak for not more than 2 minutes (12 – 15 sentences) . You have to talk continuously.</t>
-  </si>
-  <si>
-    <t>Task 4. Study the two photographs. In 1.5 minutes be ready to compare and contrast the photographs: · give a brief description of the photos (action, location) · say what the pictures have in common · say in what way the pictures are different · say which type of shopping you prefer · explain why You will speak for not more than 2 minutes (12 – 15 sentences) . You have to talk continuously.</t>
-  </si>
-  <si>
-    <t>Task 4. Study the two photographs. In 1.5 minutes be ready to compare and contrast the photographs: · give a brief description of the photos (action, location) · say what the pictures have in common · say in what way the pictures are different · say which way of preparing for classes presented in the pictures you prefer · explain why You will speak for not more than 2 minutes (12 – 15 sentences) . You have to talk continuously.</t>
-  </si>
-  <si>
-    <t>Task 4. Study the two photographs. In 1.5 minutes be ready to compare and contrast the photographs: · give a brief description of the photos (action, location); · say what the pictures have in common; · say in what way the pictures are different; · say which kind of food presented in the pictures you prefer; · explain why. You will speak for not more than 2 minutes (12–15 sentences) . You have to talk continuously.</t>
-  </si>
-  <si>
-    <t>Task 4. Study the two photographs. In 1.5 minutes be ready to compare and contrast the photographs: · give a brief description of the photos (action, location); · say what the pictures have in common; · say in what way the pictures are different; · say which of the hobbies presented in the pictures you’d prefer; · explain why. You will speak for not more than 2 minutes (12–15 sentences) . You have to talk continuously.</t>
-  </si>
-  <si>
-    <t>Task 4. Study the two photographs. In 1.5 minutes be ready to compare and contrast the photographs: · give a brief description of the photos (action, location); · say what the pictures have in common; · say in what way the pictures are different; · say which type of games presented in the pictures you prefer; · explain why. You will speak for not more than 2 minutes (12–15 sentences) . You have to talk continuously.</t>
-  </si>
-  <si>
-    <t>Task 4. Study the two photographs. In 1.5 minutes be ready to compare and contrast the photographs: · give a brief description of the photos (action, location); · say what the pictures have in common; · say in what way the pictures are different; · say which type of household chores presented in the pictures you prefer; · explain why. You will speak for not more than 2 minutes (12–15 sentences) . You have to talk continuously.</t>
-  </si>
-  <si>
-    <t>Task 4. Study the two photographs. In 1.5 minutes be ready to compare and contrast the photographs: · give a brief description of the photos (action, location); · say what the pictures have in common; · say in what way the pictures are different; · say which type of leisure activities presented in the pictures you preferred as a child; · explain why. You will speak for not more than 2 minutes (12–15 sentences) . You have to talk continuously.</t>
-  </si>
-  <si>
-    <t>Task 4. Study the two photographs. In 1.5 minutes be ready to compare and contrast the photographs: · give a brief description of the photos (action, location); · say what the pictures have in common; · say in what way the pictures are different; · say which way of getting news presented in the pictures you prefer; · explain why. You will speak for not more than 2 minutes (12–15 sentences) . You have to talk continuously.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -2809,6 +2878,15 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
@@ -2851,7 +2929,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2900,13 +2978,19 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
     <xf quotePrefix="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="11" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -2919,7 +3003,7 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -4451,8 +4535,9 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="24.5"/>
-    <col customWidth="1" min="2" max="2" width="16.63"/>
-    <col customWidth="1" min="3" max="4" width="98.63"/>
+    <col customWidth="1" min="2" max="2" width="27.75"/>
+    <col customWidth="1" min="3" max="3" width="194.63"/>
+    <col customWidth="1" min="4" max="4" width="98.63"/>
     <col customWidth="1" min="5" max="5" width="236.75"/>
   </cols>
   <sheetData>
@@ -4487,7 +4572,7 @@
         <v>228</v>
       </c>
       <c r="B3" s="14">
-        <v>150.0</v>
+        <v>180.0</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>229</v>
@@ -4521,7 +4606,7 @@
         <v>236</v>
       </c>
       <c r="B5" s="14">
-        <v>150.0</v>
+        <v>180.0</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>237</v>
@@ -4538,7 +4623,7 @@
         <v>240</v>
       </c>
       <c r="B6" s="14">
-        <v>150.0</v>
+        <v>180.0</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>241</v>
@@ -4555,7 +4640,7 @@
         <v>175951.0</v>
       </c>
       <c r="B7" s="14">
-        <v>150.0</v>
+        <v>180.0</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>244</v>
@@ -4572,15 +4657,15 @@
         <v>247</v>
       </c>
       <c r="B8" s="14">
-        <v>150.0</v>
+        <v>180.0</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="16" t="s">
         <v>249</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="16" t="s">
         <v>250</v>
       </c>
     </row>
@@ -4589,7 +4674,7 @@
         <v>251</v>
       </c>
       <c r="B9" s="14">
-        <v>150.0</v>
+        <v>180.0</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>252</v>
@@ -4606,7 +4691,7 @@
         <v>255</v>
       </c>
       <c r="B10" s="14">
-        <v>150.0</v>
+        <v>180.0</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>256</v>
@@ -4623,7 +4708,7 @@
         <v>259</v>
       </c>
       <c r="B11" s="14">
-        <v>150.0</v>
+        <v>180.0</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>260</v>
@@ -4640,7 +4725,7 @@
         <v>263</v>
       </c>
       <c r="B12" s="14">
-        <v>150.0</v>
+        <v>180.0</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>264</v>
@@ -4657,7 +4742,7 @@
         <v>267</v>
       </c>
       <c r="B13" s="14">
-        <v>150.0</v>
+        <v>180.0</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>268</v>
@@ -4674,7 +4759,7 @@
         <v>271</v>
       </c>
       <c r="B14" s="14">
-        <v>150.0</v>
+        <v>180.0</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>272</v>
@@ -4691,7 +4776,7 @@
         <v>275</v>
       </c>
       <c r="B15" s="14">
-        <v>150.0</v>
+        <v>180.0</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>276</v>
@@ -4708,15 +4793,15 @@
         <v>279</v>
       </c>
       <c r="B16" s="14">
-        <v>150.0</v>
+        <v>180.0</v>
       </c>
       <c r="C16" s="15" t="s">
         <v>280</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="16" t="s">
         <v>281</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="16" t="s">
         <v>282</v>
       </c>
     </row>
@@ -4725,24 +4810,24 @@
         <v>283</v>
       </c>
       <c r="B17" s="14">
-        <v>150.0</v>
+        <v>180.0</v>
       </c>
       <c r="C17" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="16" t="s">
         <v>285</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="16" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="17" t="s">
         <v>287</v>
       </c>
       <c r="B18" s="14">
-        <v>150.0</v>
+        <v>180.0</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>288</v>
@@ -4759,7 +4844,7 @@
         <v>291</v>
       </c>
       <c r="B19" s="14">
-        <v>150.0</v>
+        <v>180.0</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>292</v>
@@ -4776,15 +4861,15 @@
         <v>295</v>
       </c>
       <c r="B20" s="14">
-        <v>150.0</v>
+        <v>180.0</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>296</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="16" t="s">
         <v>297</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="16" t="s">
         <v>298</v>
       </c>
     </row>
@@ -4793,7 +4878,7 @@
         <v>299</v>
       </c>
       <c r="B21" s="14">
-        <v>150.0</v>
+        <v>180.0</v>
       </c>
       <c r="C21" s="15" t="s">
         <v>300</v>
@@ -4810,15 +4895,15 @@
         <v>303</v>
       </c>
       <c r="B22" s="14">
-        <v>150.0</v>
+        <v>180.0</v>
       </c>
       <c r="C22" s="15" t="s">
         <v>304</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="16" t="s">
         <v>305</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="E22" s="16" t="s">
         <v>306</v>
       </c>
     </row>
@@ -4827,7 +4912,7 @@
         <v>307</v>
       </c>
       <c r="B23" s="14">
-        <v>150.0</v>
+        <v>180.0</v>
       </c>
       <c r="C23" s="15" t="s">
         <v>308</v>
@@ -4844,7 +4929,7 @@
         <v>311</v>
       </c>
       <c r="B24" s="14">
-        <v>150.0</v>
+        <v>180.0</v>
       </c>
       <c r="C24" s="15" t="s">
         <v>312</v>
@@ -4861,7 +4946,7 @@
         <v>315</v>
       </c>
       <c r="B25" s="14">
-        <v>150.0</v>
+        <v>180.0</v>
       </c>
       <c r="C25" s="15" t="s">
         <v>316</v>
@@ -4878,15 +4963,15 @@
         <v>319</v>
       </c>
       <c r="B26" s="14">
-        <v>150.0</v>
+        <v>180.0</v>
       </c>
       <c r="C26" s="15" t="s">
         <v>320</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="16" t="s">
         <v>321</v>
       </c>
-      <c r="E26" s="11" t="s">
+      <c r="E26" s="16" t="s">
         <v>322</v>
       </c>
     </row>
@@ -4895,7 +4980,7 @@
         <v>323</v>
       </c>
       <c r="B27" s="14">
-        <v>150.0</v>
+        <v>180.0</v>
       </c>
       <c r="C27" s="15" t="s">
         <v>324</v>
@@ -4912,7 +4997,7 @@
         <v>327</v>
       </c>
       <c r="B28" s="14">
-        <v>150.0</v>
+        <v>180.0</v>
       </c>
       <c r="C28" s="15" t="s">
         <v>328</v>
@@ -4929,7 +5014,7 @@
         <v>331</v>
       </c>
       <c r="B29" s="14">
-        <v>150.0</v>
+        <v>180.0</v>
       </c>
       <c r="C29" s="15" t="s">
         <v>332</v>
@@ -4946,7 +5031,7 @@
         <v>335</v>
       </c>
       <c r="B30" s="14">
-        <v>150.0</v>
+        <v>180.0</v>
       </c>
       <c r="C30" s="15" t="s">
         <v>336</v>
@@ -4963,7 +5048,7 @@
         <v>339</v>
       </c>
       <c r="B31" s="14">
-        <v>90.0</v>
+        <v>120.0</v>
       </c>
       <c r="C31" s="15" t="s">
         <v>340</v>
@@ -4980,7 +5065,7 @@
         <v>343</v>
       </c>
       <c r="B32" s="14">
-        <v>90.0</v>
+        <v>120.0</v>
       </c>
       <c r="C32" s="15" t="s">
         <v>344</v>
@@ -4997,7 +5082,7 @@
         <v>347</v>
       </c>
       <c r="B33" s="14">
-        <v>90.0</v>
+        <v>120.0</v>
       </c>
       <c r="C33" s="15" t="s">
         <v>348</v>
@@ -5014,7 +5099,7 @@
         <v>351</v>
       </c>
       <c r="B34" s="14">
-        <v>90.0</v>
+        <v>120.0</v>
       </c>
       <c r="C34" s="15" t="s">
         <v>352</v>
@@ -5031,15 +5116,15 @@
         <v>355</v>
       </c>
       <c r="B35" s="14">
-        <v>90.0</v>
+        <v>120.0</v>
       </c>
       <c r="C35" s="15" t="s">
         <v>356</v>
       </c>
-      <c r="D35" s="17" t="s">
+      <c r="D35" s="18" t="s">
         <v>357</v>
       </c>
-      <c r="E35" s="17" t="s">
+      <c r="E35" s="18" t="s">
         <v>358</v>
       </c>
     </row>
@@ -5048,15 +5133,15 @@
         <v>359</v>
       </c>
       <c r="B36" s="14">
-        <v>90.0</v>
+        <v>120.0</v>
       </c>
       <c r="C36" s="15" t="s">
         <v>360</v>
       </c>
-      <c r="D36" s="17" t="s">
+      <c r="D36" s="19" t="s">
         <v>361</v>
       </c>
-      <c r="E36" s="17" t="s">
+      <c r="E36" s="19" t="s">
         <v>362</v>
       </c>
     </row>
@@ -5065,15 +5150,15 @@
         <v>363</v>
       </c>
       <c r="B37" s="14">
-        <v>90.0</v>
+        <v>120.0</v>
       </c>
       <c r="C37" s="15" t="s">
         <v>364</v>
       </c>
-      <c r="D37" s="17" t="s">
+      <c r="D37" s="19" t="s">
         <v>365</v>
       </c>
-      <c r="E37" s="17" t="s">
+      <c r="E37" s="19" t="s">
         <v>366</v>
       </c>
     </row>
@@ -5082,15 +5167,15 @@
         <v>367</v>
       </c>
       <c r="B38" s="14">
-        <v>90.0</v>
+        <v>120.0</v>
       </c>
       <c r="C38" s="15" t="s">
         <v>368</v>
       </c>
-      <c r="D38" s="17" t="s">
+      <c r="D38" s="18" t="s">
         <v>369</v>
       </c>
-      <c r="E38" s="17" t="s">
+      <c r="E38" s="18" t="s">
         <v>370</v>
       </c>
     </row>
@@ -5099,15 +5184,15 @@
         <v>371</v>
       </c>
       <c r="B39" s="14">
-        <v>90.0</v>
+        <v>120.0</v>
       </c>
       <c r="C39" s="15" t="s">
         <v>372</v>
       </c>
-      <c r="D39" s="17" t="s">
+      <c r="D39" s="18" t="s">
         <v>373</v>
       </c>
-      <c r="E39" s="17" t="s">
+      <c r="E39" s="18" t="s">
         <v>374</v>
       </c>
     </row>
@@ -5116,15 +5201,15 @@
         <v>375</v>
       </c>
       <c r="B40" s="14">
-        <v>90.0</v>
+        <v>120.0</v>
       </c>
       <c r="C40" s="15" t="s">
         <v>376</v>
       </c>
-      <c r="D40" s="17" t="s">
+      <c r="D40" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="E40" s="17" t="s">
+      <c r="E40" s="18" t="s">
         <v>378</v>
       </c>
     </row>
@@ -5133,15 +5218,15 @@
         <v>379</v>
       </c>
       <c r="B41" s="14">
-        <v>90.0</v>
+        <v>120.0</v>
       </c>
       <c r="C41" s="15" t="s">
         <v>380</v>
       </c>
-      <c r="D41" s="17" t="s">
+      <c r="D41" s="18" t="s">
         <v>381</v>
       </c>
-      <c r="E41" s="17" t="s">
+      <c r="E41" s="18" t="s">
         <v>382</v>
       </c>
     </row>
@@ -5150,15 +5235,15 @@
         <v>383</v>
       </c>
       <c r="B42" s="14">
-        <v>90.0</v>
+        <v>120.0</v>
       </c>
       <c r="C42" s="15" t="s">
         <v>384</v>
       </c>
-      <c r="D42" s="17" t="s">
+      <c r="D42" s="19" t="s">
         <v>385</v>
       </c>
-      <c r="E42" s="17" t="s">
+      <c r="E42" s="19" t="s">
         <v>386</v>
       </c>
     </row>
@@ -5167,15 +5252,15 @@
         <v>387</v>
       </c>
       <c r="B43" s="14">
-        <v>90.0</v>
+        <v>120.0</v>
       </c>
       <c r="C43" s="15" t="s">
         <v>384</v>
       </c>
-      <c r="D43" s="17" t="s">
+      <c r="D43" s="18" t="s">
         <v>388</v>
       </c>
-      <c r="E43" s="17" t="s">
+      <c r="E43" s="18" t="s">
         <v>389</v>
       </c>
     </row>
@@ -5184,15 +5269,15 @@
         <v>390</v>
       </c>
       <c r="B44" s="14">
-        <v>90.0</v>
+        <v>120.0</v>
       </c>
       <c r="C44" s="15" t="s">
         <v>391</v>
       </c>
-      <c r="D44" s="17" t="s">
+      <c r="D44" s="18" t="s">
         <v>392</v>
       </c>
-      <c r="E44" s="17" t="s">
+      <c r="E44" s="18" t="s">
         <v>393</v>
       </c>
     </row>
@@ -5201,15 +5286,15 @@
         <v>394</v>
       </c>
       <c r="B45" s="14">
-        <v>90.0</v>
+        <v>120.0</v>
       </c>
       <c r="C45" s="15" t="s">
         <v>395</v>
       </c>
-      <c r="D45" s="17" t="s">
+      <c r="D45" s="18" t="s">
         <v>396</v>
       </c>
-      <c r="E45" s="17" t="s">
+      <c r="E45" s="18" t="s">
         <v>397</v>
       </c>
     </row>
@@ -5218,15 +5303,15 @@
         <v>398</v>
       </c>
       <c r="B46" s="14">
-        <v>90.0</v>
+        <v>120.0</v>
       </c>
       <c r="C46" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="D46" s="17" t="s">
+      <c r="D46" s="18" t="s">
         <v>400</v>
       </c>
-      <c r="E46" s="17" t="s">
+      <c r="E46" s="18" t="s">
         <v>401</v>
       </c>
     </row>
@@ -5235,7 +5320,7 @@
         <v>402</v>
       </c>
       <c r="B47" s="14">
-        <v>90.0</v>
+        <v>120.0</v>
       </c>
       <c r="C47" s="15" t="s">
         <v>403</v>
@@ -5252,7 +5337,7 @@
         <v>406</v>
       </c>
       <c r="B48" s="14">
-        <v>90.0</v>
+        <v>120.0</v>
       </c>
       <c r="C48" s="15" t="s">
         <v>407</v>
@@ -5269,7 +5354,7 @@
         <v>410</v>
       </c>
       <c r="B49" s="14">
-        <v>90.0</v>
+        <v>120.0</v>
       </c>
       <c r="C49" s="15" t="s">
         <v>411</v>
@@ -5286,15 +5371,15 @@
         <v>414</v>
       </c>
       <c r="B50" s="14">
-        <v>90.0</v>
+        <v>120.0</v>
       </c>
       <c r="C50" s="15" t="s">
         <v>415</v>
       </c>
-      <c r="D50" s="11" t="s">
+      <c r="D50" s="16" t="s">
         <v>416</v>
       </c>
-      <c r="E50" s="11" t="s">
+      <c r="E50" s="16" t="s">
         <v>417</v>
       </c>
     </row>
@@ -5303,7 +5388,7 @@
         <v>418</v>
       </c>
       <c r="B51" s="14">
-        <v>90.0</v>
+        <v>120.0</v>
       </c>
       <c r="C51" s="15" t="s">
         <v>419</v>
@@ -5320,15 +5405,15 @@
         <v>422</v>
       </c>
       <c r="B52" s="14">
-        <v>90.0</v>
+        <v>120.0</v>
       </c>
       <c r="C52" s="15" t="s">
         <v>423</v>
       </c>
-      <c r="D52" s="11" t="s">
+      <c r="D52" s="16" t="s">
         <v>424</v>
       </c>
-      <c r="E52" s="11" t="s">
+      <c r="E52" s="16" t="s">
         <v>425</v>
       </c>
     </row>
@@ -5463,7 +5548,7 @@
       <c r="B1" s="15" t="s">
         <v>426</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="20" t="s">
         <v>427</v>
       </c>
     </row>
@@ -5474,7 +5559,7 @@
       <c r="B2" s="15" t="s">
         <v>426</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="20" t="s">
         <v>428</v>
       </c>
     </row>
@@ -5485,7 +5570,7 @@
       <c r="B3" s="15" t="s">
         <v>426</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="20" t="s">
         <v>429</v>
       </c>
     </row>
@@ -5496,7 +5581,7 @@
       <c r="B4" s="15" t="s">
         <v>426</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="20" t="s">
         <v>430</v>
       </c>
     </row>
@@ -5507,7 +5592,7 @@
       <c r="B5" s="15" t="s">
         <v>426</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="20" t="s">
         <v>431</v>
       </c>
     </row>
@@ -5518,7 +5603,7 @@
       <c r="B6" s="15" t="s">
         <v>426</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="20" t="s">
         <v>432</v>
       </c>
     </row>
@@ -5529,7 +5614,7 @@
       <c r="B7" s="15" t="s">
         <v>426</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="20" t="s">
         <v>433</v>
       </c>
     </row>
@@ -5540,7 +5625,7 @@
       <c r="B8" s="15" t="s">
         <v>426</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="20" t="s">
         <v>434</v>
       </c>
     </row>
@@ -5551,7 +5636,7 @@
       <c r="B9" s="15" t="s">
         <v>426</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="20" t="s">
         <v>435</v>
       </c>
     </row>
@@ -5562,7 +5647,7 @@
       <c r="B10" s="15" t="s">
         <v>426</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="20" t="s">
         <v>436</v>
       </c>
     </row>
@@ -5573,7 +5658,7 @@
       <c r="B11" s="15" t="s">
         <v>426</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="20" t="s">
         <v>437</v>
       </c>
     </row>
@@ -5584,7 +5669,7 @@
       <c r="B12" s="15" t="s">
         <v>426</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="20" t="s">
         <v>438</v>
       </c>
     </row>
@@ -5595,7 +5680,7 @@
       <c r="B13" s="15" t="s">
         <v>426</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="20" t="s">
         <v>439</v>
       </c>
     </row>
@@ -5606,7 +5691,7 @@
       <c r="B14" s="15" t="s">
         <v>426</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="20" t="s">
         <v>440</v>
       </c>
     </row>
@@ -5617,7 +5702,7 @@
       <c r="B15" s="15" t="s">
         <v>426</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="20" t="s">
         <v>441</v>
       </c>
     </row>
@@ -5628,7 +5713,7 @@
       <c r="B16" s="15" t="s">
         <v>426</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="20" t="s">
         <v>442</v>
       </c>
     </row>
@@ -5639,7 +5724,7 @@
       <c r="B17" s="15" t="s">
         <v>426</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="20" t="s">
         <v>443</v>
       </c>
     </row>
@@ -5650,7 +5735,7 @@
       <c r="B18" s="15" t="s">
         <v>426</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="20" t="s">
         <v>444</v>
       </c>
     </row>
@@ -5661,7 +5746,7 @@
       <c r="B19" s="15" t="s">
         <v>426</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="20" t="s">
         <v>445</v>
       </c>
     </row>
@@ -5672,7 +5757,7 @@
       <c r="B20" s="15" t="s">
         <v>426</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="20" t="s">
         <v>446</v>
       </c>
     </row>
@@ -5683,7 +5768,7 @@
       <c r="B21" s="15" t="s">
         <v>426</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="20" t="s">
         <v>447</v>
       </c>
     </row>
@@ -5694,7 +5779,7 @@
       <c r="B22" s="15" t="s">
         <v>426</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="20" t="s">
         <v>448</v>
       </c>
     </row>
@@ -5705,7 +5790,7 @@
       <c r="B23" s="15" t="s">
         <v>426</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="20" t="s">
         <v>449</v>
       </c>
     </row>
@@ -5716,7 +5801,7 @@
       <c r="B24" s="15" t="s">
         <v>426</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="20" t="s">
         <v>450</v>
       </c>
     </row>
@@ -5727,7 +5812,7 @@
       <c r="B25" s="15" t="s">
         <v>426</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="20" t="s">
         <v>451</v>
       </c>
     </row>
@@ -5738,7 +5823,7 @@
       <c r="B26" s="15" t="s">
         <v>426</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="20" t="s">
         <v>452</v>
       </c>
     </row>
@@ -5749,7 +5834,7 @@
       <c r="B27" s="15" t="s">
         <v>426</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="20" t="s">
         <v>453</v>
       </c>
     </row>
@@ -5760,7 +5845,7 @@
       <c r="B28" s="15" t="s">
         <v>426</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="20" t="s">
         <v>454</v>
       </c>
     </row>
@@ -5771,7 +5856,7 @@
       <c r="B29" s="15" t="s">
         <v>426</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="20" t="s">
         <v>455</v>
       </c>
     </row>
@@ -5782,7 +5867,7 @@
       <c r="B30" s="15" t="s">
         <v>426</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C30" s="20" t="s">
         <v>456</v>
       </c>
     </row>
@@ -5793,7 +5878,7 @@
       <c r="B31" s="15" t="s">
         <v>426</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="C31" s="20" t="s">
         <v>457</v>
       </c>
     </row>
@@ -5804,7 +5889,7 @@
       <c r="B32" s="15" t="s">
         <v>426</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="C32" s="20" t="s">
         <v>458</v>
       </c>
     </row>
@@ -5815,7 +5900,7 @@
       <c r="B33" s="15" t="s">
         <v>426</v>
       </c>
-      <c r="C33" s="18" t="s">
+      <c r="C33" s="20" t="s">
         <v>459</v>
       </c>
     </row>
@@ -5826,7 +5911,7 @@
       <c r="B34" s="15" t="s">
         <v>426</v>
       </c>
-      <c r="C34" s="18" t="s">
+      <c r="C34" s="20" t="s">
         <v>460</v>
       </c>
     </row>
@@ -5837,7 +5922,7 @@
       <c r="B35" s="15" t="s">
         <v>426</v>
       </c>
-      <c r="C35" s="18" t="s">
+      <c r="C35" s="20" t="s">
         <v>461</v>
       </c>
     </row>
@@ -5848,7 +5933,7 @@
       <c r="B36" s="15" t="s">
         <v>426</v>
       </c>
-      <c r="C36" s="18" t="s">
+      <c r="C36" s="20" t="s">
         <v>462</v>
       </c>
     </row>
@@ -5859,7 +5944,7 @@
       <c r="B37" s="15" t="s">
         <v>426</v>
       </c>
-      <c r="C37" s="18" t="s">
+      <c r="C37" s="20" t="s">
         <v>463</v>
       </c>
     </row>
@@ -5870,7 +5955,7 @@
       <c r="B38" s="15" t="s">
         <v>426</v>
       </c>
-      <c r="C38" s="18" t="s">
+      <c r="C38" s="20" t="s">
         <v>464</v>
       </c>
     </row>
@@ -5881,7 +5966,7 @@
       <c r="B39" s="15" t="s">
         <v>426</v>
       </c>
-      <c r="C39" s="18" t="s">
+      <c r="C39" s="20" t="s">
         <v>465</v>
       </c>
     </row>
@@ -5892,7 +5977,7 @@
       <c r="B40" s="15" t="s">
         <v>426</v>
       </c>
-      <c r="C40" s="18" t="s">
+      <c r="C40" s="20" t="s">
         <v>466</v>
       </c>
     </row>
@@ -5903,7 +5988,7 @@
       <c r="B41" s="15" t="s">
         <v>426</v>
       </c>
-      <c r="C41" s="18" t="s">
+      <c r="C41" s="20" t="s">
         <v>467</v>
       </c>
     </row>
@@ -5914,18 +5999,18 @@
       <c r="B42" s="15" t="s">
         <v>426</v>
       </c>
-      <c r="C42" s="18" t="s">
+      <c r="C42" s="20" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="19">
+      <c r="A43" s="21">
         <v>5.15E90</v>
       </c>
       <c r="B43" s="15" t="s">
         <v>426</v>
       </c>
-      <c r="C43" s="18" t="s">
+      <c r="C43" s="20" t="s">
         <v>469</v>
       </c>
     </row>
@@ -5936,7 +6021,7 @@
       <c r="B44" s="15" t="s">
         <v>426</v>
       </c>
-      <c r="C44" s="18" t="s">
+      <c r="C44" s="20" t="s">
         <v>470</v>
       </c>
     </row>
@@ -5947,21 +6032,21 @@
       <c r="B45" s="15" t="s">
         <v>426</v>
       </c>
-      <c r="C45" s="18" t="s">
+      <c r="C45" s="20" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="46" ht="45.75" customHeight="1">
-      <c r="A46" s="20"/>
-      <c r="B46" s="21"/>
-      <c r="C46" s="21"/>
-      <c r="D46" s="22"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="22"/>
-      <c r="G46" s="22"/>
-      <c r="H46" s="22"/>
-      <c r="I46" s="22"/>
-      <c r="J46" s="22"/>
+      <c r="A46" s="22"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="24"/>
+      <c r="H46" s="24"/>
+      <c r="I46" s="24"/>
+      <c r="J46" s="24"/>
     </row>
     <row r="47">
       <c r="A47" s="14" t="s">
@@ -5970,24 +6055,24 @@
       <c r="B47" s="15" t="s">
         <v>472</v>
       </c>
-      <c r="C47" s="18" t="s">
+      <c r="C47" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="D47" s="23" t="s">
+      <c r="D47" s="25" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="19">
+      <c r="A48" s="21">
         <v>2.81E34</v>
       </c>
       <c r="B48" s="15" t="s">
         <v>474</v>
       </c>
-      <c r="C48" s="18" t="s">
+      <c r="C48" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="D48" s="23" t="s">
+      <c r="D48" s="25" t="s">
         <v>475</v>
       </c>
     </row>
@@ -5998,10 +6083,10 @@
       <c r="B49" s="15" t="s">
         <v>476</v>
       </c>
-      <c r="C49" s="18" t="s">
+      <c r="C49" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="D49" s="23" t="s">
+      <c r="D49" s="25" t="s">
         <v>477</v>
       </c>
     </row>
@@ -6012,10 +6097,10 @@
       <c r="B50" s="15" t="s">
         <v>478</v>
       </c>
-      <c r="C50" s="18" t="s">
+      <c r="C50" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="D50" s="23" t="s">
+      <c r="D50" s="25" t="s">
         <v>479</v>
       </c>
     </row>
@@ -6026,10 +6111,10 @@
       <c r="B51" s="15" t="s">
         <v>480</v>
       </c>
-      <c r="C51" s="18" t="s">
+      <c r="C51" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="D51" s="23" t="s">
+      <c r="D51" s="25" t="s">
         <v>481</v>
       </c>
     </row>
@@ -6040,10 +6125,10 @@
       <c r="B52" s="15" t="s">
         <v>482</v>
       </c>
-      <c r="C52" s="18" t="s">
+      <c r="C52" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="D52" s="23" t="s">
+      <c r="D52" s="25" t="s">
         <v>483</v>
       </c>
     </row>
@@ -6054,10 +6139,10 @@
       <c r="B53" s="15" t="s">
         <v>484</v>
       </c>
-      <c r="C53" s="18" t="s">
+      <c r="C53" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="D53" s="23" t="s">
+      <c r="D53" s="25" t="s">
         <v>485</v>
       </c>
     </row>
@@ -6068,10 +6153,10 @@
       <c r="B54" s="15" t="s">
         <v>486</v>
       </c>
-      <c r="C54" s="18" t="s">
+      <c r="C54" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="D54" s="23" t="s">
+      <c r="D54" s="25" t="s">
         <v>487</v>
       </c>
     </row>
@@ -6082,10 +6167,10 @@
       <c r="B55" s="15" t="s">
         <v>488</v>
       </c>
-      <c r="C55" s="18" t="s">
+      <c r="C55" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="D55" s="23" t="s">
+      <c r="D55" s="25" t="s">
         <v>489</v>
       </c>
     </row>
@@ -6096,10 +6181,10 @@
       <c r="B56" s="15" t="s">
         <v>490</v>
       </c>
-      <c r="C56" s="18" t="s">
+      <c r="C56" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="D56" s="23" t="s">
+      <c r="D56" s="25" t="s">
         <v>491</v>
       </c>
     </row>
@@ -6110,10 +6195,10 @@
       <c r="B57" s="15" t="s">
         <v>492</v>
       </c>
-      <c r="C57" s="18" t="s">
+      <c r="C57" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="D57" s="23" t="s">
+      <c r="D57" s="25" t="s">
         <v>493</v>
       </c>
     </row>
@@ -6124,10 +6209,10 @@
       <c r="B58" s="15" t="s">
         <v>494</v>
       </c>
-      <c r="C58" s="18" t="s">
+      <c r="C58" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="D58" s="23" t="s">
+      <c r="D58" s="25" t="s">
         <v>495</v>
       </c>
     </row>
@@ -6138,10 +6223,10 @@
       <c r="B59" s="15" t="s">
         <v>496</v>
       </c>
-      <c r="C59" s="18" t="s">
+      <c r="C59" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="D59" s="23" t="s">
+      <c r="D59" s="25" t="s">
         <v>497</v>
       </c>
     </row>
@@ -6152,10 +6237,10 @@
       <c r="B60" s="15" t="s">
         <v>498</v>
       </c>
-      <c r="C60" s="18" t="s">
+      <c r="C60" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="D60" s="23" t="s">
+      <c r="D60" s="25" t="s">
         <v>499</v>
       </c>
     </row>
@@ -6166,10 +6251,10 @@
       <c r="B61" s="15" t="s">
         <v>500</v>
       </c>
-      <c r="C61" s="18" t="s">
+      <c r="C61" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="D61" s="23" t="s">
+      <c r="D61" s="25" t="s">
         <v>501</v>
       </c>
     </row>
@@ -6180,10 +6265,10 @@
       <c r="B62" s="15" t="s">
         <v>502</v>
       </c>
-      <c r="C62" s="18" t="s">
+      <c r="C62" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="D62" s="23" t="s">
+      <c r="D62" s="25" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6194,24 +6279,24 @@
       <c r="B63" s="15" t="s">
         <v>504</v>
       </c>
-      <c r="C63" s="18" t="s">
+      <c r="C63" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="D63" s="23" t="s">
+      <c r="D63" s="25" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="19">
+      <c r="A64" s="21">
         <v>7.8E70</v>
       </c>
       <c r="B64" s="15" t="s">
         <v>506</v>
       </c>
-      <c r="C64" s="18" t="s">
+      <c r="C64" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="D64" s="23" t="s">
+      <c r="D64" s="25" t="s">
         <v>507</v>
       </c>
     </row>
@@ -6222,10 +6307,10 @@
       <c r="B65" s="15" t="s">
         <v>508</v>
       </c>
-      <c r="C65" s="18" t="s">
+      <c r="C65" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="D65" s="23" t="s">
+      <c r="D65" s="25" t="s">
         <v>509</v>
       </c>
     </row>
@@ -6236,10 +6321,10 @@
       <c r="B66" s="15" t="s">
         <v>510</v>
       </c>
-      <c r="C66" s="18" t="s">
+      <c r="C66" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="D66" s="23" t="s">
+      <c r="D66" s="25" t="s">
         <v>511</v>
       </c>
     </row>
@@ -6250,10 +6335,10 @@
       <c r="B67" s="15" t="s">
         <v>512</v>
       </c>
-      <c r="C67" s="18" t="s">
+      <c r="C67" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="D67" s="23" t="s">
+      <c r="D67" s="25" t="s">
         <v>513</v>
       </c>
     </row>
@@ -6264,10 +6349,10 @@
       <c r="B68" s="15" t="s">
         <v>514</v>
       </c>
-      <c r="C68" s="18" t="s">
+      <c r="C68" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="D68" s="23" t="s">
+      <c r="D68" s="25" t="s">
         <v>515</v>
       </c>
     </row>
@@ -6278,10 +6363,10 @@
       <c r="B69" s="15" t="s">
         <v>516</v>
       </c>
-      <c r="C69" s="18" t="s">
+      <c r="C69" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="D69" s="23" t="s">
+      <c r="D69" s="25" t="s">
         <v>517</v>
       </c>
     </row>
@@ -6292,10 +6377,10 @@
       <c r="B70" s="15" t="s">
         <v>518</v>
       </c>
-      <c r="C70" s="18" t="s">
+      <c r="C70" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="D70" s="23" t="s">
+      <c r="D70" s="25" t="s">
         <v>519</v>
       </c>
     </row>
@@ -6306,10 +6391,10 @@
       <c r="B71" s="15" t="s">
         <v>520</v>
       </c>
-      <c r="C71" s="18" t="s">
+      <c r="C71" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="D71" s="23" t="s">
+      <c r="D71" s="25" t="s">
         <v>521</v>
       </c>
     </row>
@@ -6320,10 +6405,10 @@
       <c r="B72" s="15" t="s">
         <v>522</v>
       </c>
-      <c r="C72" s="18" t="s">
+      <c r="C72" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="D72" s="23" t="s">
+      <c r="D72" s="25" t="s">
         <v>523</v>
       </c>
     </row>
@@ -6334,10 +6419,10 @@
       <c r="B73" s="15" t="s">
         <v>524</v>
       </c>
-      <c r="C73" s="18" t="s">
+      <c r="C73" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="D73" s="23" t="s">
+      <c r="D73" s="25" t="s">
         <v>525</v>
       </c>
     </row>
@@ -6348,10 +6433,10 @@
       <c r="B74" s="15" t="s">
         <v>526</v>
       </c>
-      <c r="C74" s="18" t="s">
+      <c r="C74" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="D74" s="23" t="s">
+      <c r="D74" s="25" t="s">
         <v>527</v>
       </c>
     </row>
@@ -6362,10 +6447,10 @@
       <c r="B75" s="15" t="s">
         <v>528</v>
       </c>
-      <c r="C75" s="18" t="s">
+      <c r="C75" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="D75" s="23" t="s">
+      <c r="D75" s="25" t="s">
         <v>529</v>
       </c>
     </row>
@@ -6376,10 +6461,10 @@
       <c r="B76" s="15" t="s">
         <v>530</v>
       </c>
-      <c r="C76" s="18" t="s">
+      <c r="C76" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="D76" s="23" t="s">
+      <c r="D76" s="25" t="s">
         <v>531</v>
       </c>
     </row>
@@ -6390,10 +6475,10 @@
       <c r="B77" s="15" t="s">
         <v>532</v>
       </c>
-      <c r="C77" s="18" t="s">
+      <c r="C77" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="D77" s="23" t="s">
+      <c r="D77" s="25" t="s">
         <v>533</v>
       </c>
     </row>
@@ -6404,10 +6489,10 @@
       <c r="B78" s="15" t="s">
         <v>534</v>
       </c>
-      <c r="C78" s="18" t="s">
+      <c r="C78" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="D78" s="23" t="s">
+      <c r="D78" s="25" t="s">
         <v>535</v>
       </c>
     </row>
@@ -6418,10 +6503,10 @@
       <c r="B79" s="15" t="s">
         <v>536</v>
       </c>
-      <c r="C79" s="18" t="s">
+      <c r="C79" s="20" t="s">
         <v>189</v>
       </c>
-      <c r="D79" s="23" t="s">
+      <c r="D79" s="25" t="s">
         <v>537</v>
       </c>
     </row>
@@ -6432,10 +6517,10 @@
       <c r="B80" s="15" t="s">
         <v>538</v>
       </c>
-      <c r="C80" s="18" t="s">
+      <c r="C80" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="D80" s="23" t="s">
+      <c r="D80" s="25" t="s">
         <v>539</v>
       </c>
     </row>
@@ -6446,10 +6531,10 @@
       <c r="B81" s="15" t="s">
         <v>540</v>
       </c>
-      <c r="C81" s="18" t="s">
+      <c r="C81" s="20" t="s">
         <v>195</v>
       </c>
-      <c r="D81" s="23" t="s">
+      <c r="D81" s="25" t="s">
         <v>541</v>
       </c>
     </row>
@@ -6460,10 +6545,10 @@
       <c r="B82" s="15" t="s">
         <v>542</v>
       </c>
-      <c r="C82" s="18" t="s">
+      <c r="C82" s="20" t="s">
         <v>198</v>
       </c>
-      <c r="D82" s="23" t="s">
+      <c r="D82" s="25" t="s">
         <v>543</v>
       </c>
     </row>
@@ -6474,10 +6559,10 @@
       <c r="B83" s="15" t="s">
         <v>544</v>
       </c>
-      <c r="C83" s="18" t="s">
+      <c r="C83" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="D83" s="23" t="s">
+      <c r="D83" s="25" t="s">
         <v>545</v>
       </c>
     </row>
@@ -6488,10 +6573,10 @@
       <c r="B84" s="15" t="s">
         <v>546</v>
       </c>
-      <c r="C84" s="18" t="s">
+      <c r="C84" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="D84" s="23" t="s">
+      <c r="D84" s="25" t="s">
         <v>547</v>
       </c>
     </row>
@@ -6502,10 +6587,10 @@
       <c r="B85" s="15" t="s">
         <v>548</v>
       </c>
-      <c r="C85" s="18" t="s">
+      <c r="C85" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="D85" s="23" t="s">
+      <c r="D85" s="25" t="s">
         <v>549</v>
       </c>
     </row>
@@ -6516,10 +6601,10 @@
       <c r="B86" s="15" t="s">
         <v>550</v>
       </c>
-      <c r="C86" s="18" t="s">
+      <c r="C86" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="D86" s="23" t="s">
+      <c r="D86" s="25" t="s">
         <v>551</v>
       </c>
     </row>
@@ -6530,10 +6615,10 @@
       <c r="B87" s="15" t="s">
         <v>552</v>
       </c>
-      <c r="C87" s="18" t="s">
+      <c r="C87" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="D87" s="23" t="s">
+      <c r="D87" s="25" t="s">
         <v>553</v>
       </c>
     </row>
@@ -6544,10 +6629,10 @@
       <c r="B88" s="15" t="s">
         <v>554</v>
       </c>
-      <c r="C88" s="18" t="s">
+      <c r="C88" s="20" t="s">
         <v>216</v>
       </c>
-      <c r="D88" s="23" t="s">
+      <c r="D88" s="25" t="s">
         <v>555</v>
       </c>
     </row>
@@ -6558,10 +6643,10 @@
       <c r="B89" s="15" t="s">
         <v>556</v>
       </c>
-      <c r="C89" s="18" t="s">
+      <c r="C89" s="20" t="s">
         <v>219</v>
       </c>
-      <c r="D89" s="23" t="s">
+      <c r="D89" s="25" t="s">
         <v>557</v>
       </c>
     </row>
@@ -6572,10 +6657,10 @@
       <c r="B90" s="15" t="s">
         <v>558</v>
       </c>
-      <c r="C90" s="18" t="s">
+      <c r="C90" s="20" t="s">
         <v>222</v>
       </c>
-      <c r="D90" s="23" t="s">
+      <c r="D90" s="25" t="s">
         <v>559</v>
       </c>
     </row>
@@ -6586,24 +6671,24 @@
       <c r="B91" s="15" t="s">
         <v>560</v>
       </c>
-      <c r="C91" s="18" t="s">
+      <c r="C91" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="D91" s="23" t="s">
+      <c r="D91" s="25" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="92" ht="54.0" customHeight="1">
-      <c r="A92" s="20"/>
-      <c r="B92" s="21"/>
-      <c r="C92" s="21"/>
-      <c r="D92" s="22"/>
-      <c r="E92" s="22"/>
-      <c r="F92" s="22"/>
-      <c r="G92" s="22"/>
-      <c r="H92" s="22"/>
-      <c r="I92" s="22"/>
-      <c r="J92" s="22"/>
+      <c r="A92" s="22"/>
+      <c r="B92" s="23"/>
+      <c r="C92" s="23"/>
+      <c r="D92" s="24"/>
+      <c r="E92" s="24"/>
+      <c r="F92" s="24"/>
+      <c r="G92" s="24"/>
+      <c r="H92" s="24"/>
+      <c r="I92" s="24"/>
+      <c r="J92" s="24"/>
     </row>
     <row r="93">
       <c r="A93" s="14" t="s">
@@ -6612,13 +6697,13 @@
       <c r="B93" s="15" t="s">
         <v>563</v>
       </c>
-      <c r="C93" s="18" t="s">
+      <c r="C93" s="20" t="s">
         <v>564</v>
       </c>
-      <c r="D93" s="18" t="s">
+      <c r="D93" s="20" t="s">
         <v>565</v>
       </c>
-      <c r="E93" s="18" t="s">
+      <c r="E93" s="20" t="s">
         <v>566</v>
       </c>
     </row>
@@ -6629,13 +6714,13 @@
       <c r="B94" s="15" t="s">
         <v>563</v>
       </c>
-      <c r="C94" s="18" t="s">
+      <c r="C94" s="20" t="s">
         <v>568</v>
       </c>
-      <c r="D94" s="18" t="s">
+      <c r="D94" s="20" t="s">
         <v>569</v>
       </c>
-      <c r="E94" s="18" t="s">
+      <c r="E94" s="20" t="s">
         <v>570</v>
       </c>
     </row>
@@ -6646,13 +6731,13 @@
       <c r="B95" s="15" t="s">
         <v>563</v>
       </c>
-      <c r="C95" s="18" t="s">
+      <c r="C95" s="20" t="s">
         <v>572</v>
       </c>
-      <c r="D95" s="18" t="s">
+      <c r="D95" s="20" t="s">
         <v>573</v>
       </c>
-      <c r="E95" s="18" t="s">
+      <c r="E95" s="20" t="s">
         <v>574</v>
       </c>
     </row>
@@ -6663,13 +6748,13 @@
       <c r="B96" s="15" t="s">
         <v>563</v>
       </c>
-      <c r="C96" s="18" t="s">
+      <c r="C96" s="20" t="s">
         <v>576</v>
       </c>
-      <c r="D96" s="18" t="s">
+      <c r="D96" s="20" t="s">
         <v>577</v>
       </c>
-      <c r="E96" s="18" t="s">
+      <c r="E96" s="20" t="s">
         <v>578</v>
       </c>
     </row>
@@ -6680,16 +6765,16 @@
       <c r="B97" s="15" t="s">
         <v>580</v>
       </c>
-      <c r="C97" s="18" t="s">
+      <c r="C97" s="20" t="s">
         <v>581</v>
       </c>
-      <c r="D97" s="18" t="s">
+      <c r="D97" s="20" t="s">
         <v>582</v>
       </c>
-      <c r="E97" s="18" t="s">
+      <c r="E97" s="20" t="s">
         <v>583</v>
       </c>
-      <c r="F97" s="18" t="s">
+      <c r="F97" s="20" t="s">
         <v>584</v>
       </c>
       <c r="G97" s="15"/>
@@ -6704,16 +6789,16 @@
       <c r="B98" s="15" t="s">
         <v>580</v>
       </c>
-      <c r="C98" s="18" t="s">
+      <c r="C98" s="20" t="s">
         <v>586</v>
       </c>
-      <c r="D98" s="18" t="s">
+      <c r="D98" s="20" t="s">
         <v>587</v>
       </c>
-      <c r="E98" s="18" t="s">
+      <c r="E98" s="20" t="s">
         <v>588</v>
       </c>
-      <c r="F98" s="18" t="s">
+      <c r="F98" s="20" t="s">
         <v>589</v>
       </c>
       <c r="G98" s="15"/>
@@ -6728,16 +6813,16 @@
       <c r="B99" s="15" t="s">
         <v>580</v>
       </c>
-      <c r="C99" s="18" t="s">
+      <c r="C99" s="20" t="s">
         <v>591</v>
       </c>
-      <c r="D99" s="18" t="s">
+      <c r="D99" s="20" t="s">
         <v>592</v>
       </c>
-      <c r="E99" s="18" t="s">
+      <c r="E99" s="20" t="s">
         <v>593</v>
       </c>
-      <c r="F99" s="18" t="s">
+      <c r="F99" s="20" t="s">
         <v>594</v>
       </c>
       <c r="G99" s="15"/>
@@ -6752,16 +6837,16 @@
       <c r="B100" s="15" t="s">
         <v>580</v>
       </c>
-      <c r="C100" s="18" t="s">
+      <c r="C100" s="20" t="s">
         <v>596</v>
       </c>
-      <c r="D100" s="18" t="s">
+      <c r="D100" s="20" t="s">
         <v>597</v>
       </c>
-      <c r="E100" s="18" t="s">
+      <c r="E100" s="20" t="s">
         <v>598</v>
       </c>
-      <c r="F100" s="18" t="s">
+      <c r="F100" s="20" t="s">
         <v>599</v>
       </c>
       <c r="G100" s="15"/>
@@ -6776,16 +6861,16 @@
       <c r="B101" s="15" t="s">
         <v>580</v>
       </c>
-      <c r="C101" s="18" t="s">
+      <c r="C101" s="20" t="s">
         <v>601</v>
       </c>
-      <c r="D101" s="18" t="s">
+      <c r="D101" s="20" t="s">
         <v>602</v>
       </c>
-      <c r="E101" s="18" t="s">
+      <c r="E101" s="20" t="s">
         <v>603</v>
       </c>
-      <c r="F101" s="18" t="s">
+      <c r="F101" s="20" t="s">
         <v>604</v>
       </c>
       <c r="G101" s="15"/>
@@ -6800,16 +6885,16 @@
       <c r="B102" s="15" t="s">
         <v>580</v>
       </c>
-      <c r="C102" s="18" t="s">
+      <c r="C102" s="20" t="s">
         <v>605</v>
       </c>
-      <c r="D102" s="18" t="s">
+      <c r="D102" s="20" t="s">
         <v>606</v>
       </c>
-      <c r="E102" s="18" t="s">
+      <c r="E102" s="20" t="s">
         <v>607</v>
       </c>
-      <c r="F102" s="18" t="s">
+      <c r="F102" s="20" t="s">
         <v>608</v>
       </c>
       <c r="G102" s="15"/>
@@ -6824,16 +6909,16 @@
       <c r="B103" s="15" t="s">
         <v>580</v>
       </c>
-      <c r="C103" s="18" t="s">
+      <c r="C103" s="20" t="s">
         <v>610</v>
       </c>
-      <c r="D103" s="18" t="s">
+      <c r="D103" s="20" t="s">
         <v>611</v>
       </c>
-      <c r="E103" s="18" t="s">
+      <c r="E103" s="20" t="s">
         <v>612</v>
       </c>
-      <c r="F103" s="18" t="s">
+      <c r="F103" s="20" t="s">
         <v>613</v>
       </c>
       <c r="G103" s="15"/>
@@ -6848,16 +6933,16 @@
       <c r="B104" s="15" t="s">
         <v>580</v>
       </c>
-      <c r="C104" s="18" t="s">
+      <c r="C104" s="20" t="s">
         <v>615</v>
       </c>
-      <c r="D104" s="18" t="s">
+      <c r="D104" s="20" t="s">
         <v>616</v>
       </c>
-      <c r="E104" s="18" t="s">
+      <c r="E104" s="20" t="s">
         <v>617</v>
       </c>
-      <c r="F104" s="18" t="s">
+      <c r="F104" s="20" t="s">
         <v>618</v>
       </c>
       <c r="G104" s="15"/>
@@ -6872,16 +6957,16 @@
       <c r="B105" s="15" t="s">
         <v>580</v>
       </c>
-      <c r="C105" s="18" t="s">
+      <c r="C105" s="20" t="s">
         <v>620</v>
       </c>
-      <c r="D105" s="18" t="s">
+      <c r="D105" s="20" t="s">
         <v>621</v>
       </c>
-      <c r="E105" s="18" t="s">
+      <c r="E105" s="20" t="s">
         <v>622</v>
       </c>
-      <c r="F105" s="18" t="s">
+      <c r="F105" s="20" t="s">
         <v>623</v>
       </c>
       <c r="G105" s="15"/>
@@ -6896,16 +6981,16 @@
       <c r="B106" s="15" t="s">
         <v>580</v>
       </c>
-      <c r="C106" s="18" t="s">
+      <c r="C106" s="20" t="s">
         <v>625</v>
       </c>
-      <c r="D106" s="18" t="s">
+      <c r="D106" s="20" t="s">
         <v>626</v>
       </c>
-      <c r="E106" s="18" t="s">
+      <c r="E106" s="20" t="s">
         <v>627</v>
       </c>
-      <c r="F106" s="18" t="s">
+      <c r="F106" s="20" t="s">
         <v>628</v>
       </c>
       <c r="G106" s="15"/>
@@ -6920,16 +7005,16 @@
       <c r="B107" s="15" t="s">
         <v>580</v>
       </c>
-      <c r="C107" s="18" t="s">
+      <c r="C107" s="20" t="s">
         <v>630</v>
       </c>
-      <c r="D107" s="18" t="s">
+      <c r="D107" s="20" t="s">
         <v>631</v>
       </c>
-      <c r="E107" s="18" t="s">
+      <c r="E107" s="20" t="s">
         <v>632</v>
       </c>
-      <c r="F107" s="18" t="s">
+      <c r="F107" s="20" t="s">
         <v>633</v>
       </c>
       <c r="G107" s="15"/>
@@ -6944,16 +7029,16 @@
       <c r="B108" s="15" t="s">
         <v>580</v>
       </c>
-      <c r="C108" s="18" t="s">
+      <c r="C108" s="20" t="s">
         <v>635</v>
       </c>
-      <c r="D108" s="18" t="s">
+      <c r="D108" s="20" t="s">
         <v>636</v>
       </c>
-      <c r="E108" s="18" t="s">
+      <c r="E108" s="20" t="s">
         <v>637</v>
       </c>
-      <c r="F108" s="18" t="s">
+      <c r="F108" s="20" t="s">
         <v>638</v>
       </c>
       <c r="G108" s="15"/>
@@ -6968,13 +7053,13 @@
       <c r="B109" s="15" t="s">
         <v>640</v>
       </c>
-      <c r="C109" s="18" t="s">
+      <c r="C109" s="20" t="s">
         <v>641</v>
       </c>
-      <c r="D109" s="18" t="s">
+      <c r="D109" s="20" t="s">
         <v>642</v>
       </c>
-      <c r="E109" s="18" t="s">
+      <c r="E109" s="20" t="s">
         <v>643</v>
       </c>
     </row>
@@ -6985,13 +7070,13 @@
       <c r="B110" s="15" t="s">
         <v>640</v>
       </c>
-      <c r="C110" s="18" t="s">
+      <c r="C110" s="20" t="s">
         <v>645</v>
       </c>
-      <c r="D110" s="18" t="s">
+      <c r="D110" s="20" t="s">
         <v>646</v>
       </c>
-      <c r="E110" s="18" t="s">
+      <c r="E110" s="20" t="s">
         <v>647</v>
       </c>
     </row>
@@ -7002,13 +7087,13 @@
       <c r="B111" s="15" t="s">
         <v>640</v>
       </c>
-      <c r="C111" s="18" t="s">
+      <c r="C111" s="20" t="s">
         <v>649</v>
       </c>
-      <c r="D111" s="18" t="s">
+      <c r="D111" s="20" t="s">
         <v>650</v>
       </c>
-      <c r="E111" s="18" t="s">
+      <c r="E111" s="20" t="s">
         <v>651</v>
       </c>
     </row>
@@ -7019,13 +7104,13 @@
       <c r="B112" s="15" t="s">
         <v>640</v>
       </c>
-      <c r="C112" s="18" t="s">
+      <c r="C112" s="20" t="s">
         <v>653</v>
       </c>
-      <c r="D112" s="18" t="s">
+      <c r="D112" s="20" t="s">
         <v>654</v>
       </c>
-      <c r="E112" s="18" t="s">
+      <c r="E112" s="20" t="s">
         <v>655</v>
       </c>
     </row>
@@ -7036,13 +7121,13 @@
       <c r="B113" s="15" t="s">
         <v>640</v>
       </c>
-      <c r="C113" s="18" t="s">
+      <c r="C113" s="20" t="s">
         <v>656</v>
       </c>
-      <c r="D113" s="18" t="s">
+      <c r="D113" s="20" t="s">
         <v>657</v>
       </c>
-      <c r="E113" s="18" t="s">
+      <c r="E113" s="20" t="s">
         <v>658</v>
       </c>
     </row>
@@ -7053,27 +7138,27 @@
       <c r="B114" s="15" t="s">
         <v>640</v>
       </c>
-      <c r="C114" s="18" t="s">
+      <c r="C114" s="20" t="s">
         <v>660</v>
       </c>
-      <c r="D114" s="18" t="s">
+      <c r="D114" s="20" t="s">
         <v>661</v>
       </c>
-      <c r="E114" s="18" t="s">
+      <c r="E114" s="20" t="s">
         <v>662</v>
       </c>
     </row>
     <row r="115" ht="37.5" customHeight="1">
-      <c r="A115" s="20"/>
-      <c r="B115" s="21"/>
-      <c r="C115" s="21"/>
-      <c r="D115" s="21"/>
-      <c r="E115" s="21"/>
-      <c r="F115" s="22"/>
-      <c r="G115" s="22"/>
-      <c r="H115" s="22"/>
-      <c r="I115" s="22"/>
-      <c r="J115" s="22"/>
+      <c r="A115" s="22"/>
+      <c r="B115" s="23"/>
+      <c r="C115" s="23"/>
+      <c r="D115" s="23"/>
+      <c r="E115" s="23"/>
+      <c r="F115" s="24"/>
+      <c r="G115" s="24"/>
+      <c r="H115" s="24"/>
+      <c r="I115" s="24"/>
+      <c r="J115" s="24"/>
     </row>
     <row r="116">
       <c r="A116" s="14" t="s">
@@ -7082,10 +7167,10 @@
       <c r="B116" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="C116" s="18" t="s">
+      <c r="C116" s="20" t="s">
         <v>230</v>
       </c>
-      <c r="D116" s="18" t="s">
+      <c r="D116" s="20" t="s">
         <v>231</v>
       </c>
     </row>
@@ -7096,10 +7181,10 @@
       <c r="B117" s="15" t="s">
         <v>664</v>
       </c>
-      <c r="C117" s="18" t="s">
+      <c r="C117" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="D117" s="18" t="s">
+      <c r="D117" s="20" t="s">
         <v>235</v>
       </c>
     </row>
@@ -7110,10 +7195,10 @@
       <c r="B118" s="15" t="s">
         <v>665</v>
       </c>
-      <c r="C118" s="18" t="s">
+      <c r="C118" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="D118" s="18" t="s">
+      <c r="D118" s="20" t="s">
         <v>239</v>
       </c>
     </row>
@@ -7124,10 +7209,10 @@
       <c r="B119" s="15" t="s">
         <v>666</v>
       </c>
-      <c r="C119" s="18" t="s">
+      <c r="C119" s="20" t="s">
         <v>242</v>
       </c>
-      <c r="D119" s="18" t="s">
+      <c r="D119" s="20" t="s">
         <v>243</v>
       </c>
     </row>
@@ -7138,10 +7223,10 @@
       <c r="B120" s="15" t="s">
         <v>667</v>
       </c>
-      <c r="C120" s="18" t="s">
+      <c r="C120" s="20" t="s">
         <v>245</v>
       </c>
-      <c r="D120" s="18" t="s">
+      <c r="D120" s="20" t="s">
         <v>246</v>
       </c>
     </row>
@@ -7152,11 +7237,11 @@
       <c r="B121" s="15" t="s">
         <v>668</v>
       </c>
-      <c r="C121" s="18" t="s">
-        <v>249</v>
-      </c>
-      <c r="D121" s="18" t="s">
-        <v>250</v>
+      <c r="C121" s="20" t="s">
+        <v>669</v>
+      </c>
+      <c r="D121" s="20" t="s">
+        <v>670</v>
       </c>
     </row>
     <row r="122">
@@ -7164,12 +7249,12 @@
         <v>251</v>
       </c>
       <c r="B122" s="15" t="s">
-        <v>669</v>
-      </c>
-      <c r="C122" s="18" t="s">
+        <v>671</v>
+      </c>
+      <c r="C122" s="20" t="s">
         <v>253</v>
       </c>
-      <c r="D122" s="18" t="s">
+      <c r="D122" s="20" t="s">
         <v>254</v>
       </c>
     </row>
@@ -7178,12 +7263,12 @@
         <v>255</v>
       </c>
       <c r="B123" s="15" t="s">
-        <v>670</v>
-      </c>
-      <c r="C123" s="18" t="s">
+        <v>672</v>
+      </c>
+      <c r="C123" s="20" t="s">
         <v>257</v>
       </c>
-      <c r="D123" s="18" t="s">
+      <c r="D123" s="20" t="s">
         <v>258</v>
       </c>
     </row>
@@ -7192,12 +7277,12 @@
         <v>259</v>
       </c>
       <c r="B124" s="15" t="s">
-        <v>671</v>
-      </c>
-      <c r="C124" s="18" t="s">
+        <v>673</v>
+      </c>
+      <c r="C124" s="20" t="s">
         <v>261</v>
       </c>
-      <c r="D124" s="18" t="s">
+      <c r="D124" s="20" t="s">
         <v>262</v>
       </c>
     </row>
@@ -7206,12 +7291,12 @@
         <v>263</v>
       </c>
       <c r="B125" s="15" t="s">
-        <v>672</v>
-      </c>
-      <c r="C125" s="18" t="s">
+        <v>674</v>
+      </c>
+      <c r="C125" s="20" t="s">
         <v>265</v>
       </c>
-      <c r="D125" s="18" t="s">
+      <c r="D125" s="20" t="s">
         <v>266</v>
       </c>
     </row>
@@ -7220,12 +7305,12 @@
         <v>267</v>
       </c>
       <c r="B126" s="15" t="s">
-        <v>673</v>
-      </c>
-      <c r="C126" s="18" t="s">
+        <v>675</v>
+      </c>
+      <c r="C126" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="D126" s="18" t="s">
+      <c r="D126" s="20" t="s">
         <v>270</v>
       </c>
     </row>
@@ -7234,12 +7319,12 @@
         <v>271</v>
       </c>
       <c r="B127" s="15" t="s">
-        <v>674</v>
-      </c>
-      <c r="C127" s="18" t="s">
+        <v>676</v>
+      </c>
+      <c r="C127" s="20" t="s">
         <v>273</v>
       </c>
-      <c r="D127" s="18" t="s">
+      <c r="D127" s="20" t="s">
         <v>274</v>
       </c>
     </row>
@@ -7248,12 +7333,12 @@
         <v>275</v>
       </c>
       <c r="B128" s="15" t="s">
-        <v>675</v>
-      </c>
-      <c r="C128" s="18" t="s">
+        <v>677</v>
+      </c>
+      <c r="C128" s="20" t="s">
         <v>277</v>
       </c>
-      <c r="D128" s="18" t="s">
+      <c r="D128" s="20" t="s">
         <v>278</v>
       </c>
     </row>
@@ -7262,13 +7347,13 @@
         <v>279</v>
       </c>
       <c r="B129" s="15" t="s">
-        <v>676</v>
-      </c>
-      <c r="C129" s="18" t="s">
-        <v>281</v>
-      </c>
-      <c r="D129" s="18" t="s">
-        <v>282</v>
+        <v>678</v>
+      </c>
+      <c r="C129" s="20" t="s">
+        <v>679</v>
+      </c>
+      <c r="D129" s="20" t="s">
+        <v>680</v>
       </c>
     </row>
     <row r="130">
@@ -7276,26 +7361,26 @@
         <v>283</v>
       </c>
       <c r="B130" s="15" t="s">
-        <v>677</v>
-      </c>
-      <c r="C130" s="18" t="s">
-        <v>285</v>
-      </c>
-      <c r="D130" s="18" t="s">
-        <v>286</v>
+        <v>681</v>
+      </c>
+      <c r="C130" s="20" t="s">
+        <v>682</v>
+      </c>
+      <c r="D130" s="20" t="s">
+        <v>683</v>
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="19">
+      <c r="A131" s="21">
         <v>4.76E13</v>
       </c>
       <c r="B131" s="15" t="s">
-        <v>678</v>
-      </c>
-      <c r="C131" s="18" t="s">
+        <v>684</v>
+      </c>
+      <c r="C131" s="20" t="s">
         <v>289</v>
       </c>
-      <c r="D131" s="18" t="s">
+      <c r="D131" s="20" t="s">
         <v>290</v>
       </c>
     </row>
@@ -7304,12 +7389,12 @@
         <v>291</v>
       </c>
       <c r="B132" s="15" t="s">
-        <v>679</v>
-      </c>
-      <c r="C132" s="18" t="s">
+        <v>685</v>
+      </c>
+      <c r="C132" s="20" t="s">
         <v>293</v>
       </c>
-      <c r="D132" s="18" t="s">
+      <c r="D132" s="20" t="s">
         <v>294</v>
       </c>
     </row>
@@ -7318,13 +7403,13 @@
         <v>295</v>
       </c>
       <c r="B133" s="15" t="s">
-        <v>680</v>
-      </c>
-      <c r="C133" s="18" t="s">
-        <v>297</v>
-      </c>
-      <c r="D133" s="18" t="s">
-        <v>298</v>
+        <v>686</v>
+      </c>
+      <c r="C133" s="20" t="s">
+        <v>687</v>
+      </c>
+      <c r="D133" s="20" t="s">
+        <v>688</v>
       </c>
     </row>
     <row r="134">
@@ -7332,12 +7417,12 @@
         <v>299</v>
       </c>
       <c r="B134" s="15" t="s">
-        <v>681</v>
-      </c>
-      <c r="C134" s="18" t="s">
+        <v>689</v>
+      </c>
+      <c r="C134" s="20" t="s">
         <v>301</v>
       </c>
-      <c r="D134" s="18" t="s">
+      <c r="D134" s="20" t="s">
         <v>302</v>
       </c>
     </row>
@@ -7346,13 +7431,13 @@
         <v>303</v>
       </c>
       <c r="B135" s="15" t="s">
-        <v>682</v>
-      </c>
-      <c r="C135" s="18" t="s">
-        <v>305</v>
-      </c>
-      <c r="D135" s="18" t="s">
-        <v>306</v>
+        <v>690</v>
+      </c>
+      <c r="C135" s="20" t="s">
+        <v>691</v>
+      </c>
+      <c r="D135" s="20" t="s">
+        <v>692</v>
       </c>
     </row>
     <row r="136">
@@ -7360,12 +7445,12 @@
         <v>307</v>
       </c>
       <c r="B136" s="15" t="s">
-        <v>683</v>
-      </c>
-      <c r="C136" s="18" t="s">
+        <v>693</v>
+      </c>
+      <c r="C136" s="20" t="s">
         <v>309</v>
       </c>
-      <c r="D136" s="18" t="s">
+      <c r="D136" s="20" t="s">
         <v>310</v>
       </c>
     </row>
@@ -7374,12 +7459,12 @@
         <v>311</v>
       </c>
       <c r="B137" s="15" t="s">
-        <v>684</v>
-      </c>
-      <c r="C137" s="18" t="s">
+        <v>694</v>
+      </c>
+      <c r="C137" s="20" t="s">
         <v>313</v>
       </c>
-      <c r="D137" s="18" t="s">
+      <c r="D137" s="20" t="s">
         <v>314</v>
       </c>
     </row>
@@ -7388,12 +7473,12 @@
         <v>315</v>
       </c>
       <c r="B138" s="15" t="s">
-        <v>685</v>
-      </c>
-      <c r="C138" s="18" t="s">
+        <v>695</v>
+      </c>
+      <c r="C138" s="20" t="s">
         <v>317</v>
       </c>
-      <c r="D138" s="18" t="s">
+      <c r="D138" s="20" t="s">
         <v>318</v>
       </c>
     </row>
@@ -7402,13 +7487,13 @@
         <v>319</v>
       </c>
       <c r="B139" s="15" t="s">
-        <v>686</v>
-      </c>
-      <c r="C139" s="18" t="s">
-        <v>321</v>
-      </c>
-      <c r="D139" s="18" t="s">
-        <v>322</v>
+        <v>696</v>
+      </c>
+      <c r="C139" s="20" t="s">
+        <v>697</v>
+      </c>
+      <c r="D139" s="20" t="s">
+        <v>698</v>
       </c>
     </row>
     <row r="140">
@@ -7416,12 +7501,12 @@
         <v>323</v>
       </c>
       <c r="B140" s="15" t="s">
-        <v>687</v>
-      </c>
-      <c r="C140" s="18" t="s">
+        <v>699</v>
+      </c>
+      <c r="C140" s="20" t="s">
         <v>325</v>
       </c>
-      <c r="D140" s="18" t="s">
+      <c r="D140" s="20" t="s">
         <v>326</v>
       </c>
     </row>
@@ -7430,12 +7515,12 @@
         <v>327</v>
       </c>
       <c r="B141" s="15" t="s">
-        <v>688</v>
-      </c>
-      <c r="C141" s="18" t="s">
+        <v>700</v>
+      </c>
+      <c r="C141" s="20" t="s">
         <v>329</v>
       </c>
-      <c r="D141" s="18" t="s">
+      <c r="D141" s="20" t="s">
         <v>330</v>
       </c>
     </row>
@@ -7444,12 +7529,12 @@
         <v>331</v>
       </c>
       <c r="B142" s="15" t="s">
-        <v>689</v>
-      </c>
-      <c r="C142" s="18" t="s">
+        <v>701</v>
+      </c>
+      <c r="C142" s="20" t="s">
         <v>333</v>
       </c>
-      <c r="D142" s="18" t="s">
+      <c r="D142" s="20" t="s">
         <v>334</v>
       </c>
     </row>
@@ -7458,12 +7543,12 @@
         <v>335</v>
       </c>
       <c r="B143" s="15" t="s">
-        <v>690</v>
-      </c>
-      <c r="C143" s="18" t="s">
+        <v>702</v>
+      </c>
+      <c r="C143" s="20" t="s">
         <v>337</v>
       </c>
-      <c r="D143" s="18" t="s">
+      <c r="D143" s="20" t="s">
         <v>338</v>
       </c>
     </row>
@@ -7472,12 +7557,12 @@
         <v>339</v>
       </c>
       <c r="B144" s="15" t="s">
-        <v>691</v>
-      </c>
-      <c r="C144" s="18" t="s">
+        <v>703</v>
+      </c>
+      <c r="C144" s="20" t="s">
         <v>341</v>
       </c>
-      <c r="D144" s="18" t="s">
+      <c r="D144" s="20" t="s">
         <v>342</v>
       </c>
     </row>
@@ -7486,12 +7571,12 @@
         <v>343</v>
       </c>
       <c r="B145" s="15" t="s">
-        <v>692</v>
-      </c>
-      <c r="C145" s="18" t="s">
+        <v>704</v>
+      </c>
+      <c r="C145" s="20" t="s">
         <v>345</v>
       </c>
-      <c r="D145" s="18" t="s">
+      <c r="D145" s="20" t="s">
         <v>346</v>
       </c>
     </row>
@@ -7500,12 +7585,12 @@
         <v>347</v>
       </c>
       <c r="B146" s="15" t="s">
-        <v>693</v>
-      </c>
-      <c r="C146" s="18" t="s">
+        <v>705</v>
+      </c>
+      <c r="C146" s="20" t="s">
         <v>349</v>
       </c>
-      <c r="D146" s="18" t="s">
+      <c r="D146" s="20" t="s">
         <v>350</v>
       </c>
     </row>
@@ -7514,26 +7599,26 @@
         <v>351</v>
       </c>
       <c r="B147" s="15" t="s">
-        <v>694</v>
-      </c>
-      <c r="C147" s="18" t="s">
+        <v>706</v>
+      </c>
+      <c r="C147" s="20" t="s">
         <v>353</v>
       </c>
-      <c r="D147" s="18" t="s">
+      <c r="D147" s="20" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="14" t="s">
-        <v>355</v>
+        <v>707</v>
       </c>
       <c r="B148" s="15" t="s">
-        <v>695</v>
-      </c>
-      <c r="C148" s="23" t="s">
+        <v>708</v>
+      </c>
+      <c r="C148" s="25" t="s">
         <v>357</v>
       </c>
-      <c r="D148" s="23" t="s">
+      <c r="D148" s="25" t="s">
         <v>358</v>
       </c>
     </row>
@@ -7542,13 +7627,13 @@
         <v>359</v>
       </c>
       <c r="B149" s="15" t="s">
-        <v>696</v>
-      </c>
-      <c r="C149" s="23" t="s">
-        <v>361</v>
-      </c>
-      <c r="D149" s="23" t="s">
-        <v>362</v>
+        <v>709</v>
+      </c>
+      <c r="C149" s="25" t="s">
+        <v>710</v>
+      </c>
+      <c r="D149" s="25" t="s">
+        <v>711</v>
       </c>
     </row>
     <row r="150">
@@ -7556,13 +7641,13 @@
         <v>363</v>
       </c>
       <c r="B150" s="15" t="s">
-        <v>697</v>
-      </c>
-      <c r="C150" s="23" t="s">
-        <v>365</v>
-      </c>
-      <c r="D150" s="23" t="s">
-        <v>366</v>
+        <v>712</v>
+      </c>
+      <c r="C150" s="25" t="s">
+        <v>713</v>
+      </c>
+      <c r="D150" s="25" t="s">
+        <v>714</v>
       </c>
     </row>
     <row r="151">
@@ -7570,12 +7655,12 @@
         <v>367</v>
       </c>
       <c r="B151" s="15" t="s">
-        <v>698</v>
-      </c>
-      <c r="C151" s="23" t="s">
+        <v>715</v>
+      </c>
+      <c r="C151" s="25" t="s">
         <v>369</v>
       </c>
-      <c r="D151" s="23" t="s">
+      <c r="D151" s="25" t="s">
         <v>370</v>
       </c>
     </row>
@@ -7584,12 +7669,12 @@
         <v>371</v>
       </c>
       <c r="B152" s="15" t="s">
-        <v>699</v>
-      </c>
-      <c r="C152" s="23" t="s">
+        <v>716</v>
+      </c>
+      <c r="C152" s="25" t="s">
         <v>373</v>
       </c>
-      <c r="D152" s="23" t="s">
+      <c r="D152" s="25" t="s">
         <v>374</v>
       </c>
     </row>
@@ -7598,12 +7683,12 @@
         <v>375</v>
       </c>
       <c r="B153" s="15" t="s">
-        <v>700</v>
-      </c>
-      <c r="C153" s="23" t="s">
+        <v>717</v>
+      </c>
+      <c r="C153" s="25" t="s">
         <v>377</v>
       </c>
-      <c r="D153" s="23" t="s">
+      <c r="D153" s="25" t="s">
         <v>378</v>
       </c>
     </row>
@@ -7612,12 +7697,12 @@
         <v>379</v>
       </c>
       <c r="B154" s="15" t="s">
-        <v>701</v>
-      </c>
-      <c r="C154" s="23" t="s">
+        <v>718</v>
+      </c>
+      <c r="C154" s="25" t="s">
         <v>381</v>
       </c>
-      <c r="D154" s="23" t="s">
+      <c r="D154" s="25" t="s">
         <v>382</v>
       </c>
     </row>
@@ -7626,13 +7711,13 @@
         <v>383</v>
       </c>
       <c r="B155" s="15" t="s">
-        <v>702</v>
-      </c>
-      <c r="C155" s="23" t="s">
-        <v>385</v>
-      </c>
-      <c r="D155" s="23" t="s">
-        <v>386</v>
+        <v>719</v>
+      </c>
+      <c r="C155" s="25" t="s">
+        <v>720</v>
+      </c>
+      <c r="D155" s="25" t="s">
+        <v>721</v>
       </c>
     </row>
     <row r="156">
@@ -7640,12 +7725,12 @@
         <v>387</v>
       </c>
       <c r="B156" s="15" t="s">
-        <v>702</v>
-      </c>
-      <c r="C156" s="23" t="s">
+        <v>719</v>
+      </c>
+      <c r="C156" s="25" t="s">
         <v>388</v>
       </c>
-      <c r="D156" s="23" t="s">
+      <c r="D156" s="25" t="s">
         <v>389</v>
       </c>
     </row>
@@ -7654,12 +7739,12 @@
         <v>390</v>
       </c>
       <c r="B157" s="15" t="s">
-        <v>703</v>
-      </c>
-      <c r="C157" s="23" t="s">
+        <v>722</v>
+      </c>
+      <c r="C157" s="25" t="s">
         <v>392</v>
       </c>
-      <c r="D157" s="23" t="s">
+      <c r="D157" s="25" t="s">
         <v>393</v>
       </c>
     </row>
@@ -7668,12 +7753,12 @@
         <v>394</v>
       </c>
       <c r="B158" s="15" t="s">
-        <v>704</v>
-      </c>
-      <c r="C158" s="23" t="s">
+        <v>723</v>
+      </c>
+      <c r="C158" s="25" t="s">
         <v>396</v>
       </c>
-      <c r="D158" s="23" t="s">
+      <c r="D158" s="25" t="s">
         <v>397</v>
       </c>
     </row>
@@ -7682,12 +7767,12 @@
         <v>398</v>
       </c>
       <c r="B159" s="15" t="s">
-        <v>705</v>
-      </c>
-      <c r="C159" s="23" t="s">
+        <v>724</v>
+      </c>
+      <c r="C159" s="25" t="s">
         <v>400</v>
       </c>
-      <c r="D159" s="23" t="s">
+      <c r="D159" s="25" t="s">
         <v>401</v>
       </c>
     </row>
@@ -7696,12 +7781,12 @@
         <v>402</v>
       </c>
       <c r="B160" s="15" t="s">
-        <v>706</v>
-      </c>
-      <c r="C160" s="18" t="s">
+        <v>725</v>
+      </c>
+      <c r="C160" s="20" t="s">
         <v>404</v>
       </c>
-      <c r="D160" s="18" t="s">
+      <c r="D160" s="20" t="s">
         <v>405</v>
       </c>
     </row>
@@ -7710,12 +7795,12 @@
         <v>406</v>
       </c>
       <c r="B161" s="15" t="s">
-        <v>707</v>
-      </c>
-      <c r="C161" s="18" t="s">
+        <v>726</v>
+      </c>
+      <c r="C161" s="20" t="s">
         <v>408</v>
       </c>
-      <c r="D161" s="18" t="s">
+      <c r="D161" s="20" t="s">
         <v>409</v>
       </c>
     </row>
@@ -7724,12 +7809,12 @@
         <v>410</v>
       </c>
       <c r="B162" s="15" t="s">
-        <v>708</v>
-      </c>
-      <c r="C162" s="18" t="s">
+        <v>727</v>
+      </c>
+      <c r="C162" s="20" t="s">
         <v>412</v>
       </c>
-      <c r="D162" s="18" t="s">
+      <c r="D162" s="20" t="s">
         <v>413</v>
       </c>
     </row>
@@ -7738,13 +7823,13 @@
         <v>414</v>
       </c>
       <c r="B163" s="15" t="s">
-        <v>709</v>
-      </c>
-      <c r="C163" s="18" t="s">
-        <v>416</v>
-      </c>
-      <c r="D163" s="18" t="s">
-        <v>417</v>
+        <v>728</v>
+      </c>
+      <c r="C163" s="20" t="s">
+        <v>729</v>
+      </c>
+      <c r="D163" s="20" t="s">
+        <v>730</v>
       </c>
     </row>
     <row r="164">
@@ -7752,12 +7837,12 @@
         <v>418</v>
       </c>
       <c r="B164" s="15" t="s">
-        <v>710</v>
-      </c>
-      <c r="C164" s="18" t="s">
+        <v>731</v>
+      </c>
+      <c r="C164" s="20" t="s">
         <v>420</v>
       </c>
-      <c r="D164" s="18" t="s">
+      <c r="D164" s="20" t="s">
         <v>421</v>
       </c>
     </row>
@@ -7766,13 +7851,13 @@
         <v>422</v>
       </c>
       <c r="B165" s="15" t="s">
-        <v>711</v>
-      </c>
-      <c r="C165" s="18" t="s">
-        <v>424</v>
-      </c>
-      <c r="D165" s="18" t="s">
-        <v>425</v>
+        <v>732</v>
+      </c>
+      <c r="C165" s="20" t="s">
+        <v>733</v>
+      </c>
+      <c r="D165" s="20" t="s">
+        <v>734</v>
       </c>
     </row>
   </sheetData>

--- a/tasks.xlsx
+++ b/tasks.xlsx
@@ -16,35 +16,52 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="735">
   <si>
-    <t>Роль: Ты — «Эксперт ЕГЭ», автоматизированная система для проверки устного чтения. Твоя главная задача — быть точным, объективным и полезным.
-Задача: Оцени прочтение текста пользователем. Если в тексте нет грубых ошибок, поставь 1 балл. Если есть хотя бы одна грубая ошибка, поставь 0 баллов и обязательно укажи, какая именно ошибка была допущена.
-Оригинальный текст:
-"{task_text}"
-Критерии оценки (это твои правила):
-1. Игнорируй мелкие недочеты (не считай их ошибками):
-Неверный артикль (a/the).
-Неверный предлог (in/on/at).
-Неправильное окончание (go вместо goes).
-Случайная оговорка, которую говорящий сам исправил.
-2. Снижай балл до 0 только за грубые ошибки:
-Пропуск слова: Пропущено значимое слово (не артикль или предлог).
-Замена слова: Одно слово произнесено вместо другого (например, house вместо horse).
-Добавление слова: Произнесено лишнее слово, которого нет в тексте.
-Сильное искажение: Слово произнесено так, что его невозможно узнать.
-Инструкция по формированию ответа:
-Внимательно сравни аудиозапись пользователя с Оригинальным текстом.
-Примени Критерии оценки.
-Если грубых ошибок нет: Поставь 1 балл и похвали.
-Если найдена хотя бы одна грубая ошибка: Поставь 0 баллов и четко выпиши каждую найденную ошибку в формате "Оригинал -&gt; Произнесено".
-Формат ответа:
-Если всё хорошо (1 балл):
-Оценка: 1 балл. Отличная работа! Грубых ошибок нет. ✅
-Если найдены ошибки (0 баллов):
-Оценка: 0 баллов. ❌
-Обнаружены следующие грубые ошибки:
-1. В фразе "...[фраза из текста с ошибкой]..." было произнесено "...[что произнес пользователь]...".
-2. ... (если ошибок несколько)
-Пожалуйста, обратите внимание на эти моменты и попробуйте еще раз.</t>
+    <t>### **Промпт для оценки чтения на английском языке (с таймкодами)**
+**Роль:** Ты — AI-ассистент, эксперт по английской фонетике и анализу аудио.
+**Задача:** Тебе предоставлены оригинальный текст на английском языке и аудиозапись, где пользователь читает этот текст. Твоя задача — внимательно проанализировать аудио: проверить, был ли текст прочитан полностью, выявить ошибки, указать их точные таймкоды и на основе этого выставить оценку по правилам, указанным ниже.
+---
+**Входные данные:**
+1.  **Оригинальный текст (`{task_text}`):**
+    ```
+    [Сюда будет вставлен оригинальный английский текст]
+    ```
+2.  **Аудиозапись пользователя (`{user_text}`):**
+    * Аудиофайл с записью голоса пользователя, читающего `{task_text}`.
+---
+**Критерии оценки:**
+**Шаг 1: Проверка на полноту чтения**
+* В первую очередь, определи, был ли текст прочитан **полностью**. Если пользователь остановился и не дочитал текст до конца, это автоматически считается **двумя грубыми ошибками**, и итоговая оценка сразу становится **0 баллов**.
+**Шаг 2: Поиск грубых ошибок (если текст прочитан полностью)**
+* Если текст прочитан полностью, найди в нём **грубые ошибки**. Грубая ошибка — это серьезное искажение, которое мешает носителю языка понять сказанное или меняет смысл текста.
+Грубыми считаются ошибки следующих типов:
+1.  **Искажение текста:**
+    * **Замена:** Чтение слова, которого нет в исходном тексте, вместо правильного (например, в тексте `I see a house`, а прочитано `I see a horse`).
+    * **Пропуск:** Пропуск слова из текста.
+    * **Добавление:** Чтение лишнего слова, которого нет в тексте.
+2.  **Смысловая ошибка произношения:**
+    * Произнесение слова из текста так, что оно звучит как другое существующее слово с иным значением (например, `work` вместо `walk`).
+3.  **Грубая фонетическая ошибка:**
+    * Произнесение слова с неверными звуками или ударением, что делает его неузнаваемым или очень сложным для понимания (например, чтение слова `damage` как "дамаж").
+**Правила выставления оценки:**
+* **0 баллов:** Если текст прочитан **не полностью**, ИЛИ если в полностью прочитанном тексте обнаружено **две или более** грубые ошибки.
+* **1 балл:** Если текст прочитан **полностью** И в нём допущена **не более одной** грубой ошибки.
+---
+**Формат ответа:**
+* **Оценка:** \[0 или 1]
+* **Комментарий:** \[Сначала обязательно укажи, был ли текст прочитан полностью. Затем кратко поясни своё решение. Если были найдены ошибки, перечисли их с **указанием таймкода в формате ММ:СС** и типа ошибки.]
+---
+#### **Примеры**
+**Пример 1 (пользователь получает 0 баллов из-за неполного чтения):**
+* **Оценка:** 0
+* **Комментарий:** Текст прочитан не полностью. Пользователь остановился на фразе "... a very important day", не дочитав последнее предложение.
+**Пример 2 (пользователь получает 0 баллов из-за ошибок):**
+* **Оценка:** 0
+* **Комментарий:** Текст прочитан полностью. Найдено две грубые ошибки:
+    1.  **Пропуск слова (00:07):** Было пропущено слово `not` в фразе `is not ready`.
+    2.  **Фонетическая ошибка (00:15):** Слово `challenge` было произнесено как "чалленж" с неверным первым звуком.
+**Пример 3 (пользователь получает 1 балл):**
+* **Оценка:** 1
+* **Комментарий:** Текст прочитан полностью. Найдена одна грубая ошибка — **замена слова (00:11):** вместо `goal` (цель) было прочитано `gold` (золото).</t>
   </si>
   <si>
     <t>{id}</t>
@@ -320,21 +337,31 @@
     <t>A long time ago men learnt how to make structures with walls and roofs to protect themselves from bad weather and wild animals. These ancient structures were quite primitive and very different from modern buildings. Still, they gave people shelter and comfort which they needed. Now there are many types of buildings in the world. They vary in size, shape and function. There are several factors which influence the construction of a building. Firstly, builders need to consider which building materials are available or suit better. Secondly, they must know what a building is going to be used for. Moreover, they should think about land prices and climate in the area where they are going to construct a building. It is not a very good idea to build a house with big windows in the north or construct a lot of detached houses in the city centre where land is very expensive.</t>
   </si>
   <si>
-    <t>Роль: Ты — эксперт по проверке ЕГЭ по английскому языку. Твоя задача — оценить ответы пользователя к заданию 2 устной части (задать 4 вопроса к рекламному объявлению).
-Задача: Проанализируй вопросы пользователя на основе предоставленного полного текста задания и транскрипции его аудиозаписи. Тебе нужно будет самостоятельно выделить четыре вопроса из сплошного текста ответа.
-Оцени каждый вопрос по двум критериям:
-1. Решение коммуникативной задачи (РКЗ): Задан ли вопрос по содержанию, соответствует ли он теме пункта, является ли он прямым, а не косвенным?
-2. Языковое оформление: Правильны ли грамматика, лексика и порядок слов?
-Формат ответа:
-Для каждого из четырех вопросов предоставь следующий анализ:
-* Вопрос №: [Номер вопроса]
-* Транскрипция: [Текст вопроса пользователя, выделенный тобой из общего ответа]
-* Оценка: [1 балл или 0 баллов]
-* Комментарий: Подробное объяснение оценки. Если есть ошибки (в РКЗ или грамматике), объясни, в чем они заключаются и как их исправить. Предложи корректный вариант вопроса.
-После анализа всех четырех вопросов, укажи общий балл пользователя (от 0 до 4) и дай несколько практических советов по улучшению его техники.
-Данные для анализа:
-Текст задания = {task_text}
-Ответ пользователя = {user_text}</t>
+    <t>**Роль:** Ты — ИИ-эксперт ЕГЭ по английскому языку. Твоя задача — проанализировать аудиозапись с ответом ученика на Задание 2 устной части и оценить каждый из четырёх заданных вопросов.
+**Контекст:**
+Пользователь прислал аудиофайл `{user_text}` с записью своего ответа на Задание 2 устной части ЕГЭ по английскому языку.
+**Текст задания для ученика:**
+`{task_text}`
+**Инструкция:**
+Прослушай аудиозапись `{user_text}`. Оцени каждый из четырёх вопросов, которые задал пользователь, по следующим двум критериям:
+1.  **Соответствие содержания:** Отвечает ли вопрос поставленной в задании коммуникативной задаче? Запрашивает ли он именно ту информацию, которая указана в пункте плана?
+2.  **Грамматическая правильность:** Является ли вопрос прямым (не косвенным)? Правильно ли использованы грамматические конструкции, порядок слов, вспомогательные глаголы и лексика?
+**Оценка:**
+Поставь **1 балл** за вопрос, если он **полностью соответствует обоим критериям**:
+* Задан по содержанию пункта плана.
+* Имеет правильную грамматическую форму прямого вопроса.
+Если хотя бы один из критериев не выполнен, поставь **0 баллов**.
+**Формат ответа:**
+Представь свою оценку в виде списка. Для каждого вопроса укажи его номер, твой балл (1 или 0) и краткое, но чёткое обоснование твоего решения.
+**Пример ответа:**
+**Вопрос 1:** 1 балл.
+*Обоснование:* Вопрос "What is the location of the hotel?" полностью соответствует пункту "location" и является грамматически правильным прямым вопросом.
+**Вопрос 2:** 0 баллов.
+*Обоснование:* Вопрос "Could you tell me about accommodation?" является косвенным, а требуется прямой вопрос. Правильный вариант: "What accommodation do you offer?".
+**Вопрос 3:** 1 балл.
+*Обоснование:* Вопрос "Are there any discounts for students?" корректно запрашивает информацию из пункта "discounts for students" и грамматически верен.
+**Вопрос 4:** 0 баллов.
+*Обоснование:* Вопрос "How much it costs?" содержит ошибку в порядке слов. Правильный вариант: "How much does it cost?".</t>
   </si>
   <si>
     <t>{image1}</t>
@@ -983,37 +1010,51 @@
     <t>https://ege.fipi.ru/docs/4B53A6CB75B0B5E1427E596EB4931A2A/questions/1D2A03D32F2AA40E4F48B6DB815B8542(copy1)/xs3qstsrc1D2A03D32F2AA40E4F48B6DB815B8542_2_1482144144.jpg</t>
   </si>
   <si>
-    <t>Ты — эксперт ЕГЭ по английскому языку. Твоя задача — провести детальную оценку  ответа пользователя на Задание 4 устной части. Задание: {task_text}
-Ответ:
-{user_text}
-Твоя задача — оценить ответ по трем официальным критериям ЕГЭ и предоставить развернутый фидбэк.
-Твой ответ должен быть структурирован следующим образом:
-1. Оценка по критериям (в баллах):
-КР1: Решение коммуникативной задачи (РКЗ): __ / 4
-КР2: Организация высказывания (ОР): __ / 3
-КР3: Языковое оформление высказывания (ЯО): __ / 3
-Итоговый балл: __ / 10
-2. Детальный разбор по каждому критерию:
-КР1: Решение коммуникативной задачи (РКЗ):
-Проанализируй, насколько полно, точно и развернуто раскрыты все четыре аспекта задания (краткое описание и различия, 1-2 достоинства и 1-2 недостатки по каждой картинке, мнение).
-Укажи, какие аспекты раскрыты полностью, а какие — частично или не раскрыты совсем.
-Подсчитай примерное количество фраз. Соответствует ли объем высказывания требуемым 12-15 фразам?
-Сделай вывод о том, достигнута ли коммуникативная цель.
-КР2: Организация высказывания (ОР):
-Оцени логичность и связность текста.
-Проверь наличие вступительной и заключительной фраз.
-Проанализируй использование средств логической связи (союзы, вводные слова). Укажи, где их не хватает или где они использованы некорректно.
-Оцени, соответствует ли структура ответа предложенному плану.
-КР3: Языковое оформление высказывания (ЯО):
-Проанализируй лексический запас. Использована ли разнообразная лексика, соответствующая теме? Есть ли лексические ошибки?
-Оцени грамматическую правильность речи. Укажи на все грамматические ошибки (времена, артикли, предлоги, порядок слов и т.д.).
-Проанализируй фонетическую сторону речи (если бы это была аудиозапись, отметь потенциально проблемные места в тексте). Укажи на ошибки в произношении, которые могут затруднить понимание.
-3. Общие рекомендации и работа над ошибками:
-Дай конкретные советы по улучшению ответа.
-Предложи альтернативные формулировки для неудачных фраз.
-Приведи примеры того, как можно было бы лучше раскрыть тот или иной аспект задания.
-Подведи итог, на что следует обратить особое внимание при подготовке к этому заданию.
-Действуй строго в соответствии с этой инструкцией. Твой анализ должен быть объективным, подробным и полезным для подготовки к экзамену.</t>
+    <t>**Роль:** Ты — эксперт по подготовке к устной части ЕГЭ по английскому языку.
+**Задача:** Оценить аудиозапись ответа пользователя на Задание 4 устной части ЕГЭ. Твоя цель — предоставить детальный и конструктивный фидбэк, сфокусированный на ошибках и зонах роста.
+**Входные данные:**
+1.  **Текст задания (`{task_text}`):** Описание задания, которое получил пользователь, включая пункты плана.
+2.  **Аудиозапись ответа (`{user_text}`):** Аудиозапись ответа пользователя.
+**Инструкции по оценке:**
+Ты должен оценить ответ по трём критериям. Максимальный общий балл — 10.
+**1. Критерий 1: Решение коммуникативной задачи (РКЗ) (Максимум – 4 балла)**
+* Проанализируй содержание ответа и сравни его с пунктами плана из `{task_text}`.
+* **4 балла:** Ставь, если содержание полностью, точно и развёрнуто отражает все аспекты, указанные в задании.
+* **3 балла:** Ставь, если один аспект раскрыт неполно, неточно или не раскрыт совсем.
+* **2 балла:** Ставь, если два аспекта не раскрыты или раскрыты неполно/неточно.
+* **1 балл:** Ставь, если один аспект содержания раскрыт **полностью**, а остальные аспекты раскрыты неполно, неточно или не раскрыты совсем.
+* **0 баллов:** Ставь, если коммуникативная задача выполнена менее чем на 50%.
+* **Важное допущение:** Не учитывай требование о 12-15 фразах. Оценивай только полноту раскрытия аспектов.
+**2. Критерий 2: Организация высказывания (ОВ) (Максимум – 3 балла)**
+* Оцени логичность, связность и завершённость ответа.
+* **3 балла:** Высказывание полностью логично, имеет чёткую структуру (вступление, основная часть, заключение). Средства логической связи использованы правильно.
+* **2 балла:** Есть 1-2 ошибки в организации текста или использовании средств логической связи.
+* **1 балл:** Ответ в целом нелогичен, структура нарушена, средства связи используются некорректно или отсутствуют.
+* **0 баллов:** Связный текст отсутствует.
+**3. Критерий 3: Языковое оформление высказывания (ЯОВ) (Максимум – 3 балла)**
+* Оцени лексическое и грамматическое соответствие норме.
+* **3 балла:** Допущено не более 4-5 негрубых лексико-грамматических ошибок И/ИЛИ не более 2 грубых ошибок.
+* **2 балла:** Допущено 5-7 лексико-грамматических ошибок И/ИЛИ 3-4 грубые ошибки.
+* **1 балл:** Допущено более 7 лексико-грамматических ошибок И/ИЛИ 5 и более грубых ошибок.
+* **0 баллов:** Речь невозможно понять из-за многочисленных ошибок.
+**Формат вывода:**
+Предоставь свой ответ в следующем формате. **Если балл по критерию высокий, не нужно подробно расписывать, что сделано хорошо. Сразу переходи к ошибкам и рекомендациям.**
+---
+### **Анализ ответа на Задание 4 ЕГЭ по английскому языку**
+**Общий балл: [Сумма баллов] / 10**
+---
+**1. Решение коммуникативной задачи (РКЗ): [Твой балл] / 4**
+* **Комментарий:** [Кратко обоснуй балл. Если балл снижен, укажи, какой аспект плана из `{task_text}` был упущен или раскрыт неполно.]
+* **Рекомендации:** [Только если балл снижен, напиши, как можно было раскрыть аспект.]
+---
+**2. Организация высказывания (ОВ): [Твой балл] / 3**
+* **Комментарий:** [Если балл снижен, укажи на ошибки в структуре (например, отсутствует вступление) или в использовании слов-связок.]
+* **Рекомендации:** [Только если есть ошибки, дай советы по улучшению логики и связности.]
+---
+**3. Языковое оформление (ЯОВ): [Твой балл] / 3**
+* **Комментарий:** [**Это главный фокус твоего ответа.** Укажи на ВСЕ замеченные лексико-грамматические ошибки, даже если их мало. Для каждой ошибки предложи правильный вариант.]
+    * *Пример:* Ошибка: "In the first picture we can see two friends which are..." -&gt; Правильно: "...two friends who are..."
+* **Рекомендации:** [На какие грамматические темы или лексические единицы пользователю стоит обратить внимание в первую очередь.]</t>
   </si>
   <si>
     <t>{image2}</t>
@@ -2859,7 +2900,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -2885,6 +2926,10 @@
     </font>
     <font>
       <u/>
+      <color rgb="FF0000FF"/>
+    </font>
+    <font>
+      <u/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
@@ -2899,11 +2944,15 @@
     </font>
     <font>
       <u/>
+      <color rgb="FF0000FF"/>
+    </font>
+    <font>
+      <u/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2914,6 +2963,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD9D9D9"/>
         <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCCC"/>
+        <bgColor rgb="FFCCCCCC"/>
       </patternFill>
     </fill>
     <fill>
@@ -2929,7 +2984,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2984,26 +3039,38 @@
     <xf quotePrefix="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="11" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
     <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="11" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -5044,376 +5111,376 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="18" t="s">
         <v>339</v>
       </c>
-      <c r="B31" s="14">
+      <c r="B31" s="18">
         <v>120.0</v>
       </c>
-      <c r="C31" s="15" t="s">
+      <c r="C31" s="19" t="s">
         <v>340</v>
       </c>
-      <c r="D31" s="11" t="s">
+      <c r="D31" s="20" t="s">
         <v>341</v>
       </c>
-      <c r="E31" s="11" t="s">
+      <c r="E31" s="20" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="18" t="s">
         <v>343</v>
       </c>
-      <c r="B32" s="14">
+      <c r="B32" s="18">
         <v>120.0</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C32" s="19" t="s">
         <v>344</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="D32" s="20" t="s">
         <v>345</v>
       </c>
-      <c r="E32" s="11" t="s">
+      <c r="E32" s="20" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="14" t="s">
+      <c r="A33" s="18" t="s">
         <v>347</v>
       </c>
-      <c r="B33" s="14">
+      <c r="B33" s="18">
         <v>120.0</v>
       </c>
-      <c r="C33" s="15" t="s">
+      <c r="C33" s="19" t="s">
         <v>348</v>
       </c>
-      <c r="D33" s="11" t="s">
+      <c r="D33" s="20" t="s">
         <v>349</v>
       </c>
-      <c r="E33" s="11" t="s">
+      <c r="E33" s="20" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="14" t="s">
+      <c r="A34" s="18" t="s">
         <v>351</v>
       </c>
-      <c r="B34" s="14">
+      <c r="B34" s="18">
         <v>120.0</v>
       </c>
-      <c r="C34" s="15" t="s">
+      <c r="C34" s="19" t="s">
         <v>352</v>
       </c>
-      <c r="D34" s="11" t="s">
+      <c r="D34" s="20" t="s">
         <v>353</v>
       </c>
-      <c r="E34" s="11" t="s">
+      <c r="E34" s="20" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="14" t="s">
+      <c r="A35" s="18" t="s">
         <v>355</v>
       </c>
-      <c r="B35" s="14">
+      <c r="B35" s="18">
         <v>120.0</v>
       </c>
-      <c r="C35" s="15" t="s">
+      <c r="C35" s="19" t="s">
         <v>356</v>
       </c>
-      <c r="D35" s="18" t="s">
+      <c r="D35" s="21" t="s">
         <v>357</v>
       </c>
-      <c r="E35" s="18" t="s">
+      <c r="E35" s="21" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="14" t="s">
+      <c r="A36" s="18" t="s">
         <v>359</v>
       </c>
-      <c r="B36" s="14">
+      <c r="B36" s="18">
         <v>120.0</v>
       </c>
-      <c r="C36" s="15" t="s">
+      <c r="C36" s="19" t="s">
         <v>360</v>
       </c>
-      <c r="D36" s="19" t="s">
+      <c r="D36" s="22" t="s">
         <v>361</v>
       </c>
-      <c r="E36" s="19" t="s">
+      <c r="E36" s="22" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="14" t="s">
+      <c r="A37" s="18" t="s">
         <v>363</v>
       </c>
-      <c r="B37" s="14">
+      <c r="B37" s="18">
         <v>120.0</v>
       </c>
-      <c r="C37" s="15" t="s">
+      <c r="C37" s="19" t="s">
         <v>364</v>
       </c>
-      <c r="D37" s="19" t="s">
+      <c r="D37" s="22" t="s">
         <v>365</v>
       </c>
-      <c r="E37" s="19" t="s">
+      <c r="E37" s="22" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="14" t="s">
+      <c r="A38" s="18" t="s">
         <v>367</v>
       </c>
-      <c r="B38" s="14">
+      <c r="B38" s="18">
         <v>120.0</v>
       </c>
-      <c r="C38" s="15" t="s">
+      <c r="C38" s="19" t="s">
         <v>368</v>
       </c>
-      <c r="D38" s="18" t="s">
+      <c r="D38" s="21" t="s">
         <v>369</v>
       </c>
-      <c r="E38" s="18" t="s">
+      <c r="E38" s="21" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="14" t="s">
+      <c r="A39" s="18" t="s">
         <v>371</v>
       </c>
-      <c r="B39" s="14">
+      <c r="B39" s="18">
         <v>120.0</v>
       </c>
-      <c r="C39" s="15" t="s">
+      <c r="C39" s="19" t="s">
         <v>372</v>
       </c>
-      <c r="D39" s="18" t="s">
+      <c r="D39" s="21" t="s">
         <v>373</v>
       </c>
-      <c r="E39" s="18" t="s">
+      <c r="E39" s="21" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="14" t="s">
+      <c r="A40" s="18" t="s">
         <v>375</v>
       </c>
-      <c r="B40" s="14">
+      <c r="B40" s="18">
         <v>120.0</v>
       </c>
-      <c r="C40" s="15" t="s">
+      <c r="C40" s="19" t="s">
         <v>376</v>
       </c>
-      <c r="D40" s="18" t="s">
+      <c r="D40" s="21" t="s">
         <v>377</v>
       </c>
-      <c r="E40" s="18" t="s">
+      <c r="E40" s="21" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="14" t="s">
+      <c r="A41" s="18" t="s">
         <v>379</v>
       </c>
-      <c r="B41" s="14">
+      <c r="B41" s="18">
         <v>120.0</v>
       </c>
-      <c r="C41" s="15" t="s">
+      <c r="C41" s="19" t="s">
         <v>380</v>
       </c>
-      <c r="D41" s="18" t="s">
+      <c r="D41" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="E41" s="18" t="s">
+      <c r="E41" s="21" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="14" t="s">
+      <c r="A42" s="18" t="s">
         <v>383</v>
       </c>
-      <c r="B42" s="14">
+      <c r="B42" s="18">
         <v>120.0</v>
       </c>
-      <c r="C42" s="15" t="s">
+      <c r="C42" s="19" t="s">
         <v>384</v>
       </c>
-      <c r="D42" s="19" t="s">
+      <c r="D42" s="22" t="s">
         <v>385</v>
       </c>
-      <c r="E42" s="19" t="s">
+      <c r="E42" s="22" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="14" t="s">
+      <c r="A43" s="18" t="s">
         <v>387</v>
       </c>
-      <c r="B43" s="14">
+      <c r="B43" s="18">
         <v>120.0</v>
       </c>
-      <c r="C43" s="15" t="s">
+      <c r="C43" s="19" t="s">
         <v>384</v>
       </c>
-      <c r="D43" s="18" t="s">
+      <c r="D43" s="21" t="s">
         <v>388</v>
       </c>
-      <c r="E43" s="18" t="s">
+      <c r="E43" s="21" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="14" t="s">
+      <c r="A44" s="18" t="s">
         <v>390</v>
       </c>
-      <c r="B44" s="14">
+      <c r="B44" s="18">
         <v>120.0</v>
       </c>
-      <c r="C44" s="15" t="s">
+      <c r="C44" s="19" t="s">
         <v>391</v>
       </c>
-      <c r="D44" s="18" t="s">
+      <c r="D44" s="21" t="s">
         <v>392</v>
       </c>
-      <c r="E44" s="18" t="s">
+      <c r="E44" s="21" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="14" t="s">
+      <c r="A45" s="18" t="s">
         <v>394</v>
       </c>
-      <c r="B45" s="14">
+      <c r="B45" s="18">
         <v>120.0</v>
       </c>
-      <c r="C45" s="15" t="s">
+      <c r="C45" s="19" t="s">
         <v>395</v>
       </c>
-      <c r="D45" s="18" t="s">
+      <c r="D45" s="21" t="s">
         <v>396</v>
       </c>
-      <c r="E45" s="18" t="s">
+      <c r="E45" s="21" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="14" t="s">
+      <c r="A46" s="18" t="s">
         <v>398</v>
       </c>
-      <c r="B46" s="14">
+      <c r="B46" s="18">
         <v>120.0</v>
       </c>
-      <c r="C46" s="15" t="s">
+      <c r="C46" s="19" t="s">
         <v>399</v>
       </c>
-      <c r="D46" s="18" t="s">
+      <c r="D46" s="21" t="s">
         <v>400</v>
       </c>
-      <c r="E46" s="18" t="s">
+      <c r="E46" s="21" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="14" t="s">
+      <c r="A47" s="18" t="s">
         <v>402</v>
       </c>
-      <c r="B47" s="14">
+      <c r="B47" s="18">
         <v>120.0</v>
       </c>
-      <c r="C47" s="15" t="s">
+      <c r="C47" s="19" t="s">
         <v>403</v>
       </c>
-      <c r="D47" s="11" t="s">
+      <c r="D47" s="20" t="s">
         <v>404</v>
       </c>
-      <c r="E47" s="11" t="s">
+      <c r="E47" s="20" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="14" t="s">
+      <c r="A48" s="18" t="s">
         <v>406</v>
       </c>
-      <c r="B48" s="14">
+      <c r="B48" s="18">
         <v>120.0</v>
       </c>
-      <c r="C48" s="15" t="s">
+      <c r="C48" s="19" t="s">
         <v>407</v>
       </c>
-      <c r="D48" s="11" t="s">
+      <c r="D48" s="20" t="s">
         <v>408</v>
       </c>
-      <c r="E48" s="11" t="s">
+      <c r="E48" s="20" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="14" t="s">
+      <c r="A49" s="18" t="s">
         <v>410</v>
       </c>
-      <c r="B49" s="14">
+      <c r="B49" s="18">
         <v>120.0</v>
       </c>
-      <c r="C49" s="15" t="s">
+      <c r="C49" s="19" t="s">
         <v>411</v>
       </c>
-      <c r="D49" s="11" t="s">
+      <c r="D49" s="20" t="s">
         <v>412</v>
       </c>
-      <c r="E49" s="11" t="s">
+      <c r="E49" s="20" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="14" t="s">
+      <c r="A50" s="18" t="s">
         <v>414</v>
       </c>
-      <c r="B50" s="14">
+      <c r="B50" s="18">
         <v>120.0</v>
       </c>
-      <c r="C50" s="15" t="s">
+      <c r="C50" s="19" t="s">
         <v>415</v>
       </c>
-      <c r="D50" s="16" t="s">
+      <c r="D50" s="23" t="s">
         <v>416</v>
       </c>
-      <c r="E50" s="16" t="s">
+      <c r="E50" s="23" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="14" t="s">
+      <c r="A51" s="18" t="s">
         <v>418</v>
       </c>
-      <c r="B51" s="14">
+      <c r="B51" s="18">
         <v>120.0</v>
       </c>
-      <c r="C51" s="15" t="s">
+      <c r="C51" s="19" t="s">
         <v>419</v>
       </c>
-      <c r="D51" s="11" t="s">
+      <c r="D51" s="20" t="s">
         <v>420</v>
       </c>
-      <c r="E51" s="11" t="s">
+      <c r="E51" s="20" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="14" t="s">
+      <c r="A52" s="18" t="s">
         <v>422</v>
       </c>
-      <c r="B52" s="14">
+      <c r="B52" s="18">
         <v>120.0</v>
       </c>
-      <c r="C52" s="15" t="s">
+      <c r="C52" s="19" t="s">
         <v>423</v>
       </c>
-      <c r="D52" s="16" t="s">
+      <c r="D52" s="23" t="s">
         <v>424</v>
       </c>
-      <c r="E52" s="16" t="s">
+      <c r="E52" s="23" t="s">
         <v>425</v>
       </c>
     </row>
@@ -5548,7 +5615,7 @@
       <c r="B1" s="15" t="s">
         <v>426</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="24" t="s">
         <v>427</v>
       </c>
     </row>
@@ -5559,7 +5626,7 @@
       <c r="B2" s="15" t="s">
         <v>426</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="24" t="s">
         <v>428</v>
       </c>
     </row>
@@ -5570,7 +5637,7 @@
       <c r="B3" s="15" t="s">
         <v>426</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="24" t="s">
         <v>429</v>
       </c>
     </row>
@@ -5581,7 +5648,7 @@
       <c r="B4" s="15" t="s">
         <v>426</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="24" t="s">
         <v>430</v>
       </c>
     </row>
@@ -5592,7 +5659,7 @@
       <c r="B5" s="15" t="s">
         <v>426</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="24" t="s">
         <v>431</v>
       </c>
     </row>
@@ -5603,7 +5670,7 @@
       <c r="B6" s="15" t="s">
         <v>426</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="24" t="s">
         <v>432</v>
       </c>
     </row>
@@ -5614,7 +5681,7 @@
       <c r="B7" s="15" t="s">
         <v>426</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="24" t="s">
         <v>433</v>
       </c>
     </row>
@@ -5625,7 +5692,7 @@
       <c r="B8" s="15" t="s">
         <v>426</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="24" t="s">
         <v>434</v>
       </c>
     </row>
@@ -5636,7 +5703,7 @@
       <c r="B9" s="15" t="s">
         <v>426</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="24" t="s">
         <v>435</v>
       </c>
     </row>
@@ -5647,7 +5714,7 @@
       <c r="B10" s="15" t="s">
         <v>426</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="24" t="s">
         <v>436</v>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
       <c r="B11" s="15" t="s">
         <v>426</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="24" t="s">
         <v>437</v>
       </c>
     </row>
@@ -5669,7 +5736,7 @@
       <c r="B12" s="15" t="s">
         <v>426</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="24" t="s">
         <v>438</v>
       </c>
     </row>
@@ -5680,7 +5747,7 @@
       <c r="B13" s="15" t="s">
         <v>426</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="24" t="s">
         <v>439</v>
       </c>
     </row>
@@ -5691,7 +5758,7 @@
       <c r="B14" s="15" t="s">
         <v>426</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="24" t="s">
         <v>440</v>
       </c>
     </row>
@@ -5702,7 +5769,7 @@
       <c r="B15" s="15" t="s">
         <v>426</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="24" t="s">
         <v>441</v>
       </c>
     </row>
@@ -5713,7 +5780,7 @@
       <c r="B16" s="15" t="s">
         <v>426</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="24" t="s">
         <v>442</v>
       </c>
     </row>
@@ -5724,7 +5791,7 @@
       <c r="B17" s="15" t="s">
         <v>426</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="24" t="s">
         <v>443</v>
       </c>
     </row>
@@ -5735,7 +5802,7 @@
       <c r="B18" s="15" t="s">
         <v>426</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="24" t="s">
         <v>444</v>
       </c>
     </row>
@@ -5746,7 +5813,7 @@
       <c r="B19" s="15" t="s">
         <v>426</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="24" t="s">
         <v>445</v>
       </c>
     </row>
@@ -5757,7 +5824,7 @@
       <c r="B20" s="15" t="s">
         <v>426</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="24" t="s">
         <v>446</v>
       </c>
     </row>
@@ -5768,7 +5835,7 @@
       <c r="B21" s="15" t="s">
         <v>426</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="24" t="s">
         <v>447</v>
       </c>
     </row>
@@ -5779,7 +5846,7 @@
       <c r="B22" s="15" t="s">
         <v>426</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="24" t="s">
         <v>448</v>
       </c>
     </row>
@@ -5790,7 +5857,7 @@
       <c r="B23" s="15" t="s">
         <v>426</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="24" t="s">
         <v>449</v>
       </c>
     </row>
@@ -5801,7 +5868,7 @@
       <c r="B24" s="15" t="s">
         <v>426</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="24" t="s">
         <v>450</v>
       </c>
     </row>
@@ -5812,7 +5879,7 @@
       <c r="B25" s="15" t="s">
         <v>426</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="C25" s="24" t="s">
         <v>451</v>
       </c>
     </row>
@@ -5823,7 +5890,7 @@
       <c r="B26" s="15" t="s">
         <v>426</v>
       </c>
-      <c r="C26" s="20" t="s">
+      <c r="C26" s="24" t="s">
         <v>452</v>
       </c>
     </row>
@@ -5834,7 +5901,7 @@
       <c r="B27" s="15" t="s">
         <v>426</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="C27" s="24" t="s">
         <v>453</v>
       </c>
     </row>
@@ -5845,7 +5912,7 @@
       <c r="B28" s="15" t="s">
         <v>426</v>
       </c>
-      <c r="C28" s="20" t="s">
+      <c r="C28" s="24" t="s">
         <v>454</v>
       </c>
     </row>
@@ -5856,7 +5923,7 @@
       <c r="B29" s="15" t="s">
         <v>426</v>
       </c>
-      <c r="C29" s="20" t="s">
+      <c r="C29" s="24" t="s">
         <v>455</v>
       </c>
     </row>
@@ -5867,7 +5934,7 @@
       <c r="B30" s="15" t="s">
         <v>426</v>
       </c>
-      <c r="C30" s="20" t="s">
+      <c r="C30" s="24" t="s">
         <v>456</v>
       </c>
     </row>
@@ -5878,7 +5945,7 @@
       <c r="B31" s="15" t="s">
         <v>426</v>
       </c>
-      <c r="C31" s="20" t="s">
+      <c r="C31" s="24" t="s">
         <v>457</v>
       </c>
     </row>
@@ -5889,7 +5956,7 @@
       <c r="B32" s="15" t="s">
         <v>426</v>
       </c>
-      <c r="C32" s="20" t="s">
+      <c r="C32" s="24" t="s">
         <v>458</v>
       </c>
     </row>
@@ -5900,7 +5967,7 @@
       <c r="B33" s="15" t="s">
         <v>426</v>
       </c>
-      <c r="C33" s="20" t="s">
+      <c r="C33" s="24" t="s">
         <v>459</v>
       </c>
     </row>
@@ -5911,7 +5978,7 @@
       <c r="B34" s="15" t="s">
         <v>426</v>
       </c>
-      <c r="C34" s="20" t="s">
+      <c r="C34" s="24" t="s">
         <v>460</v>
       </c>
     </row>
@@ -5922,7 +5989,7 @@
       <c r="B35" s="15" t="s">
         <v>426</v>
       </c>
-      <c r="C35" s="20" t="s">
+      <c r="C35" s="24" t="s">
         <v>461</v>
       </c>
     </row>
@@ -5933,7 +6000,7 @@
       <c r="B36" s="15" t="s">
         <v>426</v>
       </c>
-      <c r="C36" s="20" t="s">
+      <c r="C36" s="24" t="s">
         <v>462</v>
       </c>
     </row>
@@ -5944,7 +6011,7 @@
       <c r="B37" s="15" t="s">
         <v>426</v>
       </c>
-      <c r="C37" s="20" t="s">
+      <c r="C37" s="24" t="s">
         <v>463</v>
       </c>
     </row>
@@ -5955,7 +6022,7 @@
       <c r="B38" s="15" t="s">
         <v>426</v>
       </c>
-      <c r="C38" s="20" t="s">
+      <c r="C38" s="24" t="s">
         <v>464</v>
       </c>
     </row>
@@ -5966,7 +6033,7 @@
       <c r="B39" s="15" t="s">
         <v>426</v>
       </c>
-      <c r="C39" s="20" t="s">
+      <c r="C39" s="24" t="s">
         <v>465</v>
       </c>
     </row>
@@ -5977,7 +6044,7 @@
       <c r="B40" s="15" t="s">
         <v>426</v>
       </c>
-      <c r="C40" s="20" t="s">
+      <c r="C40" s="24" t="s">
         <v>466</v>
       </c>
     </row>
@@ -5988,7 +6055,7 @@
       <c r="B41" s="15" t="s">
         <v>426</v>
       </c>
-      <c r="C41" s="20" t="s">
+      <c r="C41" s="24" t="s">
         <v>467</v>
       </c>
     </row>
@@ -5999,18 +6066,18 @@
       <c r="B42" s="15" t="s">
         <v>426</v>
       </c>
-      <c r="C42" s="20" t="s">
+      <c r="C42" s="24" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="21">
+      <c r="A43" s="25">
         <v>5.15E90</v>
       </c>
       <c r="B43" s="15" t="s">
         <v>426</v>
       </c>
-      <c r="C43" s="20" t="s">
+      <c r="C43" s="24" t="s">
         <v>469</v>
       </c>
     </row>
@@ -6021,7 +6088,7 @@
       <c r="B44" s="15" t="s">
         <v>426</v>
       </c>
-      <c r="C44" s="20" t="s">
+      <c r="C44" s="24" t="s">
         <v>470</v>
       </c>
     </row>
@@ -6032,21 +6099,21 @@
       <c r="B45" s="15" t="s">
         <v>426</v>
       </c>
-      <c r="C45" s="20" t="s">
+      <c r="C45" s="24" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="46" ht="45.75" customHeight="1">
-      <c r="A46" s="22"/>
-      <c r="B46" s="23"/>
-      <c r="C46" s="23"/>
-      <c r="D46" s="24"/>
-      <c r="E46" s="24"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="24"/>
-      <c r="H46" s="24"/>
-      <c r="I46" s="24"/>
-      <c r="J46" s="24"/>
+      <c r="A46" s="26"/>
+      <c r="B46" s="27"/>
+      <c r="C46" s="27"/>
+      <c r="D46" s="28"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="28"/>
+      <c r="H46" s="28"/>
+      <c r="I46" s="28"/>
+      <c r="J46" s="28"/>
     </row>
     <row r="47">
       <c r="A47" s="14" t="s">
@@ -6055,24 +6122,24 @@
       <c r="B47" s="15" t="s">
         <v>472</v>
       </c>
-      <c r="C47" s="20" t="s">
+      <c r="C47" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="D47" s="25" t="s">
+      <c r="D47" s="29" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="21">
+      <c r="A48" s="25">
         <v>2.81E34</v>
       </c>
       <c r="B48" s="15" t="s">
         <v>474</v>
       </c>
-      <c r="C48" s="20" t="s">
+      <c r="C48" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="D48" s="25" t="s">
+      <c r="D48" s="29" t="s">
         <v>475</v>
       </c>
     </row>
@@ -6083,10 +6150,10 @@
       <c r="B49" s="15" t="s">
         <v>476</v>
       </c>
-      <c r="C49" s="20" t="s">
+      <c r="C49" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="D49" s="25" t="s">
+      <c r="D49" s="29" t="s">
         <v>477</v>
       </c>
     </row>
@@ -6097,10 +6164,10 @@
       <c r="B50" s="15" t="s">
         <v>478</v>
       </c>
-      <c r="C50" s="20" t="s">
+      <c r="C50" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="D50" s="25" t="s">
+      <c r="D50" s="29" t="s">
         <v>479</v>
       </c>
     </row>
@@ -6111,10 +6178,10 @@
       <c r="B51" s="15" t="s">
         <v>480</v>
       </c>
-      <c r="C51" s="20" t="s">
+      <c r="C51" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="D51" s="25" t="s">
+      <c r="D51" s="29" t="s">
         <v>481</v>
       </c>
     </row>
@@ -6125,10 +6192,10 @@
       <c r="B52" s="15" t="s">
         <v>482</v>
       </c>
-      <c r="C52" s="20" t="s">
+      <c r="C52" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="D52" s="25" t="s">
+      <c r="D52" s="29" t="s">
         <v>483</v>
       </c>
     </row>
@@ -6139,10 +6206,10 @@
       <c r="B53" s="15" t="s">
         <v>484</v>
       </c>
-      <c r="C53" s="20" t="s">
+      <c r="C53" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="D53" s="25" t="s">
+      <c r="D53" s="29" t="s">
         <v>485</v>
       </c>
     </row>
@@ -6153,10 +6220,10 @@
       <c r="B54" s="15" t="s">
         <v>486</v>
       </c>
-      <c r="C54" s="20" t="s">
+      <c r="C54" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="D54" s="25" t="s">
+      <c r="D54" s="29" t="s">
         <v>487</v>
       </c>
     </row>
@@ -6167,10 +6234,10 @@
       <c r="B55" s="15" t="s">
         <v>488</v>
       </c>
-      <c r="C55" s="20" t="s">
+      <c r="C55" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="D55" s="25" t="s">
+      <c r="D55" s="29" t="s">
         <v>489</v>
       </c>
     </row>
@@ -6181,10 +6248,10 @@
       <c r="B56" s="15" t="s">
         <v>490</v>
       </c>
-      <c r="C56" s="20" t="s">
+      <c r="C56" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="D56" s="25" t="s">
+      <c r="D56" s="29" t="s">
         <v>491</v>
       </c>
     </row>
@@ -6195,10 +6262,10 @@
       <c r="B57" s="15" t="s">
         <v>492</v>
       </c>
-      <c r="C57" s="20" t="s">
+      <c r="C57" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="D57" s="25" t="s">
+      <c r="D57" s="29" t="s">
         <v>493</v>
       </c>
     </row>
@@ -6209,10 +6276,10 @@
       <c r="B58" s="15" t="s">
         <v>494</v>
       </c>
-      <c r="C58" s="20" t="s">
+      <c r="C58" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="D58" s="25" t="s">
+      <c r="D58" s="29" t="s">
         <v>495</v>
       </c>
     </row>
@@ -6223,10 +6290,10 @@
       <c r="B59" s="15" t="s">
         <v>496</v>
       </c>
-      <c r="C59" s="20" t="s">
+      <c r="C59" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="D59" s="25" t="s">
+      <c r="D59" s="29" t="s">
         <v>497</v>
       </c>
     </row>
@@ -6237,10 +6304,10 @@
       <c r="B60" s="15" t="s">
         <v>498</v>
       </c>
-      <c r="C60" s="20" t="s">
+      <c r="C60" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="D60" s="25" t="s">
+      <c r="D60" s="29" t="s">
         <v>499</v>
       </c>
     </row>
@@ -6251,10 +6318,10 @@
       <c r="B61" s="15" t="s">
         <v>500</v>
       </c>
-      <c r="C61" s="20" t="s">
+      <c r="C61" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="D61" s="25" t="s">
+      <c r="D61" s="29" t="s">
         <v>501</v>
       </c>
     </row>
@@ -6265,10 +6332,10 @@
       <c r="B62" s="15" t="s">
         <v>502</v>
       </c>
-      <c r="C62" s="20" t="s">
+      <c r="C62" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="D62" s="25" t="s">
+      <c r="D62" s="29" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6279,24 +6346,24 @@
       <c r="B63" s="15" t="s">
         <v>504</v>
       </c>
-      <c r="C63" s="20" t="s">
+      <c r="C63" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="D63" s="25" t="s">
+      <c r="D63" s="29" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="21">
+      <c r="A64" s="25">
         <v>7.8E70</v>
       </c>
       <c r="B64" s="15" t="s">
         <v>506</v>
       </c>
-      <c r="C64" s="20" t="s">
+      <c r="C64" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="D64" s="25" t="s">
+      <c r="D64" s="29" t="s">
         <v>507</v>
       </c>
     </row>
@@ -6307,10 +6374,10 @@
       <c r="B65" s="15" t="s">
         <v>508</v>
       </c>
-      <c r="C65" s="20" t="s">
+      <c r="C65" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="D65" s="25" t="s">
+      <c r="D65" s="29" t="s">
         <v>509</v>
       </c>
     </row>
@@ -6321,10 +6388,10 @@
       <c r="B66" s="15" t="s">
         <v>510</v>
       </c>
-      <c r="C66" s="20" t="s">
+      <c r="C66" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="D66" s="25" t="s">
+      <c r="D66" s="29" t="s">
         <v>511</v>
       </c>
     </row>
@@ -6335,10 +6402,10 @@
       <c r="B67" s="15" t="s">
         <v>512</v>
       </c>
-      <c r="C67" s="20" t="s">
+      <c r="C67" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="D67" s="25" t="s">
+      <c r="D67" s="29" t="s">
         <v>513</v>
       </c>
     </row>
@@ -6349,10 +6416,10 @@
       <c r="B68" s="15" t="s">
         <v>514</v>
       </c>
-      <c r="C68" s="20" t="s">
+      <c r="C68" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="D68" s="25" t="s">
+      <c r="D68" s="29" t="s">
         <v>515</v>
       </c>
     </row>
@@ -6363,10 +6430,10 @@
       <c r="B69" s="15" t="s">
         <v>516</v>
       </c>
-      <c r="C69" s="20" t="s">
+      <c r="C69" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="D69" s="25" t="s">
+      <c r="D69" s="29" t="s">
         <v>517</v>
       </c>
     </row>
@@ -6377,10 +6444,10 @@
       <c r="B70" s="15" t="s">
         <v>518</v>
       </c>
-      <c r="C70" s="20" t="s">
+      <c r="C70" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="D70" s="25" t="s">
+      <c r="D70" s="29" t="s">
         <v>519</v>
       </c>
     </row>
@@ -6391,10 +6458,10 @@
       <c r="B71" s="15" t="s">
         <v>520</v>
       </c>
-      <c r="C71" s="20" t="s">
+      <c r="C71" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="D71" s="25" t="s">
+      <c r="D71" s="29" t="s">
         <v>521</v>
       </c>
     </row>
@@ -6405,10 +6472,10 @@
       <c r="B72" s="15" t="s">
         <v>522</v>
       </c>
-      <c r="C72" s="20" t="s">
+      <c r="C72" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="D72" s="25" t="s">
+      <c r="D72" s="29" t="s">
         <v>523</v>
       </c>
     </row>
@@ -6419,10 +6486,10 @@
       <c r="B73" s="15" t="s">
         <v>524</v>
       </c>
-      <c r="C73" s="20" t="s">
+      <c r="C73" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="D73" s="25" t="s">
+      <c r="D73" s="29" t="s">
         <v>525</v>
       </c>
     </row>
@@ -6433,10 +6500,10 @@
       <c r="B74" s="15" t="s">
         <v>526</v>
       </c>
-      <c r="C74" s="20" t="s">
+      <c r="C74" s="24" t="s">
         <v>175</v>
       </c>
-      <c r="D74" s="25" t="s">
+      <c r="D74" s="29" t="s">
         <v>527</v>
       </c>
     </row>
@@ -6447,10 +6514,10 @@
       <c r="B75" s="15" t="s">
         <v>528</v>
       </c>
-      <c r="C75" s="20" t="s">
+      <c r="C75" s="24" t="s">
         <v>177</v>
       </c>
-      <c r="D75" s="25" t="s">
+      <c r="D75" s="29" t="s">
         <v>529</v>
       </c>
     </row>
@@ -6461,10 +6528,10 @@
       <c r="B76" s="15" t="s">
         <v>530</v>
       </c>
-      <c r="C76" s="20" t="s">
+      <c r="C76" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="D76" s="25" t="s">
+      <c r="D76" s="29" t="s">
         <v>531</v>
       </c>
     </row>
@@ -6475,10 +6542,10 @@
       <c r="B77" s="15" t="s">
         <v>532</v>
       </c>
-      <c r="C77" s="20" t="s">
+      <c r="C77" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="D77" s="25" t="s">
+      <c r="D77" s="29" t="s">
         <v>533</v>
       </c>
     </row>
@@ -6489,10 +6556,10 @@
       <c r="B78" s="15" t="s">
         <v>534</v>
       </c>
-      <c r="C78" s="20" t="s">
+      <c r="C78" s="24" t="s">
         <v>186</v>
       </c>
-      <c r="D78" s="25" t="s">
+      <c r="D78" s="29" t="s">
         <v>535</v>
       </c>
     </row>
@@ -6503,10 +6570,10 @@
       <c r="B79" s="15" t="s">
         <v>536</v>
       </c>
-      <c r="C79" s="20" t="s">
+      <c r="C79" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="D79" s="25" t="s">
+      <c r="D79" s="29" t="s">
         <v>537</v>
       </c>
     </row>
@@ -6517,10 +6584,10 @@
       <c r="B80" s="15" t="s">
         <v>538</v>
       </c>
-      <c r="C80" s="20" t="s">
+      <c r="C80" s="24" t="s">
         <v>192</v>
       </c>
-      <c r="D80" s="25" t="s">
+      <c r="D80" s="29" t="s">
         <v>539</v>
       </c>
     </row>
@@ -6531,10 +6598,10 @@
       <c r="B81" s="15" t="s">
         <v>540</v>
       </c>
-      <c r="C81" s="20" t="s">
+      <c r="C81" s="24" t="s">
         <v>195</v>
       </c>
-      <c r="D81" s="25" t="s">
+      <c r="D81" s="29" t="s">
         <v>541</v>
       </c>
     </row>
@@ -6545,10 +6612,10 @@
       <c r="B82" s="15" t="s">
         <v>542</v>
       </c>
-      <c r="C82" s="20" t="s">
+      <c r="C82" s="24" t="s">
         <v>198</v>
       </c>
-      <c r="D82" s="25" t="s">
+      <c r="D82" s="29" t="s">
         <v>543</v>
       </c>
     </row>
@@ -6559,10 +6626,10 @@
       <c r="B83" s="15" t="s">
         <v>544</v>
       </c>
-      <c r="C83" s="20" t="s">
+      <c r="C83" s="24" t="s">
         <v>201</v>
       </c>
-      <c r="D83" s="25" t="s">
+      <c r="D83" s="29" t="s">
         <v>545</v>
       </c>
     </row>
@@ -6573,10 +6640,10 @@
       <c r="B84" s="15" t="s">
         <v>546</v>
       </c>
-      <c r="C84" s="20" t="s">
+      <c r="C84" s="24" t="s">
         <v>204</v>
       </c>
-      <c r="D84" s="25" t="s">
+      <c r="D84" s="29" t="s">
         <v>547</v>
       </c>
     </row>
@@ -6587,10 +6654,10 @@
       <c r="B85" s="15" t="s">
         <v>548</v>
       </c>
-      <c r="C85" s="20" t="s">
+      <c r="C85" s="24" t="s">
         <v>207</v>
       </c>
-      <c r="D85" s="25" t="s">
+      <c r="D85" s="29" t="s">
         <v>549</v>
       </c>
     </row>
@@ -6601,10 +6668,10 @@
       <c r="B86" s="15" t="s">
         <v>550</v>
       </c>
-      <c r="C86" s="20" t="s">
+      <c r="C86" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="D86" s="25" t="s">
+      <c r="D86" s="29" t="s">
         <v>551</v>
       </c>
     </row>
@@ -6615,10 +6682,10 @@
       <c r="B87" s="15" t="s">
         <v>552</v>
       </c>
-      <c r="C87" s="20" t="s">
+      <c r="C87" s="24" t="s">
         <v>213</v>
       </c>
-      <c r="D87" s="25" t="s">
+      <c r="D87" s="29" t="s">
         <v>553</v>
       </c>
     </row>
@@ -6629,10 +6696,10 @@
       <c r="B88" s="15" t="s">
         <v>554</v>
       </c>
-      <c r="C88" s="20" t="s">
+      <c r="C88" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="D88" s="25" t="s">
+      <c r="D88" s="29" t="s">
         <v>555</v>
       </c>
     </row>
@@ -6643,10 +6710,10 @@
       <c r="B89" s="15" t="s">
         <v>556</v>
       </c>
-      <c r="C89" s="20" t="s">
+      <c r="C89" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="D89" s="25" t="s">
+      <c r="D89" s="29" t="s">
         <v>557</v>
       </c>
     </row>
@@ -6657,10 +6724,10 @@
       <c r="B90" s="15" t="s">
         <v>558</v>
       </c>
-      <c r="C90" s="20" t="s">
+      <c r="C90" s="24" t="s">
         <v>222</v>
       </c>
-      <c r="D90" s="25" t="s">
+      <c r="D90" s="29" t="s">
         <v>559</v>
       </c>
     </row>
@@ -6671,24 +6738,24 @@
       <c r="B91" s="15" t="s">
         <v>560</v>
       </c>
-      <c r="C91" s="20" t="s">
+      <c r="C91" s="24" t="s">
         <v>225</v>
       </c>
-      <c r="D91" s="25" t="s">
+      <c r="D91" s="29" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="92" ht="54.0" customHeight="1">
-      <c r="A92" s="22"/>
-      <c r="B92" s="23"/>
-      <c r="C92" s="23"/>
-      <c r="D92" s="24"/>
-      <c r="E92" s="24"/>
-      <c r="F92" s="24"/>
-      <c r="G92" s="24"/>
-      <c r="H92" s="24"/>
-      <c r="I92" s="24"/>
-      <c r="J92" s="24"/>
+      <c r="A92" s="26"/>
+      <c r="B92" s="27"/>
+      <c r="C92" s="27"/>
+      <c r="D92" s="28"/>
+      <c r="E92" s="28"/>
+      <c r="F92" s="28"/>
+      <c r="G92" s="28"/>
+      <c r="H92" s="28"/>
+      <c r="I92" s="28"/>
+      <c r="J92" s="28"/>
     </row>
     <row r="93">
       <c r="A93" s="14" t="s">
@@ -6697,13 +6764,13 @@
       <c r="B93" s="15" t="s">
         <v>563</v>
       </c>
-      <c r="C93" s="20" t="s">
+      <c r="C93" s="24" t="s">
         <v>564</v>
       </c>
-      <c r="D93" s="20" t="s">
+      <c r="D93" s="24" t="s">
         <v>565</v>
       </c>
-      <c r="E93" s="20" t="s">
+      <c r="E93" s="24" t="s">
         <v>566</v>
       </c>
     </row>
@@ -6714,13 +6781,13 @@
       <c r="B94" s="15" t="s">
         <v>563</v>
       </c>
-      <c r="C94" s="20" t="s">
+      <c r="C94" s="24" t="s">
         <v>568</v>
       </c>
-      <c r="D94" s="20" t="s">
+      <c r="D94" s="24" t="s">
         <v>569</v>
       </c>
-      <c r="E94" s="20" t="s">
+      <c r="E94" s="24" t="s">
         <v>570</v>
       </c>
     </row>
@@ -6731,13 +6798,13 @@
       <c r="B95" s="15" t="s">
         <v>563</v>
       </c>
-      <c r="C95" s="20" t="s">
+      <c r="C95" s="24" t="s">
         <v>572</v>
       </c>
-      <c r="D95" s="20" t="s">
+      <c r="D95" s="24" t="s">
         <v>573</v>
       </c>
-      <c r="E95" s="20" t="s">
+      <c r="E95" s="24" t="s">
         <v>574</v>
       </c>
     </row>
@@ -6748,13 +6815,13 @@
       <c r="B96" s="15" t="s">
         <v>563</v>
       </c>
-      <c r="C96" s="20" t="s">
+      <c r="C96" s="24" t="s">
         <v>576</v>
       </c>
-      <c r="D96" s="20" t="s">
+      <c r="D96" s="24" t="s">
         <v>577</v>
       </c>
-      <c r="E96" s="20" t="s">
+      <c r="E96" s="24" t="s">
         <v>578</v>
       </c>
     </row>
@@ -6765,16 +6832,16 @@
       <c r="B97" s="15" t="s">
         <v>580</v>
       </c>
-      <c r="C97" s="20" t="s">
+      <c r="C97" s="24" t="s">
         <v>581</v>
       </c>
-      <c r="D97" s="20" t="s">
+      <c r="D97" s="24" t="s">
         <v>582</v>
       </c>
-      <c r="E97" s="20" t="s">
+      <c r="E97" s="24" t="s">
         <v>583</v>
       </c>
-      <c r="F97" s="20" t="s">
+      <c r="F97" s="24" t="s">
         <v>584</v>
       </c>
       <c r="G97" s="15"/>
@@ -6789,16 +6856,16 @@
       <c r="B98" s="15" t="s">
         <v>580</v>
       </c>
-      <c r="C98" s="20" t="s">
+      <c r="C98" s="24" t="s">
         <v>586</v>
       </c>
-      <c r="D98" s="20" t="s">
+      <c r="D98" s="24" t="s">
         <v>587</v>
       </c>
-      <c r="E98" s="20" t="s">
+      <c r="E98" s="24" t="s">
         <v>588</v>
       </c>
-      <c r="F98" s="20" t="s">
+      <c r="F98" s="24" t="s">
         <v>589</v>
       </c>
       <c r="G98" s="15"/>
@@ -6813,16 +6880,16 @@
       <c r="B99" s="15" t="s">
         <v>580</v>
       </c>
-      <c r="C99" s="20" t="s">
+      <c r="C99" s="24" t="s">
         <v>591</v>
       </c>
-      <c r="D99" s="20" t="s">
+      <c r="D99" s="24" t="s">
         <v>592</v>
       </c>
-      <c r="E99" s="20" t="s">
+      <c r="E99" s="24" t="s">
         <v>593</v>
       </c>
-      <c r="F99" s="20" t="s">
+      <c r="F99" s="24" t="s">
         <v>594</v>
       </c>
       <c r="G99" s="15"/>
@@ -6837,16 +6904,16 @@
       <c r="B100" s="15" t="s">
         <v>580</v>
       </c>
-      <c r="C100" s="20" t="s">
+      <c r="C100" s="24" t="s">
         <v>596</v>
       </c>
-      <c r="D100" s="20" t="s">
+      <c r="D100" s="24" t="s">
         <v>597</v>
       </c>
-      <c r="E100" s="20" t="s">
+      <c r="E100" s="24" t="s">
         <v>598</v>
       </c>
-      <c r="F100" s="20" t="s">
+      <c r="F100" s="24" t="s">
         <v>599</v>
       </c>
       <c r="G100" s="15"/>
@@ -6861,16 +6928,16 @@
       <c r="B101" s="15" t="s">
         <v>580</v>
       </c>
-      <c r="C101" s="20" t="s">
+      <c r="C101" s="24" t="s">
         <v>601</v>
       </c>
-      <c r="D101" s="20" t="s">
+      <c r="D101" s="24" t="s">
         <v>602</v>
       </c>
-      <c r="E101" s="20" t="s">
+      <c r="E101" s="24" t="s">
         <v>603</v>
       </c>
-      <c r="F101" s="20" t="s">
+      <c r="F101" s="24" t="s">
         <v>604</v>
       </c>
       <c r="G101" s="15"/>
@@ -6885,16 +6952,16 @@
       <c r="B102" s="15" t="s">
         <v>580</v>
       </c>
-      <c r="C102" s="20" t="s">
+      <c r="C102" s="24" t="s">
         <v>605</v>
       </c>
-      <c r="D102" s="20" t="s">
+      <c r="D102" s="24" t="s">
         <v>606</v>
       </c>
-      <c r="E102" s="20" t="s">
+      <c r="E102" s="24" t="s">
         <v>607</v>
       </c>
-      <c r="F102" s="20" t="s">
+      <c r="F102" s="24" t="s">
         <v>608</v>
       </c>
       <c r="G102" s="15"/>
@@ -6909,16 +6976,16 @@
       <c r="B103" s="15" t="s">
         <v>580</v>
       </c>
-      <c r="C103" s="20" t="s">
+      <c r="C103" s="24" t="s">
         <v>610</v>
       </c>
-      <c r="D103" s="20" t="s">
+      <c r="D103" s="24" t="s">
         <v>611</v>
       </c>
-      <c r="E103" s="20" t="s">
+      <c r="E103" s="24" t="s">
         <v>612</v>
       </c>
-      <c r="F103" s="20" t="s">
+      <c r="F103" s="24" t="s">
         <v>613</v>
       </c>
       <c r="G103" s="15"/>
@@ -6933,16 +7000,16 @@
       <c r="B104" s="15" t="s">
         <v>580</v>
       </c>
-      <c r="C104" s="20" t="s">
+      <c r="C104" s="24" t="s">
         <v>615</v>
       </c>
-      <c r="D104" s="20" t="s">
+      <c r="D104" s="24" t="s">
         <v>616</v>
       </c>
-      <c r="E104" s="20" t="s">
+      <c r="E104" s="24" t="s">
         <v>617</v>
       </c>
-      <c r="F104" s="20" t="s">
+      <c r="F104" s="24" t="s">
         <v>618</v>
       </c>
       <c r="G104" s="15"/>
@@ -6957,16 +7024,16 @@
       <c r="B105" s="15" t="s">
         <v>580</v>
       </c>
-      <c r="C105" s="20" t="s">
+      <c r="C105" s="24" t="s">
         <v>620</v>
       </c>
-      <c r="D105" s="20" t="s">
+      <c r="D105" s="24" t="s">
         <v>621</v>
       </c>
-      <c r="E105" s="20" t="s">
+      <c r="E105" s="24" t="s">
         <v>622</v>
       </c>
-      <c r="F105" s="20" t="s">
+      <c r="F105" s="24" t="s">
         <v>623</v>
       </c>
       <c r="G105" s="15"/>
@@ -6981,16 +7048,16 @@
       <c r="B106" s="15" t="s">
         <v>580</v>
       </c>
-      <c r="C106" s="20" t="s">
+      <c r="C106" s="24" t="s">
         <v>625</v>
       </c>
-      <c r="D106" s="20" t="s">
+      <c r="D106" s="24" t="s">
         <v>626</v>
       </c>
-      <c r="E106" s="20" t="s">
+      <c r="E106" s="24" t="s">
         <v>627</v>
       </c>
-      <c r="F106" s="20" t="s">
+      <c r="F106" s="24" t="s">
         <v>628</v>
       </c>
       <c r="G106" s="15"/>
@@ -7005,16 +7072,16 @@
       <c r="B107" s="15" t="s">
         <v>580</v>
       </c>
-      <c r="C107" s="20" t="s">
+      <c r="C107" s="24" t="s">
         <v>630</v>
       </c>
-      <c r="D107" s="20" t="s">
+      <c r="D107" s="24" t="s">
         <v>631</v>
       </c>
-      <c r="E107" s="20" t="s">
+      <c r="E107" s="24" t="s">
         <v>632</v>
       </c>
-      <c r="F107" s="20" t="s">
+      <c r="F107" s="24" t="s">
         <v>633</v>
       </c>
       <c r="G107" s="15"/>
@@ -7029,16 +7096,16 @@
       <c r="B108" s="15" t="s">
         <v>580</v>
       </c>
-      <c r="C108" s="20" t="s">
+      <c r="C108" s="24" t="s">
         <v>635</v>
       </c>
-      <c r="D108" s="20" t="s">
+      <c r="D108" s="24" t="s">
         <v>636</v>
       </c>
-      <c r="E108" s="20" t="s">
+      <c r="E108" s="24" t="s">
         <v>637</v>
       </c>
-      <c r="F108" s="20" t="s">
+      <c r="F108" s="24" t="s">
         <v>638</v>
       </c>
       <c r="G108" s="15"/>
@@ -7053,13 +7120,13 @@
       <c r="B109" s="15" t="s">
         <v>640</v>
       </c>
-      <c r="C109" s="20" t="s">
+      <c r="C109" s="24" t="s">
         <v>641</v>
       </c>
-      <c r="D109" s="20" t="s">
+      <c r="D109" s="24" t="s">
         <v>642</v>
       </c>
-      <c r="E109" s="20" t="s">
+      <c r="E109" s="24" t="s">
         <v>643</v>
       </c>
     </row>
@@ -7070,13 +7137,13 @@
       <c r="B110" s="15" t="s">
         <v>640</v>
       </c>
-      <c r="C110" s="20" t="s">
+      <c r="C110" s="24" t="s">
         <v>645</v>
       </c>
-      <c r="D110" s="20" t="s">
+      <c r="D110" s="24" t="s">
         <v>646</v>
       </c>
-      <c r="E110" s="20" t="s">
+      <c r="E110" s="24" t="s">
         <v>647</v>
       </c>
     </row>
@@ -7087,13 +7154,13 @@
       <c r="B111" s="15" t="s">
         <v>640</v>
       </c>
-      <c r="C111" s="20" t="s">
+      <c r="C111" s="24" t="s">
         <v>649</v>
       </c>
-      <c r="D111" s="20" t="s">
+      <c r="D111" s="24" t="s">
         <v>650</v>
       </c>
-      <c r="E111" s="20" t="s">
+      <c r="E111" s="24" t="s">
         <v>651</v>
       </c>
     </row>
@@ -7104,13 +7171,13 @@
       <c r="B112" s="15" t="s">
         <v>640</v>
       </c>
-      <c r="C112" s="20" t="s">
+      <c r="C112" s="24" t="s">
         <v>653</v>
       </c>
-      <c r="D112" s="20" t="s">
+      <c r="D112" s="24" t="s">
         <v>654</v>
       </c>
-      <c r="E112" s="20" t="s">
+      <c r="E112" s="24" t="s">
         <v>655</v>
       </c>
     </row>
@@ -7121,13 +7188,13 @@
       <c r="B113" s="15" t="s">
         <v>640</v>
       </c>
-      <c r="C113" s="20" t="s">
+      <c r="C113" s="24" t="s">
         <v>656</v>
       </c>
-      <c r="D113" s="20" t="s">
+      <c r="D113" s="24" t="s">
         <v>657</v>
       </c>
-      <c r="E113" s="20" t="s">
+      <c r="E113" s="24" t="s">
         <v>658</v>
       </c>
     </row>
@@ -7138,27 +7205,27 @@
       <c r="B114" s="15" t="s">
         <v>640</v>
       </c>
-      <c r="C114" s="20" t="s">
+      <c r="C114" s="24" t="s">
         <v>660</v>
       </c>
-      <c r="D114" s="20" t="s">
+      <c r="D114" s="24" t="s">
         <v>661</v>
       </c>
-      <c r="E114" s="20" t="s">
+      <c r="E114" s="24" t="s">
         <v>662</v>
       </c>
     </row>
     <row r="115" ht="37.5" customHeight="1">
-      <c r="A115" s="22"/>
-      <c r="B115" s="23"/>
-      <c r="C115" s="23"/>
-      <c r="D115" s="23"/>
-      <c r="E115" s="23"/>
-      <c r="F115" s="24"/>
-      <c r="G115" s="24"/>
-      <c r="H115" s="24"/>
-      <c r="I115" s="24"/>
-      <c r="J115" s="24"/>
+      <c r="A115" s="26"/>
+      <c r="B115" s="27"/>
+      <c r="C115" s="27"/>
+      <c r="D115" s="27"/>
+      <c r="E115" s="27"/>
+      <c r="F115" s="28"/>
+      <c r="G115" s="28"/>
+      <c r="H115" s="28"/>
+      <c r="I115" s="28"/>
+      <c r="J115" s="28"/>
     </row>
     <row r="116">
       <c r="A116" s="14" t="s">
@@ -7167,10 +7234,10 @@
       <c r="B116" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="C116" s="20" t="s">
+      <c r="C116" s="24" t="s">
         <v>230</v>
       </c>
-      <c r="D116" s="20" t="s">
+      <c r="D116" s="24" t="s">
         <v>231</v>
       </c>
     </row>
@@ -7181,10 +7248,10 @@
       <c r="B117" s="15" t="s">
         <v>664</v>
       </c>
-      <c r="C117" s="20" t="s">
+      <c r="C117" s="24" t="s">
         <v>234</v>
       </c>
-      <c r="D117" s="20" t="s">
+      <c r="D117" s="24" t="s">
         <v>235</v>
       </c>
     </row>
@@ -7195,10 +7262,10 @@
       <c r="B118" s="15" t="s">
         <v>665</v>
       </c>
-      <c r="C118" s="20" t="s">
+      <c r="C118" s="24" t="s">
         <v>238</v>
       </c>
-      <c r="D118" s="20" t="s">
+      <c r="D118" s="24" t="s">
         <v>239</v>
       </c>
     </row>
@@ -7209,10 +7276,10 @@
       <c r="B119" s="15" t="s">
         <v>666</v>
       </c>
-      <c r="C119" s="20" t="s">
+      <c r="C119" s="24" t="s">
         <v>242</v>
       </c>
-      <c r="D119" s="20" t="s">
+      <c r="D119" s="24" t="s">
         <v>243</v>
       </c>
     </row>
@@ -7223,10 +7290,10 @@
       <c r="B120" s="15" t="s">
         <v>667</v>
       </c>
-      <c r="C120" s="20" t="s">
+      <c r="C120" s="24" t="s">
         <v>245</v>
       </c>
-      <c r="D120" s="20" t="s">
+      <c r="D120" s="24" t="s">
         <v>246</v>
       </c>
     </row>
@@ -7237,10 +7304,10 @@
       <c r="B121" s="15" t="s">
         <v>668</v>
       </c>
-      <c r="C121" s="20" t="s">
+      <c r="C121" s="24" t="s">
         <v>669</v>
       </c>
-      <c r="D121" s="20" t="s">
+      <c r="D121" s="24" t="s">
         <v>670</v>
       </c>
     </row>
@@ -7251,10 +7318,10 @@
       <c r="B122" s="15" t="s">
         <v>671</v>
       </c>
-      <c r="C122" s="20" t="s">
+      <c r="C122" s="24" t="s">
         <v>253</v>
       </c>
-      <c r="D122" s="20" t="s">
+      <c r="D122" s="24" t="s">
         <v>254</v>
       </c>
     </row>
@@ -7265,10 +7332,10 @@
       <c r="B123" s="15" t="s">
         <v>672</v>
       </c>
-      <c r="C123" s="20" t="s">
+      <c r="C123" s="24" t="s">
         <v>257</v>
       </c>
-      <c r="D123" s="20" t="s">
+      <c r="D123" s="24" t="s">
         <v>258</v>
       </c>
     </row>
@@ -7279,10 +7346,10 @@
       <c r="B124" s="15" t="s">
         <v>673</v>
       </c>
-      <c r="C124" s="20" t="s">
+      <c r="C124" s="24" t="s">
         <v>261</v>
       </c>
-      <c r="D124" s="20" t="s">
+      <c r="D124" s="24" t="s">
         <v>262</v>
       </c>
     </row>
@@ -7293,10 +7360,10 @@
       <c r="B125" s="15" t="s">
         <v>674</v>
       </c>
-      <c r="C125" s="20" t="s">
+      <c r="C125" s="24" t="s">
         <v>265</v>
       </c>
-      <c r="D125" s="20" t="s">
+      <c r="D125" s="24" t="s">
         <v>266</v>
       </c>
     </row>
@@ -7307,10 +7374,10 @@
       <c r="B126" s="15" t="s">
         <v>675</v>
       </c>
-      <c r="C126" s="20" t="s">
+      <c r="C126" s="24" t="s">
         <v>269</v>
       </c>
-      <c r="D126" s="20" t="s">
+      <c r="D126" s="24" t="s">
         <v>270</v>
       </c>
     </row>
@@ -7321,10 +7388,10 @@
       <c r="B127" s="15" t="s">
         <v>676</v>
       </c>
-      <c r="C127" s="20" t="s">
+      <c r="C127" s="24" t="s">
         <v>273</v>
       </c>
-      <c r="D127" s="20" t="s">
+      <c r="D127" s="24" t="s">
         <v>274</v>
       </c>
     </row>
@@ -7335,10 +7402,10 @@
       <c r="B128" s="15" t="s">
         <v>677</v>
       </c>
-      <c r="C128" s="20" t="s">
+      <c r="C128" s="24" t="s">
         <v>277</v>
       </c>
-      <c r="D128" s="20" t="s">
+      <c r="D128" s="24" t="s">
         <v>278</v>
       </c>
     </row>
@@ -7349,10 +7416,10 @@
       <c r="B129" s="15" t="s">
         <v>678</v>
       </c>
-      <c r="C129" s="20" t="s">
+      <c r="C129" s="24" t="s">
         <v>679</v>
       </c>
-      <c r="D129" s="20" t="s">
+      <c r="D129" s="24" t="s">
         <v>680</v>
       </c>
     </row>
@@ -7363,24 +7430,24 @@
       <c r="B130" s="15" t="s">
         <v>681</v>
       </c>
-      <c r="C130" s="20" t="s">
+      <c r="C130" s="24" t="s">
         <v>682</v>
       </c>
-      <c r="D130" s="20" t="s">
+      <c r="D130" s="24" t="s">
         <v>683</v>
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="21">
+      <c r="A131" s="25">
         <v>4.76E13</v>
       </c>
       <c r="B131" s="15" t="s">
         <v>684</v>
       </c>
-      <c r="C131" s="20" t="s">
+      <c r="C131" s="24" t="s">
         <v>289</v>
       </c>
-      <c r="D131" s="20" t="s">
+      <c r="D131" s="24" t="s">
         <v>290</v>
       </c>
     </row>
@@ -7391,10 +7458,10 @@
       <c r="B132" s="15" t="s">
         <v>685</v>
       </c>
-      <c r="C132" s="20" t="s">
+      <c r="C132" s="24" t="s">
         <v>293</v>
       </c>
-      <c r="D132" s="20" t="s">
+      <c r="D132" s="24" t="s">
         <v>294</v>
       </c>
     </row>
@@ -7405,10 +7472,10 @@
       <c r="B133" s="15" t="s">
         <v>686</v>
       </c>
-      <c r="C133" s="20" t="s">
+      <c r="C133" s="24" t="s">
         <v>687</v>
       </c>
-      <c r="D133" s="20" t="s">
+      <c r="D133" s="24" t="s">
         <v>688</v>
       </c>
     </row>
@@ -7419,10 +7486,10 @@
       <c r="B134" s="15" t="s">
         <v>689</v>
       </c>
-      <c r="C134" s="20" t="s">
+      <c r="C134" s="24" t="s">
         <v>301</v>
       </c>
-      <c r="D134" s="20" t="s">
+      <c r="D134" s="24" t="s">
         <v>302</v>
       </c>
     </row>
@@ -7433,10 +7500,10 @@
       <c r="B135" s="15" t="s">
         <v>690</v>
       </c>
-      <c r="C135" s="20" t="s">
+      <c r="C135" s="24" t="s">
         <v>691</v>
       </c>
-      <c r="D135" s="20" t="s">
+      <c r="D135" s="24" t="s">
         <v>692</v>
       </c>
     </row>
@@ -7447,10 +7514,10 @@
       <c r="B136" s="15" t="s">
         <v>693</v>
       </c>
-      <c r="C136" s="20" t="s">
+      <c r="C136" s="24" t="s">
         <v>309</v>
       </c>
-      <c r="D136" s="20" t="s">
+      <c r="D136" s="24" t="s">
         <v>310</v>
       </c>
     </row>
@@ -7461,10 +7528,10 @@
       <c r="B137" s="15" t="s">
         <v>694</v>
       </c>
-      <c r="C137" s="20" t="s">
+      <c r="C137" s="24" t="s">
         <v>313</v>
       </c>
-      <c r="D137" s="20" t="s">
+      <c r="D137" s="24" t="s">
         <v>314</v>
       </c>
     </row>
@@ -7475,10 +7542,10 @@
       <c r="B138" s="15" t="s">
         <v>695</v>
       </c>
-      <c r="C138" s="20" t="s">
+      <c r="C138" s="24" t="s">
         <v>317</v>
       </c>
-      <c r="D138" s="20" t="s">
+      <c r="D138" s="24" t="s">
         <v>318</v>
       </c>
     </row>
@@ -7489,10 +7556,10 @@
       <c r="B139" s="15" t="s">
         <v>696</v>
       </c>
-      <c r="C139" s="20" t="s">
+      <c r="C139" s="24" t="s">
         <v>697</v>
       </c>
-      <c r="D139" s="20" t="s">
+      <c r="D139" s="24" t="s">
         <v>698</v>
       </c>
     </row>
@@ -7503,10 +7570,10 @@
       <c r="B140" s="15" t="s">
         <v>699</v>
       </c>
-      <c r="C140" s="20" t="s">
+      <c r="C140" s="24" t="s">
         <v>325</v>
       </c>
-      <c r="D140" s="20" t="s">
+      <c r="D140" s="24" t="s">
         <v>326</v>
       </c>
     </row>
@@ -7517,10 +7584,10 @@
       <c r="B141" s="15" t="s">
         <v>700</v>
       </c>
-      <c r="C141" s="20" t="s">
+      <c r="C141" s="24" t="s">
         <v>329</v>
       </c>
-      <c r="D141" s="20" t="s">
+      <c r="D141" s="24" t="s">
         <v>330</v>
       </c>
     </row>
@@ -7531,10 +7598,10 @@
       <c r="B142" s="15" t="s">
         <v>701</v>
       </c>
-      <c r="C142" s="20" t="s">
+      <c r="C142" s="24" t="s">
         <v>333</v>
       </c>
-      <c r="D142" s="20" t="s">
+      <c r="D142" s="24" t="s">
         <v>334</v>
       </c>
     </row>
@@ -7545,10 +7612,10 @@
       <c r="B143" s="15" t="s">
         <v>702</v>
       </c>
-      <c r="C143" s="20" t="s">
+      <c r="C143" s="24" t="s">
         <v>337</v>
       </c>
-      <c r="D143" s="20" t="s">
+      <c r="D143" s="24" t="s">
         <v>338</v>
       </c>
     </row>
@@ -7559,10 +7626,10 @@
       <c r="B144" s="15" t="s">
         <v>703</v>
       </c>
-      <c r="C144" s="20" t="s">
+      <c r="C144" s="24" t="s">
         <v>341</v>
       </c>
-      <c r="D144" s="20" t="s">
+      <c r="D144" s="24" t="s">
         <v>342</v>
       </c>
     </row>
@@ -7573,10 +7640,10 @@
       <c r="B145" s="15" t="s">
         <v>704</v>
       </c>
-      <c r="C145" s="20" t="s">
+      <c r="C145" s="24" t="s">
         <v>345</v>
       </c>
-      <c r="D145" s="20" t="s">
+      <c r="D145" s="24" t="s">
         <v>346</v>
       </c>
     </row>
@@ -7587,10 +7654,10 @@
       <c r="B146" s="15" t="s">
         <v>705</v>
       </c>
-      <c r="C146" s="20" t="s">
+      <c r="C146" s="24" t="s">
         <v>349</v>
       </c>
-      <c r="D146" s="20" t="s">
+      <c r="D146" s="24" t="s">
         <v>350</v>
       </c>
     </row>
@@ -7601,10 +7668,10 @@
       <c r="B147" s="15" t="s">
         <v>706</v>
       </c>
-      <c r="C147" s="20" t="s">
+      <c r="C147" s="24" t="s">
         <v>353</v>
       </c>
-      <c r="D147" s="20" t="s">
+      <c r="D147" s="24" t="s">
         <v>354</v>
       </c>
     </row>
@@ -7615,10 +7682,10 @@
       <c r="B148" s="15" t="s">
         <v>708</v>
       </c>
-      <c r="C148" s="25" t="s">
+      <c r="C148" s="29" t="s">
         <v>357</v>
       </c>
-      <c r="D148" s="25" t="s">
+      <c r="D148" s="29" t="s">
         <v>358</v>
       </c>
     </row>
@@ -7629,10 +7696,10 @@
       <c r="B149" s="15" t="s">
         <v>709</v>
       </c>
-      <c r="C149" s="25" t="s">
+      <c r="C149" s="29" t="s">
         <v>710</v>
       </c>
-      <c r="D149" s="25" t="s">
+      <c r="D149" s="29" t="s">
         <v>711</v>
       </c>
     </row>
@@ -7643,10 +7710,10 @@
       <c r="B150" s="15" t="s">
         <v>712</v>
       </c>
-      <c r="C150" s="25" t="s">
+      <c r="C150" s="29" t="s">
         <v>713</v>
       </c>
-      <c r="D150" s="25" t="s">
+      <c r="D150" s="29" t="s">
         <v>714</v>
       </c>
     </row>
@@ -7657,10 +7724,10 @@
       <c r="B151" s="15" t="s">
         <v>715</v>
       </c>
-      <c r="C151" s="25" t="s">
+      <c r="C151" s="29" t="s">
         <v>369</v>
       </c>
-      <c r="D151" s="25" t="s">
+      <c r="D151" s="29" t="s">
         <v>370</v>
       </c>
     </row>
@@ -7671,10 +7738,10 @@
       <c r="B152" s="15" t="s">
         <v>716</v>
       </c>
-      <c r="C152" s="25" t="s">
+      <c r="C152" s="29" t="s">
         <v>373</v>
       </c>
-      <c r="D152" s="25" t="s">
+      <c r="D152" s="29" t="s">
         <v>374</v>
       </c>
     </row>
@@ -7685,10 +7752,10 @@
       <c r="B153" s="15" t="s">
         <v>717</v>
       </c>
-      <c r="C153" s="25" t="s">
+      <c r="C153" s="29" t="s">
         <v>377</v>
       </c>
-      <c r="D153" s="25" t="s">
+      <c r="D153" s="29" t="s">
         <v>378</v>
       </c>
     </row>
@@ -7699,10 +7766,10 @@
       <c r="B154" s="15" t="s">
         <v>718</v>
       </c>
-      <c r="C154" s="25" t="s">
+      <c r="C154" s="29" t="s">
         <v>381</v>
       </c>
-      <c r="D154" s="25" t="s">
+      <c r="D154" s="29" t="s">
         <v>382</v>
       </c>
     </row>
@@ -7713,10 +7780,10 @@
       <c r="B155" s="15" t="s">
         <v>719</v>
       </c>
-      <c r="C155" s="25" t="s">
+      <c r="C155" s="29" t="s">
         <v>720</v>
       </c>
-      <c r="D155" s="25" t="s">
+      <c r="D155" s="29" t="s">
         <v>721</v>
       </c>
     </row>
@@ -7727,10 +7794,10 @@
       <c r="B156" s="15" t="s">
         <v>719</v>
       </c>
-      <c r="C156" s="25" t="s">
+      <c r="C156" s="29" t="s">
         <v>388</v>
       </c>
-      <c r="D156" s="25" t="s">
+      <c r="D156" s="29" t="s">
         <v>389</v>
       </c>
     </row>
@@ -7741,10 +7808,10 @@
       <c r="B157" s="15" t="s">
         <v>722</v>
       </c>
-      <c r="C157" s="25" t="s">
+      <c r="C157" s="29" t="s">
         <v>392</v>
       </c>
-      <c r="D157" s="25" t="s">
+      <c r="D157" s="29" t="s">
         <v>393</v>
       </c>
     </row>
@@ -7755,10 +7822,10 @@
       <c r="B158" s="15" t="s">
         <v>723</v>
       </c>
-      <c r="C158" s="25" t="s">
+      <c r="C158" s="29" t="s">
         <v>396</v>
       </c>
-      <c r="D158" s="25" t="s">
+      <c r="D158" s="29" t="s">
         <v>397</v>
       </c>
     </row>
@@ -7769,10 +7836,10 @@
       <c r="B159" s="15" t="s">
         <v>724</v>
       </c>
-      <c r="C159" s="25" t="s">
+      <c r="C159" s="29" t="s">
         <v>400</v>
       </c>
-      <c r="D159" s="25" t="s">
+      <c r="D159" s="29" t="s">
         <v>401</v>
       </c>
     </row>
@@ -7783,10 +7850,10 @@
       <c r="B160" s="15" t="s">
         <v>725</v>
       </c>
-      <c r="C160" s="20" t="s">
+      <c r="C160" s="24" t="s">
         <v>404</v>
       </c>
-      <c r="D160" s="20" t="s">
+      <c r="D160" s="24" t="s">
         <v>405</v>
       </c>
     </row>
@@ -7797,10 +7864,10 @@
       <c r="B161" s="15" t="s">
         <v>726</v>
       </c>
-      <c r="C161" s="20" t="s">
+      <c r="C161" s="24" t="s">
         <v>408</v>
       </c>
-      <c r="D161" s="20" t="s">
+      <c r="D161" s="24" t="s">
         <v>409</v>
       </c>
     </row>
@@ -7811,10 +7878,10 @@
       <c r="B162" s="15" t="s">
         <v>727</v>
       </c>
-      <c r="C162" s="20" t="s">
+      <c r="C162" s="24" t="s">
         <v>412</v>
       </c>
-      <c r="D162" s="20" t="s">
+      <c r="D162" s="24" t="s">
         <v>413</v>
       </c>
     </row>
@@ -7825,10 +7892,10 @@
       <c r="B163" s="15" t="s">
         <v>728</v>
       </c>
-      <c r="C163" s="20" t="s">
+      <c r="C163" s="24" t="s">
         <v>729</v>
       </c>
-      <c r="D163" s="20" t="s">
+      <c r="D163" s="24" t="s">
         <v>730</v>
       </c>
     </row>
@@ -7839,10 +7906,10 @@
       <c r="B164" s="15" t="s">
         <v>731</v>
       </c>
-      <c r="C164" s="20" t="s">
+      <c r="C164" s="24" t="s">
         <v>420</v>
       </c>
-      <c r="D164" s="20" t="s">
+      <c r="D164" s="24" t="s">
         <v>421</v>
       </c>
     </row>
@@ -7853,10 +7920,10 @@
       <c r="B165" s="15" t="s">
         <v>732</v>
       </c>
-      <c r="C165" s="20" t="s">
+      <c r="C165" s="24" t="s">
         <v>733</v>
       </c>
-      <c r="D165" s="20" t="s">
+      <c r="D165" s="24" t="s">
         <v>734</v>
       </c>
     </row>
